--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5086-2024</t>
+          <t>A 41724-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45330</v>
+        <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,17 +951,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,31 +985,31 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>Strävlosta</t>
+          <t>Svinrot</t>
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
     </row>
@@ -1023,7 +1023,7 @@
         <v>45930.60416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1101,14 +1101,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 1895-2026</t>
+          <t>A 50366-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>46035.50569444444</v>
+        <v>45944.56960648148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1155,130 +1155,130 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1895-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46035.50569444444</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Backmåra</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 50366-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45944.56960648148</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A 41724-2022</t>
+          <t>A 5086-2024</t>
         </is>
       </c>
       <c r="B10" s="1" t="n">
-        <v>44827</v>
+        <v>45330</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1291,16 +1291,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -1325,31 +1325,31 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>Svinrot</t>
+          <t>Strävlosta</t>
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
     </row>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44245.443125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2102,14 +2102,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 63200-2021</t>
+          <t>A 3708-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44507.76953703703</v>
+        <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2159,14 +2159,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 8786-2022</t>
+          <t>A 63200-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44614</v>
+        <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2178,13 +2178,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2221,14 +2216,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 16742-2022</t>
+          <t>A 8786-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44673.45262731481</v>
+        <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2240,8 +2235,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>8.1</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 3708-2022</t>
+          <t>A 16742-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44586</v>
+        <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44859</v>
+        <v>44840.4175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,14 +2506,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18124-2022</t>
+          <t>A 28231-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44684</v>
+        <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28231-2021</t>
+          <t>A 28233-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2620,14 +2620,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28233-2021</t>
+          <t>A 18124-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44355</v>
+        <v>44684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44446</v>
+        <v>44405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44237</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44848</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44803</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44498</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44816</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 30174-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>44757</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45884</v>
+        <v>45634</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 30174-2022</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44757</v>
+        <v>45518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>5.1</v>
+        <v>2.2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,13 +4131,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4174,14 +4169,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4194,7 +4189,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>11.1</v>
+        <v>2.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4231,14 +4226,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>45386</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4251,7 +4246,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>11.1</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4288,14 +4283,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>44455</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4307,13 +4302,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4350,14 +4340,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,13 +4359,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>3.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4412,14 +4397,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44914</v>
+        <v>45189</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4432,7 +4417,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4469,14 +4454,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>44827</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4489,7 +4474,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4526,14 +4511,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45361</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4546,7 +4531,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4583,14 +4568,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4603,7 +4588,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4640,14 +4625,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>45373</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4660,7 +4645,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4697,14 +4682,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4717,7 +4702,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4754,14 +4739,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45337</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4774,7 +4759,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4811,14 +4796,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45099</v>
+        <v>45803</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4831,7 +4816,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4868,14 +4853,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4888,7 +4873,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4925,14 +4910,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4945,7 +4930,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>4.4</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4982,14 +4967,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44844</v>
+        <v>45884</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5001,13 +4986,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5044,14 +5024,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45446</v>
+        <v>45804</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5064,7 +5044,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5101,14 +5081,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45034</v>
+        <v>45804</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5121,7 +5101,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5158,14 +5138,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>44355</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5177,13 +5157,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5220,14 +5195,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5239,8 +5214,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>3.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5277,14 +5257,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44355</v>
+        <v>45805</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5297,7 +5277,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5334,14 +5314,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45099</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5353,8 +5333,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5391,14 +5376,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5411,7 +5396,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5448,14 +5433,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5468,7 +5453,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5505,14 +5490,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5525,7 +5510,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5562,14 +5547,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5582,7 +5567,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.7</v>
+        <v>11.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5619,14 +5604,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5639,7 +5624,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5676,14 +5661,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>44914</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5696,7 +5681,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5733,14 +5718,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44455</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5753,7 +5738,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>4.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5790,14 +5775,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5810,7 +5795,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5847,14 +5832,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45386</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5867,7 +5852,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>3.6</v>
+        <v>6.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5904,14 +5889,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5923,8 +5908,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5961,14 +5951,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5981,7 +5971,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6018,14 +6008,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6038,7 +6028,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.4</v>
+        <v>1.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6075,14 +6065,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6095,7 +6085,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6132,14 +6122,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6152,7 +6142,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6189,14 +6179,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6209,7 +6199,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6246,14 +6236,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6266,7 +6256,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6303,14 +6293,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6323,7 +6313,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6360,14 +6350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44529</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6380,7 +6370,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6417,14 +6407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44931</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6437,7 +6427,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6474,14 +6464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6494,7 +6484,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6531,14 +6521,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45373</v>
+        <v>45337</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6551,7 +6541,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6588,14 +6578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45373</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6608,7 +6598,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.9</v>
+        <v>5.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6645,14 +6635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45099</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6665,7 +6655,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6702,14 +6692,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6722,7 +6712,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6759,14 +6749,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6779,7 +6769,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6816,14 +6806,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6836,7 +6826,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6873,14 +6863,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44547</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6893,7 +6883,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.9</v>
+        <v>14.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6930,14 +6920,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6950,7 +6940,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6987,14 +6977,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7044,14 +7034,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>44645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7064,7 +7054,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7101,14 +7091,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>44645</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7121,7 +7111,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7158,14 +7148,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>44645</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7178,7 +7168,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7215,14 +7205,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7235,7 +7225,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7272,14 +7262,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7292,7 +7282,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7329,14 +7319,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7349,7 +7339,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7386,14 +7376,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44614</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7405,13 +7395,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7448,14 +7433,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7467,13 +7452,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7510,14 +7490,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7529,13 +7509,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>3.7</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7572,14 +7547,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7591,13 +7566,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7634,14 +7604,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7654,7 +7624,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7691,14 +7661,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7711,7 +7681,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7748,14 +7718,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7768,7 +7738,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>4.6</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7805,14 +7775,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7825,7 +7795,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7862,14 +7832,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45634</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7882,7 +7852,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7919,14 +7889,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45361</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7939,7 +7909,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7976,14 +7946,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7996,7 +7966,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>14.7</v>
+        <v>0.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8033,14 +8003,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>44974</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8053,7 +8023,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8090,14 +8060,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8109,8 +8079,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>7.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8147,14 +8122,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8167,7 +8142,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.1</v>
+        <v>4.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8204,14 +8179,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45670</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8224,7 +8199,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8261,14 +8236,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45386</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8281,7 +8256,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8318,14 +8293,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8338,7 +8313,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.4</v>
+        <v>6.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8375,14 +8350,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>44967</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8394,8 +8369,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8432,14 +8412,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44257</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8451,8 +8431,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8489,14 +8474,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8508,8 +8493,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G135" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8546,14 +8536,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8565,8 +8555,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8603,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44827</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8623,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8660,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8680,7 +8675,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8717,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8737,7 +8732,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>19.7</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8774,14 +8769,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45966</v>
+        <v>44405</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8794,7 +8789,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8831,14 +8826,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45000</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8851,7 +8846,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8888,14 +8883,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8945,14 +8940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8965,7 +8960,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9002,14 +8997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9022,7 +9017,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>10.9</v>
+        <v>0.4</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9059,14 +9054,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9079,7 +9074,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9116,14 +9111,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9136,7 +9131,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9173,14 +9168,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9193,7 +9188,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>18.8</v>
+        <v>1.4</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9230,14 +9225,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45966</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9250,7 +9245,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9287,14 +9282,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9302,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9344,14 +9339,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9359,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9401,14 +9396,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45000</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9421,7 +9416,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9458,14 +9453,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9473,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9515,14 +9510,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45268</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9530,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>10.9</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9572,14 +9567,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9587,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.5</v>
+        <v>5.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9629,14 +9624,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9644,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9686,14 +9681,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45373</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9701,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9743,14 +9738,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9762,13 +9757,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G157" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9805,14 +9795,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45518</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9825,7 +9815,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9862,14 +9852,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45011</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9882,7 +9872,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.7</v>
+        <v>18.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9919,14 +9909,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9939,7 +9929,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9976,14 +9966,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9995,8 +9985,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G161" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10033,14 +10028,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45189</v>
+        <v>44614</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10052,8 +10047,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10090,14 +10090,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45572</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10110,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10147,14 +10147,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10166,8 +10166,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10204,14 +10209,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44645</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10229,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10261,14 +10266,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10286,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10318,14 +10323,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10343,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10375,14 +10380,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10432,14 +10437,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10452,7 +10457,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10489,14 +10494,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44645</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10509,7 +10514,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10546,14 +10551,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10565,8 +10570,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10603,14 +10613,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>44706</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10623,7 +10633,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10660,14 +10670,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45146</v>
+        <v>45268</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10680,7 +10690,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10717,14 +10727,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10737,7 +10747,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10774,14 +10784,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 8124-2021</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44243</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10793,8 +10803,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10831,14 +10846,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>44628</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10851,7 +10866,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10888,14 +10903,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10907,8 +10922,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>3.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10945,14 +10965,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>44844</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10970,7 +10990,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11007,14 +11027,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11027,7 +11047,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11064,14 +11084,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11084,7 +11104,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11121,14 +11141,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11141,7 +11161,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11178,14 +11198,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44638</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11198,7 +11218,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11235,14 +11255,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11254,8 +11274,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11292,14 +11317,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11312,7 +11337,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.5</v>
+        <v>0.8</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11349,14 +11374,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11369,7 +11394,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11406,14 +11431,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>44638</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11426,7 +11451,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11463,14 +11488,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>44706</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11482,13 +11507,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11525,14 +11545,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45386</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11565,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>6.7</v>
+        <v>19.7</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11582,14 +11602,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
         <v>45386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11602,7 +11622,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11639,14 +11659,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11659,7 +11679,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11696,14 +11716,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45011</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11715,13 +11735,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G191" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11758,14 +11773,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11815,14 +11830,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 8127-2021</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44243</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11850,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11872,14 +11887,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11892,7 +11907,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11929,14 +11944,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44405</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11949,7 +11964,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11986,14 +12001,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44628</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12006,7 +12021,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12043,14 +12058,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44974</v>
+        <v>44529</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12063,7 +12078,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.7</v>
+        <v>4.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12107,7 +12122,7 @@
         <v>44970.59268518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12157,14 +12172,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12177,7 +12192,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12214,14 +12229,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45386</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12233,13 +12248,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12276,14 +12286,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12296,7 +12306,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12333,14 +12343,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12353,7 +12363,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12390,14 +12400,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45670</v>
+        <v>45099</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12410,7 +12420,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12447,14 +12457,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12467,7 +12477,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12504,14 +12514,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12524,7 +12534,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12561,14 +12571,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45386</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12581,7 +12591,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12618,14 +12628,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45386</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12638,7 +12648,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12675,14 +12685,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 8127-2021</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>44243</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12695,7 +12705,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12732,14 +12742,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12752,7 +12762,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12789,14 +12799,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44645</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12809,7 +12819,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12846,14 +12856,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44645</v>
+        <v>44257</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12866,7 +12876,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12903,14 +12913,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12922,8 +12932,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12960,14 +12975,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45386</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12980,7 +12995,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13017,14 +13032,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13037,7 +13052,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13074,14 +13089,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13094,7 +13109,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13131,14 +13146,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45000</v>
+        <v>45373</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13151,7 +13166,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13188,14 +13203,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13207,8 +13222,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G217" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13245,14 +13265,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13265,7 +13285,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13302,14 +13322,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45751</v>
+        <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13322,7 +13342,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13359,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13379,7 +13399,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13416,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13436,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13473,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45804</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13493,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>2.1</v>
+        <v>0.3</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13530,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45804</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13550,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13587,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>44931</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13607,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13644,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 8124-2021</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45803</v>
+        <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13664,7 +13684,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13701,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13720,8 +13740,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13758,14 +13783,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13777,13 +13802,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>8.199999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13820,14 +13840,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13840,7 +13860,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13877,14 +13897,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45805</v>
+        <v>45572</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13897,7 +13917,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13934,14 +13954,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>44547</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13954,7 +13974,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13991,14 +14011,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>45099</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14010,13 +14030,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14053,14 +14068,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14073,7 +14088,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14110,14 +14125,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14130,7 +14145,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14167,14 +14182,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14187,7 +14202,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14224,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14244,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14281,14 +14296,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44967</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14300,13 +14315,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14343,14 +14353,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45000</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14363,7 +14373,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>6.6</v>
+        <v>1.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14400,14 +14410,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45751</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14419,13 +14429,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G238" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14462,14 +14467,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14481,13 +14486,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G239" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14524,14 +14524,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45930.60416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45944.56960648148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46035.50569444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45330</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44245.443125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44237</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44848</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44803</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44498</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44816</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44757</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45634</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>45518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45152.52061342593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45352.48944444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>45386</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44455</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44931.57689814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45189</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44827</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44777.59171296296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45376.52688657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45373</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45800.8074537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45803</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45800.81108796296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45800.81622685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45884</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45804</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45804</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44355</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45804.36298611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45805</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45645.62891203703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45722.33243055556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>45021.38078703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45846.59416666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45847.57822916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>44676.67267361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44914</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45894.32873842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45894.31888888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45110.61938657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>45819.32724537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45530.47739583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>45446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44272.62681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>45910.41298611111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45915.4346875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45667.65357638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45918.67119212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45918.67211805555</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45918.67410879629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45337</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45918.67297453704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45918.66829861111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45768.72082175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>45729.97268518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>45833.32134259259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45575.66361111111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>45929.48538194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45012.74041666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44645</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44645</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45929.48041666667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45021.37828703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44844.44121527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45930.59194444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45930.26871527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45930.59738425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45930.59872685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45930.59351851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45930.60120370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45930.60195601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45839.63256944445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45932.64380787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45361</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45839.72451388889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44974</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45937.6599074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45845.57840277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>45670</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45386</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45852.68678240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44967</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45366.35112268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45632.53951388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45635.6282175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45862.73864583333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45953.44965277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45953.32733796296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44405</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>45000</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>45069.41737268519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45736.37754629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>45366.78552083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45958.71226851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>45099.61547453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44931.57833333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>45966</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45623.36986111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>45051.39313657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45051.42228009259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>45974.67329861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>45974.65054398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>45974.65353009259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>45975.33076388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45974.64655092593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>45975.34238425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>45974.67436342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45974.64944444445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45974.65203703703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45763.57391203703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44614</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45224.68096064815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44924.60834490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45985.70609953703</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>45985.70936342593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>45986.66487268519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>46029.66304398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45986.66530092592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45758.64768518518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45716.47787037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45386.40589120371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45268</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45995.78456018519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44924.59118055556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44628</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>46044.34138888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44844</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45747.4666087963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45747.48292824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>46006.64335648148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>46049.46898148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45756.45190972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>46051.49328703704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44691.48512731482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44638</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44706</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>45624.55305555555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45210.66854166667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45011</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45119.41274305555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45119.42896990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44817.48424768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>45152.68237268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44587.54376157407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44529</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44970.59268518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45386</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45119.43261574074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45238.57581018518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45099</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45210.66451388889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45099.74278935185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45386</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44243</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45251.59912037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45152.37777777778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44257</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44455.33650462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45252.87451388889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45747.46989583333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45747.47193287037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45373</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45634.83702546296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44272.6200462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45281.68771990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44817.40581018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45645.83722222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45268.36413194444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44931</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45716.47924768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>45767.49024305555</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>45099.72846064815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45572</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44547</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45099</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>45099.62096064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45440.65799768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45748.46936342592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45477.50171296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45440.64200231482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45000</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45751</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45721.77831018518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45733.41709490741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45930.60416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45944.56960648148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46035.50569444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45330</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44245.443125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44684</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44405</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44237</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44848</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44803</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44498</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44816</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44757</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45634</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>45518</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45152.52061342593</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>45352.48944444444</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>45386</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44455</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44931.57689814815</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45189</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>44827</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>44777.59171296296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>45376.52688657407</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>45373</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>45800.8074537037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>45803</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45800.81108796296</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4917,7 +4917,7 @@
         <v>45800.81622685185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4974,7 +4974,7 @@
         <v>45884</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
         <v>45804</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>45804</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5145,7 +5145,7 @@
         <v>44355</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5202,7 +5202,7 @@
         <v>45804.36298611111</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45805</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5321,7 +5321,7 @@
         <v>45645.62891203703</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45722.33243055556</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>45021.38078703704</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45846.59416666667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45847.57822916667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>44676.67267361111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>44914</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45894.32873842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45894.31888888889</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45110.61938657407</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>45819.32724537037</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5958,7 +5958,7 @@
         <v>45530.47739583333</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6015,7 +6015,7 @@
         <v>45446</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6072,7 +6072,7 @@
         <v>44272.62681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6129,7 +6129,7 @@
         <v>45910.41298611111</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6186,7 +6186,7 @@
         <v>45915.4346875</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6243,7 +6243,7 @@
         <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6300,7 +6300,7 @@
         <v>45667.65357638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6357,7 +6357,7 @@
         <v>45918.67119212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6414,7 +6414,7 @@
         <v>45918.67211805555</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>45918.67410879629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>45337</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>45918.67297453704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45918.66829861111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45768.72082175926</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>45729.97268518519</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>45833.32134259259</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45575.66361111111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>45929.48538194445</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45012.74041666667</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44645</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44645</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>45929.48041666667</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>45021.37828703703</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7326,7 +7326,7 @@
         <v>44844.44121527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7383,7 +7383,7 @@
         <v>45930.59194444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7440,7 +7440,7 @@
         <v>45930.26871527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7497,7 +7497,7 @@
         <v>45930.59738425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7554,7 +7554,7 @@
         <v>45930.59872685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7611,7 +7611,7 @@
         <v>45930.59351851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7668,7 +7668,7 @@
         <v>45930.60120370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7725,7 +7725,7 @@
         <v>45930.60195601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7782,7 +7782,7 @@
         <v>45839.63256944445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7839,7 +7839,7 @@
         <v>45932.64380787037</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45361</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45839.72451388889</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8010,7 +8010,7 @@
         <v>44974</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8067,7 +8067,7 @@
         <v>45937.6599074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8129,7 +8129,7 @@
         <v>45845.57840277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
         <v>45670</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8243,7 +8243,7 @@
         <v>45386</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8300,7 +8300,7 @@
         <v>45852.68678240741</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8357,7 +8357,7 @@
         <v>44967</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45366.35112268518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8481,7 +8481,7 @@
         <v>45632.53951388889</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>45635.6282175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45862.73864583333</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45953.44965277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45953.32733796296</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44405</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>45000</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>45069.41737268519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>45736.37754629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>45366.78552083333</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45958.71226851852</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9118,7 +9118,7 @@
         <v>45099.61547453704</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9175,7 +9175,7 @@
         <v>44931.57833333333</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9232,7 +9232,7 @@
         <v>45966</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9289,7 +9289,7 @@
         <v>45623.36986111111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9346,7 +9346,7 @@
         <v>45051.39313657407</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9403,7 +9403,7 @@
         <v>45051.42228009259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         <v>45974.67329861111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9517,7 +9517,7 @@
         <v>45974.65054398148</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9574,7 +9574,7 @@
         <v>45974.65353009259</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9631,7 +9631,7 @@
         <v>45975.33076388889</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9688,7 +9688,7 @@
         <v>45974.64655092593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
         <v>45975.34238425926</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9802,7 +9802,7 @@
         <v>45974.67436342593</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9859,7 +9859,7 @@
         <v>45974.64944444445</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9916,7 +9916,7 @@
         <v>45974.65203703703</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9973,7 +9973,7 @@
         <v>45763.57391203703</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44614</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10097,7 +10097,7 @@
         <v>45224.68096064815</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10154,7 +10154,7 @@
         <v>44924.60834490741</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10216,7 +10216,7 @@
         <v>45985.70609953703</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>45985.70936342593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>45986.66487268519</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10387,7 +10387,7 @@
         <v>46029.66304398148</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10444,7 +10444,7 @@
         <v>45986.66530092592</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10501,7 +10501,7 @@
         <v>45758.64768518518</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10558,7 +10558,7 @@
         <v>45716.47787037037</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>45386.40589120371</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>45268</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>45995.78456018519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44924.59118055556</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10853,7 +10853,7 @@
         <v>44628</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10910,7 +10910,7 @@
         <v>46044.34138888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10972,7 +10972,7 @@
         <v>44844</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45747.4666087963</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45747.48292824074</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>46006.64335648148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>46049.46898148148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45756.45190972222</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11324,7 +11324,7 @@
         <v>46051.49328703704</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11381,7 +11381,7 @@
         <v>44691.48512731482</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11438,7 +11438,7 @@
         <v>44638</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11495,7 +11495,7 @@
         <v>44706</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11552,7 +11552,7 @@
         <v>45624.55305555555</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11609,7 +11609,7 @@
         <v>45386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11666,7 +11666,7 @@
         <v>45210.66854166667</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11723,7 +11723,7 @@
         <v>45011</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11780,7 +11780,7 @@
         <v>45119.41274305555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11837,7 +11837,7 @@
         <v>45119.42896990741</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11894,7 +11894,7 @@
         <v>44817.48424768518</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11951,7 +11951,7 @@
         <v>45152.68237268519</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12008,7 +12008,7 @@
         <v>44587.54376157407</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12065,7 +12065,7 @@
         <v>44529</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12122,7 +12122,7 @@
         <v>44970.59268518518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12179,7 +12179,7 @@
         <v>45146</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>45386</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45119.43261574074</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45238.57581018518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45099</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45099</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45210.66451388889</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45099.74278935185</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45386</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>44243</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12749,7 +12749,7 @@
         <v>45251.59912037037</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12806,7 +12806,7 @@
         <v>45152.37777777778</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12863,7 +12863,7 @@
         <v>44257</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12920,7 +12920,7 @@
         <v>44455.33650462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45252.87451388889</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13039,7 +13039,7 @@
         <v>45747.46989583333</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13096,7 +13096,7 @@
         <v>45747.47193287037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13153,7 +13153,7 @@
         <v>45373</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13210,7 +13210,7 @@
         <v>45634.83702546296</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>44272.6200462963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44645</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45281.68771990741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>44817.40581018518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45645.83722222222</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45268.36413194444</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>44931</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>44243</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45716.47924768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13790,7 +13790,7 @@
         <v>45767.49024305555</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13847,7 +13847,7 @@
         <v>45099.72846064815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13904,7 +13904,7 @@
         <v>45572</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13961,7 +13961,7 @@
         <v>44547</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14018,7 +14018,7 @@
         <v>45099</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14075,7 +14075,7 @@
         <v>45099.62096064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14132,7 +14132,7 @@
         <v>45440.65799768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14189,7 +14189,7 @@
         <v>45748.46936342592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45477.50171296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45440.64200231482</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14360,7 +14360,7 @@
         <v>45000</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14417,7 +14417,7 @@
         <v>45751</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14474,7 +14474,7 @@
         <v>45721.77831018518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14531,7 +14531,7 @@
         <v>45733.41709490741</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41724-2022</t>
+          <t>A 5086-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44827</v>
+        <v>45330</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Strävlosta</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41724-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 47393-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45930.60416666666</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 50366-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45944.56960648148</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 1895-2026</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>46035.50569444444</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Backmåra</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 5086-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Strävlosta</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 32865-2021</t>
+          <t>A 28240-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44375.66605324074</v>
+        <v>44355</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,13 +1603,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G15" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1646,14 +1641,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 28240-2021</t>
+          <t>A 32865-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44355</v>
+        <v>44375.66605324074</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1665,8 +1660,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,14 +1817,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 8421-2021</t>
+          <t>A 13342-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44245.443125</v>
+        <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1874,14 +1874,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13342-2022</t>
+          <t>A 8421-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44645</v>
+        <v>44245.443125</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2506,14 +2506,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28231-2021</t>
+          <t>A 18124-2022</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44355</v>
+        <v>44684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28233-2021</t>
+          <t>A 28231-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2620,14 +2620,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 18124-2022</t>
+          <t>A 28233-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44684</v>
+        <v>44355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44446</v>
+        <v>44405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44237</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3425,7 +3425,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3487,7 +3487,7 @@
         <v>44848</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44803</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44498</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44816</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>44757</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45634</v>
+        <v>45361</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45518</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>44844</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,8 +4131,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4169,14 +4174,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4188,8 +4193,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4226,14 +4236,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45386</v>
+        <v>44355</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4256,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4283,14 +4293,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44455</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4303,7 +4313,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4340,14 +4350,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45099</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4360,7 +4370,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4397,14 +4407,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45189</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4417,7 +4427,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4454,14 +4464,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44827</v>
+        <v>44455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4474,7 +4484,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4511,14 +4521,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45386</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4541,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>3.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4568,14 +4578,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>44529</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4598,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.6</v>
+        <v>4.9</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4625,14 +4635,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45373</v>
+        <v>44931</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4655,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4682,14 +4692,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45373</v>
+        <v>44547</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4739,14 +4749,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45099</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4759,7 +4769,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4796,14 +4806,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45803</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4816,7 +4826,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4853,14 +4863,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4872,8 +4882,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4910,14 +4925,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4930,7 +4945,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4967,14 +4982,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45884</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4987,7 +5002,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5024,14 +5039,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45804</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5043,8 +5058,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5081,14 +5101,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45804</v>
+        <v>45634</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5101,7 +5121,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5138,14 +5158,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44355</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5158,7 +5178,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5195,14 +5215,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45884</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5214,13 +5234,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>8.199999999999999</v>
+        <v>2.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5257,14 +5272,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45805</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5277,7 +5292,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5.3</v>
+        <v>14.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5314,14 +5329,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5333,13 +5348,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5376,14 +5386,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5406,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5433,14 +5443,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5452,8 +5462,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5490,14 +5505,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5547,14 +5562,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5604,14 +5619,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5639,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5661,14 +5676,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44914</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5696,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.8</v>
+        <v>5.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5718,14 +5733,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5737,8 +5752,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5775,14 +5795,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>44257</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5815,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5832,14 +5852,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5872,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>6.8</v>
+        <v>1.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5889,14 +5909,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5906,11 +5926,6 @@
       <c r="E90" t="inlineStr">
         <is>
           <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -5951,14 +5966,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5971,7 +5986,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6008,14 +6023,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45446</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6028,7 +6043,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6065,14 +6080,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6085,7 +6100,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6122,14 +6137,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>44827</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6142,7 +6157,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6179,14 +6194,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6199,7 +6214,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>4.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6236,14 +6251,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45034</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6256,7 +6271,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6293,14 +6308,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6328,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>19.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6350,14 +6365,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6370,7 +6385,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6407,14 +6422,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>44967</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6426,8 +6441,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6464,14 +6484,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6484,7 +6504,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6521,14 +6541,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45337</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6541,7 +6561,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>6.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6578,14 +6598,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6597,8 +6617,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6635,14 +6660,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6654,8 +6679,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6692,14 +6722,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6712,7 +6742,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6749,14 +6779,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6769,7 +6799,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6806,14 +6836,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>45000</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6826,7 +6856,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5.2</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6863,14 +6893,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6883,7 +6913,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>14.7</v>
+        <v>0.9</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6920,14 +6950,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45268</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6940,7 +6970,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6977,14 +7007,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6997,7 +7027,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7034,14 +7064,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44645</v>
+        <v>45373</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7054,7 +7084,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7091,14 +7121,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44645</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,14 +7178,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44645</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7168,7 +7198,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7205,14 +7235,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7225,7 +7255,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7262,14 +7292,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7282,7 +7312,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7319,14 +7349,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7339,7 +7369,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7376,14 +7406,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7396,7 +7426,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7433,14 +7463,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7453,7 +7483,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.9</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7490,14 +7520,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7510,7 +7540,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7547,14 +7577,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7567,7 +7597,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7604,14 +7634,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7624,7 +7654,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7661,14 +7691,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7681,7 +7711,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7718,14 +7748,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7738,7 +7768,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7775,14 +7805,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7795,7 +7825,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7832,14 +7862,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7852,7 +7882,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7889,14 +7919,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45361</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7909,7 +7939,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7946,14 +7976,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7966,7 +7996,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.9</v>
+        <v>2.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8003,14 +8033,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44974</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8023,7 +8053,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8060,14 +8090,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8079,13 +8109,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>7.8</v>
+        <v>1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8122,14 +8147,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8167,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.7</v>
+        <v>3.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8179,14 +8204,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45670</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8198,8 +8223,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G130" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8236,14 +8266,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45386</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8255,8 +8285,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8293,14 +8328,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>44914</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8313,7 +8348,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>6.6</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8350,14 +8385,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44967</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8369,13 +8404,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8412,14 +8442,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8431,13 +8461,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8474,14 +8499,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8493,13 +8518,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8536,14 +8556,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45337</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8555,13 +8575,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8613,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45099</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8633,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.2</v>
+        <v>2.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8670,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8675,7 +8690,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8712,14 +8727,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8732,7 +8747,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8769,14 +8784,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44405</v>
+        <v>45446</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8789,7 +8804,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8826,14 +8841,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45000</v>
+        <v>45034</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8846,7 +8861,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8883,14 +8898,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8903,7 +8918,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8940,14 +8955,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8960,7 +8975,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8997,14 +9012,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45373</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9017,7 +9032,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9054,14 +9069,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45373</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9074,7 +9089,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9111,14 +9126,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45966</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9131,7 +9146,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9168,14 +9183,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>44614</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9187,8 +9202,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9225,14 +9245,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45966</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9245,7 +9265,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9282,14 +9302,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9302,7 +9322,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9339,14 +9359,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9359,7 +9379,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>10.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9396,14 +9416,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9416,7 +9436,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>5.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9453,14 +9473,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9473,7 +9493,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.8</v>
+        <v>18.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9510,14 +9530,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9530,7 +9550,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>10.9</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9567,14 +9587,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9587,7 +9607,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9624,14 +9644,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9644,7 +9664,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9681,14 +9701,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9701,7 +9721,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9738,14 +9758,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9778,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9795,14 +9815,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9835,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9852,14 +9872,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9871,8 +9891,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>18.8</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9909,14 +9934,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45518</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9929,7 +9954,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9966,14 +9991,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45011</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9985,13 +10010,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G161" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10028,14 +10048,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>44614</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10047,13 +10067,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10090,14 +10105,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10125,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10147,14 +10162,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10164,11 +10179,6 @@
       <c r="E164" t="inlineStr">
         <is>
           <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G164" t="n">
@@ -10216,7 +10226,7 @@
         <v>45985.70609953703</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10273,7 +10283,7 @@
         <v>45985.70936342593</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10323,14 +10333,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10343,7 +10353,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10380,14 +10390,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45189</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10410,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10437,14 +10447,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45572</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10467,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10494,14 +10504,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>44645</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10514,7 +10524,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10551,14 +10561,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,13 +10580,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10613,14 +10618,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10633,7 +10638,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10670,14 +10675,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45268</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10690,7 +10695,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10727,14 +10732,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10747,7 +10752,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10784,14 +10789,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10803,13 +10808,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10846,14 +10846,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44628</v>
+        <v>44645</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10866,7 +10866,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1.2</v>
+        <v>3.4</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10903,14 +10903,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10922,13 +10922,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G177" t="n">
-        <v>3.7</v>
+        <v>1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10965,14 +10960,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44844</v>
+        <v>44706</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10984,13 +10979,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>1.7</v>
+        <v>3.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11027,14 +11017,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45146</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11047,7 +11037,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11084,14 +11074,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11104,7 +11094,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0.2</v>
+        <v>3.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11141,14 +11131,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11160,8 +11150,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11198,14 +11193,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 8124-2021</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>44243</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11218,7 +11213,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>5.4</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11255,14 +11250,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11274,13 +11269,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G183" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11317,14 +11307,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11337,7 +11327,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.8</v>
+        <v>4.6</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11374,14 +11364,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11394,7 +11384,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11431,14 +11421,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44638</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11451,7 +11441,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.6</v>
+        <v>5.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11488,14 +11478,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44706</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11507,8 +11497,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11545,14 +11540,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11565,7 +11560,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>19.7</v>
+        <v>0.8</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11602,14 +11597,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45386</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11622,7 +11617,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11659,14 +11654,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11679,7 +11674,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11716,14 +11711,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45011</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11736,7 +11731,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11773,14 +11768,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>44638</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11793,7 +11788,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11830,14 +11825,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11850,7 +11845,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11887,14 +11882,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11907,7 +11902,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>3.5</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11944,14 +11939,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11964,7 +11959,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12001,14 +11996,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12021,7 +12016,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12058,14 +12053,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44529</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12077,8 +12072,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G197" t="n">
-        <v>4.9</v>
+        <v>3</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12115,14 +12115,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45386</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.4</v>
+        <v>6.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12172,14 +12172,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45146</v>
+        <v>45386</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12229,14 +12229,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45386</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12286,14 +12286,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12305,8 +12305,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G201" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12343,14 +12348,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12363,7 +12368,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12400,14 +12405,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 8127-2021</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45099</v>
+        <v>44243</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12420,7 +12425,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12457,14 +12462,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45099</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12477,7 +12482,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12514,14 +12519,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>44405</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12534,7 +12539,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12571,14 +12576,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>44628</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12591,7 +12596,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12628,14 +12633,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45386</v>
+        <v>44974</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12648,7 +12653,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12685,14 +12690,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 8127-2021</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44243</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12710,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12742,14 +12747,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12767,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12799,14 +12804,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12818,8 +12823,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12856,14 +12866,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44257</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12886,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12913,14 +12923,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12932,13 +12942,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12975,14 +12980,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45670</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12995,7 +13000,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13032,14 +13037,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13052,7 +13057,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13089,14 +13094,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13109,7 +13114,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.1</v>
+        <v>2.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13146,14 +13151,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13166,7 +13171,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13203,14 +13208,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13222,13 +13227,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G217" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13265,14 +13265,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13322,14 +13322,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44645</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.4</v>
+        <v>0.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>44645</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13436,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>44645</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45386</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44931</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 8124-2021</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44243</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13721,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>45000</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13740,13 +13740,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13783,14 +13778,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13803,7 +13798,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13840,14 +13835,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13860,7 +13855,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13897,14 +13892,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45572</v>
+        <v>45751</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13917,7 +13912,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13954,14 +13949,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44547</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13974,7 +13969,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14011,14 +14006,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45099</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14031,7 +14026,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14068,14 +14063,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45804</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14088,7 +14083,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.1</v>
+        <v>2.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14125,14 +14120,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45804</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14145,7 +14140,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14182,14 +14177,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14202,7 +14197,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,14 +14234,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45803</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,7 +14254,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14296,14 +14291,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14316,7 +14311,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14353,14 +14348,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45000</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14372,8 +14367,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G237" t="n">
-        <v>1.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14410,14 +14410,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45751</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14467,14 +14467,14 @@
     <row r="239" ht="15" customHeight="1">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45805</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.3</v>
+        <v>5.3</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14524,14 +14524,14 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B240" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14544,7 +14544,7 @@
         </is>
       </c>
       <c r="G240" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z240"/>
+  <dimension ref="A1:Z239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5086-2024</t>
+          <t>A 41724-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45330</v>
+        <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,17 +951,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 47393-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45930.60416666666</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 50366-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45944.56960648148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1895-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46035.50569444444</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Backmåra</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 5086-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Strävlosta</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 41724-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44827</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 47393-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45930.60416666666</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 50366-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45944.56960648148</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 1895-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46035.50569444444</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Backmåra</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1584,14 +1584,14 @@
     <row r="15" ht="15" customHeight="1">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A 28240-2021</t>
+          <t>A 32865-2021</t>
         </is>
       </c>
       <c r="B15" s="1" t="n">
-        <v>44355</v>
+        <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1603,8 +1603,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G15" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1641,14 +1646,14 @@
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A 32865-2021</t>
+          <t>A 28240-2021</t>
         </is>
       </c>
       <c r="B16" s="1" t="n">
-        <v>44375.66605324074</v>
+        <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1660,13 +1665,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G16" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,14 +1817,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 13342-2022</t>
+          <t>A 8421-2021</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44645</v>
+        <v>44245.443125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1874,14 +1874,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 8421-2021</t>
+          <t>A 13342-2022</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44245.443125</v>
+        <v>44645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3361,14 +3361,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 6993-2021</t>
+          <t>A 38195-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44237</v>
+        <v>44812.42858796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3380,8 +3380,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.8</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3418,14 +3423,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 38195-2022</t>
+          <t>A 46381-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44812.42858796296</v>
+        <v>44848</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3439,11 +3444,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3480,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 46381-2022</t>
+          <t>A 49968-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44848</v>
+        <v>44865.3790162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3499,13 +3504,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 49968-2022</t>
+          <t>A 59114-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44865.3790162037</v>
+        <v>44490.43811342592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 59114-2021</t>
+          <t>A 6969-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44490.43811342592</v>
+        <v>44603.37188657407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 6969-2022</t>
+          <t>A 55496-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44603.37188657407</v>
+        <v>44475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 55496-2021</t>
+          <t>A 36244-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44475</v>
+        <v>44803</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36244-2022</t>
+          <t>A 61148-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44803</v>
+        <v>44498</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61148-2021</t>
+          <t>A 38945-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44498</v>
+        <v>44816</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 38945-2022</t>
+          <t>A 30174-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44816</v>
+        <v>44757</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 30174-2022</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44757</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45361</v>
+        <v>45634</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44844</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4133,11 +4133,11 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kommuner</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4174,14 +4174,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,13 +4193,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4236,14 +4231,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44355</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4256,7 +4251,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4293,14 +4288,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45518</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4313,7 +4308,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>2.2</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4350,14 +4345,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45099</v>
+        <v>44931</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4370,7 +4365,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4407,14 +4402,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 8124-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>44243</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4427,7 +4422,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4464,14 +4459,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44455</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,8 +4478,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4521,14 +4521,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45386</v>
+        <v>45884</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4578,14 +4578,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44529</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.9</v>
+        <v>1.6</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4635,14 +4635,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44931</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4692,14 +4692,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44547</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4749,14 +4749,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45099</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4806,14 +4806,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4825,8 +4825,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>5.1</v>
+        <v>1.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4863,14 +4868,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4882,13 +4887,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>11.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4925,14 +4925,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4945,7 +4945,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2</v>
+        <v>11.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4982,14 +4982,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45572</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5002,7 +5002,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5039,14 +5039,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>44547</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5058,13 +5058,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5101,14 +5096,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45634</v>
+        <v>45099</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5158,14 +5153,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5178,7 +5173,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.7</v>
+        <v>5.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5215,14 +5210,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45884</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5235,7 +5230,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5272,14 +5267,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5292,7 +5287,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>14.7</v>
+        <v>1.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5329,14 +5324,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>44455</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5386,14 +5381,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45386</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5406,7 +5401,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5443,14 +5438,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5462,13 +5457,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5505,14 +5495,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5525,7 +5515,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>11.1</v>
+        <v>3.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5562,14 +5552,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>45189</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5582,7 +5572,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>11.1</v>
+        <v>1.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5619,14 +5609,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5639,7 +5629,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5676,14 +5666,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>45000</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5696,7 +5686,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5733,14 +5723,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>44827</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5752,13 +5742,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5795,14 +5780,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44257</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5815,7 +5800,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5852,14 +5837,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5872,7 +5857,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5909,14 +5894,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45751</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5929,7 +5914,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5966,14 +5951,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5986,7 +5971,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6023,14 +6008,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6043,7 +6028,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4.4</v>
+        <v>0.6</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6080,14 +6065,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45373</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6100,7 +6085,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6137,14 +6122,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44827</v>
+        <v>45373</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6157,7 +6142,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>1.9</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6194,14 +6179,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6214,7 +6199,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6251,14 +6236,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6271,7 +6256,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6308,14 +6293,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>44355</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6328,7 +6313,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>19.7</v>
+        <v>1.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6365,14 +6350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6385,7 +6370,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6422,14 +6407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44967</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6441,13 +6426,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6484,14 +6464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6504,7 +6484,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6541,14 +6521,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6561,7 +6541,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.6</v>
+        <v>2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6598,14 +6578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6617,13 +6597,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6660,14 +6635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6679,13 +6654,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6722,14 +6692,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6742,7 +6712,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6779,14 +6749,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6799,7 +6769,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6836,14 +6806,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45000</v>
+        <v>44914</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6856,7 +6826,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6893,14 +6863,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45803</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6913,7 +6883,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.9</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6950,14 +6920,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45268</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6970,7 +6940,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -7007,14 +6977,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7027,7 +6997,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7064,14 +7034,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45373</v>
+        <v>45804</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7084,7 +7054,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7121,14 +7091,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45804</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7141,7 +7111,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7178,14 +7148,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7197,8 +7167,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>0.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7235,14 +7210,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7255,7 +7230,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.4</v>
+        <v>6.8</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7292,14 +7267,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45805</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7312,7 +7287,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7349,14 +7324,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7369,7 +7344,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7406,14 +7381,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7426,7 +7401,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7463,14 +7438,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45446</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7483,7 +7458,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7520,14 +7495,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7540,7 +7515,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7577,14 +7552,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7596,8 +7571,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7634,14 +7614,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7654,7 +7634,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7691,14 +7671,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45034</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7711,7 +7691,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7748,14 +7728,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7768,7 +7748,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>2.9</v>
+        <v>0.6</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7805,14 +7785,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7825,7 +7805,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7862,14 +7842,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45337</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7882,7 +7862,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7919,14 +7899,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7939,7 +7919,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7976,14 +7956,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7996,7 +7976,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8033,14 +8013,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8053,7 +8033,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8090,14 +8070,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8110,7 +8090,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8147,14 +8127,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8167,7 +8147,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8204,14 +8184,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8223,13 +8203,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G130" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8266,14 +8241,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8285,13 +8260,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>7.8</v>
+        <v>3.2</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8328,14 +8298,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44914</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8348,7 +8318,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8385,14 +8355,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8405,7 +8375,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8442,14 +8412,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8462,7 +8432,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.1</v>
+        <v>5.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8499,14 +8469,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8519,7 +8489,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.2</v>
+        <v>3.2</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8556,14 +8526,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45337</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8576,7 +8546,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.5</v>
+        <v>14.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8613,14 +8583,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45099</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8633,7 +8603,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8670,14 +8640,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8690,7 +8660,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8727,14 +8697,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>44645</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8747,7 +8717,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8784,14 +8754,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45446</v>
+        <v>44645</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8804,7 +8774,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8841,14 +8811,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45034</v>
+        <v>44645</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8861,7 +8831,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8898,14 +8868,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8918,7 +8888,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8955,14 +8925,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8975,7 +8945,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9012,14 +8982,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45373</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9032,7 +9002,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.8</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9069,14 +9039,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45373</v>
+        <v>45361</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9089,7 +9059,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9126,14 +9096,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45966</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9146,7 +9116,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9183,14 +9153,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44614</v>
+        <v>44974</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,13 +9172,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9245,14 +9210,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9264,8 +9229,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9302,14 +9272,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9322,7 +9292,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.8</v>
+        <v>6.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9359,14 +9329,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>44967</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9378,8 +9348,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>10.9</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9416,14 +9391,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9435,8 +9410,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9473,14 +9453,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9492,8 +9472,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G152" t="n">
-        <v>18.8</v>
+        <v>2.3</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9530,14 +9515,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9550,7 +9535,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9587,14 +9572,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45670</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9607,7 +9592,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9644,14 +9629,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45386</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9664,7 +9649,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>4</v>
+        <v>6.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9701,14 +9686,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9720,8 +9705,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G156" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9758,14 +9748,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9778,7 +9768,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.8</v>
+        <v>1.7</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9815,14 +9805,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>44405</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9835,7 +9825,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9872,14 +9862,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>45000</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9891,13 +9881,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9934,14 +9919,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45518</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9954,7 +9939,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9991,14 +9976,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45011</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10011,7 +9996,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10048,14 +10033,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10068,7 +10053,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10105,14 +10090,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10125,7 +10110,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10162,14 +10147,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10182,7 +10167,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10219,14 +10204,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10239,7 +10224,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10276,14 +10261,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10296,7 +10281,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10333,14 +10318,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10353,7 +10338,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10390,14 +10375,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45189</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10447,14 +10432,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45572</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10467,7 +10452,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10504,14 +10489,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44645</v>
+        <v>44614</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10523,8 +10508,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10561,14 +10551,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10581,7 +10571,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.1</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10618,14 +10608,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45966</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10638,7 +10628,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10675,14 +10665,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10694,8 +10684,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10732,14 +10727,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10752,7 +10747,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10789,14 +10784,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10809,7 +10804,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>10.9</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10846,14 +10841,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44645</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10866,7 +10861,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10903,14 +10898,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10923,7 +10918,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10960,14 +10955,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>44706</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10980,7 +10975,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11017,14 +11012,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45146</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11037,7 +11032,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>3.6</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11074,14 +11069,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11094,7 +11089,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11131,14 +11126,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11150,13 +11145,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>3.7</v>
+        <v>18.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11193,14 +11183,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 8124-2021</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44243</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11213,7 +11203,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11250,14 +11240,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11307,14 +11297,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11327,7 +11317,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11364,14 +11354,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11384,7 +11374,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11421,14 +11411,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11441,7 +11431,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11478,14 +11468,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11497,13 +11487,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11540,14 +11525,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11560,7 +11545,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>0.8</v>
+        <v>4.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11597,14 +11582,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11616,8 +11601,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G189" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11654,14 +11644,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11674,7 +11664,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11711,14 +11701,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45268</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11731,7 +11721,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>4.2</v>
+        <v>1.8</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11768,14 +11758,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>44638</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11788,7 +11778,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11825,14 +11815,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11844,8 +11834,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G193" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11882,14 +11877,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>44628</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11902,7 +11897,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11939,14 +11934,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>44844</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11958,8 +11953,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G195" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11996,14 +11996,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12053,14 +12053,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12072,13 +12072,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G197" t="n">
-        <v>3</v>
+        <v>0.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12115,14 +12110,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45386</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12134,8 +12129,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G198" t="n">
-        <v>6.7</v>
+        <v>3.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12172,14 +12172,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45386</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12191,8 +12191,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G199" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12229,14 +12234,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12249,7 +12254,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12286,14 +12291,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12305,13 +12310,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G201" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12348,14 +12348,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12405,14 +12405,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 8127-2021</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44243</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12462,14 +12462,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>44638</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12519,14 +12519,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44405</v>
+        <v>44706</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12576,14 +12576,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44628</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.2</v>
+        <v>19.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12633,14 +12633,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44974</v>
+        <v>45386</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12690,14 +12690,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12747,14 +12747,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45011</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12804,14 +12804,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12823,13 +12823,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12866,14 +12861,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12886,7 +12881,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12923,14 +12918,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12943,7 +12938,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12980,14 +12975,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45670</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13000,7 +12995,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13037,14 +13032,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13057,7 +13052,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13094,14 +13089,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>44529</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13114,7 +13109,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>2.1</v>
+        <v>4.9</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13151,14 +13146,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45386</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13171,7 +13166,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13208,14 +13203,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45146</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13228,7 +13223,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13265,14 +13260,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45386</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13285,7 +13280,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13322,14 +13317,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13342,7 +13337,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13374,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44645</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13399,7 +13394,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13436,14 +13431,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44645</v>
+        <v>45099</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13451,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.7</v>
+        <v>2.7</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13488,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45099</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13508,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13545,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45386</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13565,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13602,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13622,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13659,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45386</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13684,7 +13679,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13721,14 +13716,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 8127-2021</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45000</v>
+        <v>44243</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13778,14 +13773,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13793,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13835,14 +13830,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13850,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13892,14 +13887,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45751</v>
+        <v>44257</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13907,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13949,14 +13944,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13968,8 +13963,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14006,14 +14006,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14063,14 +14063,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45804</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.1</v>
+        <v>0.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14120,14 +14120,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45804</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14177,14 +14177,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45373</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14234,14 +14234,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45803</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14253,8 +14253,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G235" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14291,14 +14296,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14311,7 +14316,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14348,14 +14353,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>44645</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14367,13 +14372,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G237" t="n">
-        <v>8.199999999999999</v>
+        <v>3.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14410,14 +14410,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14464,17 +14464,17 @@
       </c>
       <c r="R238" s="2" t="inlineStr"/>
     </row>
-    <row r="239" ht="15" customHeight="1">
+    <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>45805</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>5.3</v>
+        <v>1.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -14520,63 +14520,6 @@
         <v>0</v>
       </c>
       <c r="R239" s="2" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>A 10703-2025</t>
-        </is>
-      </c>
-      <c r="B240" s="1" t="n">
-        <v>45722.33243055556</v>
-      </c>
-      <c r="C240" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D240" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G240" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="n">
-        <v>0</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0</v>
-      </c>
-      <c r="L240" t="n">
-        <v>0</v>
-      </c>
-      <c r="M240" t="n">
-        <v>0</v>
-      </c>
-      <c r="N240" t="n">
-        <v>0</v>
-      </c>
-      <c r="O240" t="n">
-        <v>0</v>
-      </c>
-      <c r="P240" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q240" t="n">
-        <v>0</v>
-      </c>
-      <c r="R240" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41724-2022</t>
+          <t>A 5086-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44827</v>
+        <v>45330</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Strävlosta</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41724-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 47393-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45930.60416666666</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 50366-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45944.56960648148</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 1895-2026</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>46035.50569444444</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Backmåra</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 5086-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Strävlosta</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44245.443125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44859</v>
+        <v>44840.4175</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 561-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2449,14 +2449,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 561-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44566</v>
+        <v>44859</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.6</v>
+        <v>0.7</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>44684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,14 +2677,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31559-2021</t>
+          <t>A 30432-2022</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44369</v>
+        <v>44761.48648148148</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2734,14 +2734,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34490-2021</t>
+          <t>A 31559-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44382.31175925926</v>
+        <v>44369</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.4</v>
+        <v>3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2791,14 +2791,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 56157-2021</t>
+          <t>A 30128-2022</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44477.65078703704</v>
+        <v>44757</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2848,14 +2848,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63198-2021</t>
+          <t>A 34490-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44507</v>
+        <v>44382.31175925926</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>5.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 38195-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44446</v>
+        <v>44812.42858796296</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2981,8 +2981,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3019,14 +3024,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31448-2021</t>
+          <t>A 56157-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44369</v>
+        <v>44477.65078703704</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3039,7 +3044,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3076,14 +3081,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2984-2022</t>
+          <t>A 51451-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44581.79246527778</v>
+        <v>44869.50684027778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3096,7 +3101,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3133,14 +3138,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30432-2022</t>
+          <t>A 46381-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44761.48648148148</v>
+        <v>44848</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3152,8 +3157,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3190,14 +3200,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30128-2022</t>
+          <t>A 49968-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44757</v>
+        <v>44865.3790162037</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3210,7 +3220,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3247,14 +3257,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51451-2022</t>
+          <t>A 46067-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44869.50684027778</v>
+        <v>44442.30737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3267,7 +3277,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3304,14 +3314,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46067-2021</t>
+          <t>A 59114-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44442.30737268519</v>
+        <v>44490.43811342592</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3324,7 +3334,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3361,14 +3371,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38195-2022</t>
+          <t>A 63198-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44812.42858796296</v>
+        <v>44507</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3380,13 +3390,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3423,14 +3428,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46381-2022</t>
+          <t>A 6969-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44848</v>
+        <v>44603.37188657407</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,13 +3447,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49968-2022</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44865.3790162037</v>
+        <v>44405</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59114-2021</t>
+          <t>A 31448-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44490.43811342592</v>
+        <v>44369</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6969-2022</t>
+          <t>A 55496-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44603.37188657407</v>
+        <v>44475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 55496-2021</t>
+          <t>A 61148-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44475</v>
+        <v>44498</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36244-2022</t>
+          <t>A 38945-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44803</v>
+        <v>44816</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61148-2021</t>
+          <t>A 36244-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44498</v>
+        <v>44803</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38945-2022</t>
+          <t>A 30174-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44816</v>
+        <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30174-2022</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44757</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>1.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 2984-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45634</v>
+        <v>44581.79246527778</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45337</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45099</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,13 +4131,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4174,14 +4169,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>44529</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4194,7 +4189,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.3</v>
+        <v>4.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4231,14 +4226,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45361</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4251,7 +4246,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4288,14 +4283,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45518</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4303,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4352,7 +4347,7 @@
         <v>44931</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4402,14 +4397,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 8124-2021</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44243</v>
+        <v>45099</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4417,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4459,14 +4454,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,13 +4473,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>2.3</v>
+        <v>5.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4521,14 +4511,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45884</v>
+        <v>45446</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4541,7 +4531,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4578,14 +4568,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45034</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4588,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4635,14 +4625,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>44547</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4645,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4692,14 +4682,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>44844</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4711,8 +4701,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4749,14 +4744,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4768,8 +4763,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4806,14 +4806,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4825,13 +4825,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4868,14 +4863,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>44355</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4888,7 +4883,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>11.1</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4925,14 +4920,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45373</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4945,7 +4940,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>11.1</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4982,14 +4977,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45572</v>
+        <v>45373</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5002,7 +4997,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5039,14 +5034,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44547</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5058,8 +5053,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5096,14 +5096,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45099</v>
+        <v>44614</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5115,8 +5115,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5153,14 +5158,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45099</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5173,7 +5178,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5210,14 +5215,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5230,7 +5235,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5267,14 +5272,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5287,7 +5292,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5324,14 +5329,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44455</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5344,7 +5349,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5381,14 +5386,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45386</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5401,7 +5406,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5438,14 +5443,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5458,7 +5463,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5495,14 +5500,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>44455</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5515,7 +5520,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5552,14 +5557,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45189</v>
+        <v>45386</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5572,7 +5577,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5609,14 +5614,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45803</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5629,7 +5634,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5666,14 +5671,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45000</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5686,7 +5691,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5723,14 +5728,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44827</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5742,8 +5747,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>4.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5780,14 +5790,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5800,7 +5810,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5837,14 +5847,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45805</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5857,7 +5867,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5894,14 +5904,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45751</v>
+        <v>45634</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5914,7 +5924,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5951,14 +5961,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5971,7 +5981,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6008,14 +6018,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6028,7 +6038,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6065,14 +6075,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45373</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6085,7 +6095,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.8</v>
+        <v>14.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6122,14 +6132,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45373</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6142,7 +6152,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6179,14 +6189,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6199,7 +6209,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6236,14 +6246,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6256,7 +6266,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.6</v>
+        <v>2.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6293,14 +6303,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44355</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6312,8 +6322,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6350,14 +6365,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6370,7 +6385,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6407,14 +6422,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6427,7 +6442,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6464,14 +6479,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45011</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6484,7 +6499,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6521,14 +6536,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>44257</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6541,7 +6556,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2</v>
+        <v>0.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6578,14 +6593,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6598,7 +6613,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6635,14 +6650,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 8127-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>44243</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6655,7 +6670,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6692,14 +6707,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6711,8 +6726,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6749,14 +6769,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6769,7 +6789,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6806,14 +6826,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44914</v>
+        <v>44827</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6826,7 +6846,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>4.1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6863,14 +6883,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45803</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6883,7 +6903,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6920,14 +6940,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6940,7 +6960,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3</v>
+        <v>19.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6977,14 +6997,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6997,7 +7017,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7034,14 +7054,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45804</v>
+        <v>45189</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7054,7 +7074,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7091,14 +7111,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45804</v>
+        <v>45572</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7148,14 +7168,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>44645</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,13 +7187,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7210,14 +7225,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7245,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7267,14 +7282,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45805</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7302,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>5.3</v>
+        <v>0.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7324,14 +7339,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7359,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7381,14 +7396,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7416,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7438,14 +7453,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45446</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7473,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7495,14 +7510,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7530,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.8</v>
+        <v>0.3</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7552,14 +7567,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7571,13 +7586,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7614,14 +7624,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>44405</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7634,7 +7644,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7671,14 +7681,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45034</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7691,7 +7701,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7728,14 +7738,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45000</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7748,7 +7758,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7785,14 +7795,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7805,7 +7815,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7842,14 +7852,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45337</v>
+        <v>44645</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7862,7 +7872,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7899,14 +7909,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7919,7 +7929,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7956,14 +7966,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7976,7 +7986,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8013,14 +8023,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>44628</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8033,7 +8043,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8070,14 +8080,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>44706</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8090,7 +8100,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8127,14 +8137,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8147,7 +8157,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8184,14 +8194,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>44974</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8204,7 +8214,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8241,14 +8251,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45146</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8261,7 +8271,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8298,14 +8308,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45268</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8328,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8355,14 +8365,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8412,14 +8422,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>45373</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8442,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.2</v>
+        <v>3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8469,14 +8479,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8499,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8526,14 +8536,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>44967</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8545,8 +8555,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>14.7</v>
+        <v>0.9</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8583,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.1</v>
+        <v>6.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8640,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 8124-2021</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>44243</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8675,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.2</v>
+        <v>0.8</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8697,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44645</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,8 +8731,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8754,14 +8774,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>44645</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8773,8 +8793,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8811,14 +8836,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44645</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8831,7 +8856,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8868,14 +8893,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8888,7 +8913,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8925,14 +8950,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8945,7 +8970,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8982,14 +9007,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9002,7 +9027,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9039,14 +9064,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45361</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9059,7 +9084,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9096,14 +9121,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9116,7 +9141,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9153,14 +9178,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44974</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9172,8 +9197,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9210,14 +9240,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9229,13 +9259,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>7.8</v>
+        <v>0.4</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9272,14 +9297,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9292,7 +9317,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9329,14 +9354,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44967</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9348,13 +9373,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>4.2</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9391,14 +9411,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9410,13 +9430,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9453,14 +9468,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>44638</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9472,13 +9487,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G152" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9515,14 +9525,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9545,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9572,14 +9582,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45670</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9602,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9629,14 +9639,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45386</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9648,8 +9658,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G155" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9686,14 +9701,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>44914</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9705,13 +9720,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G156" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9748,14 +9758,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9768,7 +9778,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9805,14 +9815,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44405</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9825,7 +9835,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9862,14 +9872,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45000</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9882,7 +9892,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9919,14 +9929,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9938,8 +9948,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9976,14 +9991,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45386</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9996,7 +10011,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.4</v>
+        <v>6.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10033,14 +10048,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45386</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10053,7 +10068,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10090,14 +10105,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10125,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10147,14 +10162,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10166,8 +10181,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10204,14 +10224,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45884</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10244,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10261,14 +10281,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10301,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10318,14 +10338,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10337,8 +10357,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10375,14 +10400,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10394,8 +10419,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10432,14 +10462,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10452,7 +10482,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.3</v>
+        <v>11.1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10489,14 +10519,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44614</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10508,13 +10538,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>11.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10551,14 +10576,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10570,8 +10595,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10608,14 +10638,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45966</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10628,7 +10658,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10665,14 +10695,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10682,11 +10712,6 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -10727,14 +10752,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45670</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10784,14 +10809,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10804,7 +10829,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>10.9</v>
+        <v>1.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10841,14 +10866,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10861,7 +10886,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>5.9</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10898,14 +10923,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10918,7 +10943,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10955,14 +10980,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10975,7 +11000,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11012,14 +11037,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11032,7 +11057,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11069,14 +11094,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11089,7 +11114,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11126,14 +11151,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11146,7 +11171,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>18.8</v>
+        <v>0.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11183,14 +11208,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11203,7 +11228,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11240,14 +11265,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11260,7 +11285,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11297,14 +11322,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>44645</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11317,7 +11342,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11354,14 +11379,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11374,7 +11399,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11411,14 +11436,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11431,7 +11456,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11468,14 +11493,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11488,7 +11513,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11525,14 +11550,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45386</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11545,7 +11570,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11582,14 +11607,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11601,13 +11626,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G189" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11644,14 +11664,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11664,7 +11684,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.7</v>
+        <v>5.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11701,14 +11721,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45268</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11721,7 +11741,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11758,14 +11778,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11778,7 +11798,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11815,14 +11835,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11834,13 +11854,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G193" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11877,14 +11892,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>44628</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11897,7 +11912,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11934,14 +11949,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44844</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11953,13 +11968,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11996,14 +12006,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12016,7 +12026,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12053,14 +12063,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12073,7 +12083,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0.2</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12110,14 +12120,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12129,13 +12139,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G198" t="n">
-        <v>3.7</v>
+        <v>1.3</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12172,14 +12177,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12191,13 +12196,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G199" t="n">
-        <v>4.1</v>
+        <v>2.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12234,14 +12234,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12291,14 +12291,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>5.4</v>
+        <v>2.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12348,14 +12348,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12368,7 +12368,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12405,14 +12405,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12425,7 +12425,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.8</v>
+        <v>2.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12462,14 +12462,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44638</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12482,7 +12482,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12519,14 +12519,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>44706</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12539,7 +12539,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12576,14 +12576,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>45000</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>19.7</v>
+        <v>1.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12633,14 +12633,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45386</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12653,7 +12653,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12690,14 +12690,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12710,7 +12710,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12747,14 +12747,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45011</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12767,7 +12767,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12804,14 +12804,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12823,8 +12823,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>7.8</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12861,14 +12866,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45751</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12881,7 +12886,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12918,14 +12923,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12938,7 +12943,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12975,14 +12980,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12995,7 +13000,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13032,14 +13037,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13052,7 +13057,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13089,14 +13094,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44529</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13109,7 +13114,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>4.9</v>
+        <v>1.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13146,14 +13151,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13166,7 +13171,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13203,14 +13208,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45146</v>
+        <v>45966</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13223,7 +13228,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13260,14 +13265,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45386</v>
+        <v>45804</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13280,7 +13285,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13317,14 +13322,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45804</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13337,7 +13342,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13374,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13394,7 +13399,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13431,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45099</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13451,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13488,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45099</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13508,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.9</v>
+        <v>10.9</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13545,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13565,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.4</v>
+        <v>5.9</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13602,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13622,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13659,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45386</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13679,7 +13684,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13716,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 8127-2021</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44243</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13736,7 +13741,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13773,14 +13778,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13793,7 +13798,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13830,14 +13835,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13850,7 +13855,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13887,14 +13892,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44257</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13907,7 +13912,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13944,14 +13949,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13963,13 +13968,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G230" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14006,14 +14006,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14026,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.3</v>
+        <v>3.7</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14063,14 +14063,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14083,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14120,14 +14120,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14140,7 +14140,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14177,14 +14177,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45373</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14197,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14234,14 +14234,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14253,13 +14253,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G235" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14296,14 +14291,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14315,8 +14310,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G236" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14353,14 +14353,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>44645</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14410,14 +14410,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>3.5</v>
+        <v>5.4</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14467,14 +14467,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5086-2024</t>
+          <t>A 41724-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45330</v>
+        <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,17 +951,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 47393-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45930.60416666666</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 50366-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45944.56960648148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1895-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46035.50569444444</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Backmåra</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 5086-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Strävlosta</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 41724-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44827</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 47393-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45930.60416666666</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 50366-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45944.56960648148</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 1895-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46035.50569444444</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Backmåra</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44245.443125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 561-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44566</v>
+        <v>44840.4175</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2449,14 +2449,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 561-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44859</v>
+        <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>44684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2677,14 +2677,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 30432-2022</t>
+          <t>A 31559-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44761.48648148148</v>
+        <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2734,14 +2734,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 31559-2021</t>
+          <t>A 34490-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44369</v>
+        <v>44382.31175925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2791,14 +2791,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 30128-2022</t>
+          <t>A 56157-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44757</v>
+        <v>44477.65078703704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2848,14 +2848,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34490-2021</t>
+          <t>A 63198-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44382.31175925926</v>
+        <v>44507</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>5.4</v>
+        <v>0.6</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44446</v>
+        <v>44405</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 38195-2022</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44812.42858796296</v>
+        <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2981,13 +2981,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G39" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3024,14 +3019,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 56157-2021</t>
+          <t>A 31448-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44477.65078703704</v>
+        <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3044,7 +3039,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3081,14 +3076,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 51451-2022</t>
+          <t>A 2984-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44869.50684027778</v>
+        <v>44581.79246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3101,7 +3096,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3138,14 +3133,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 46381-2022</t>
+          <t>A 30432-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44848</v>
+        <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3157,13 +3152,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3200,14 +3190,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 49968-2022</t>
+          <t>A 30128-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44865.3790162037</v>
+        <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3220,7 +3210,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2.9</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3257,14 +3247,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46067-2021</t>
+          <t>A 51451-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44442.30737268519</v>
+        <v>44869.50684027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3277,7 +3267,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3314,14 +3304,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 59114-2021</t>
+          <t>A 46067-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44490.43811342592</v>
+        <v>44442.30737268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3334,7 +3324,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3371,14 +3361,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 63198-2021</t>
+          <t>A 38195-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44507</v>
+        <v>44812.42858796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3390,8 +3380,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G46" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3428,14 +3423,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 6969-2022</t>
+          <t>A 46381-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44603.37188657407</v>
+        <v>44848</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3447,8 +3442,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G47" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 49968-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44405</v>
+        <v>44865.3790162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 31448-2021</t>
+          <t>A 59114-2021</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44369</v>
+        <v>44490.43811342592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55496-2021</t>
+          <t>A 6969-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44475</v>
+        <v>44603.37188657407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 61148-2021</t>
+          <t>A 55496-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44498</v>
+        <v>44475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 38945-2022</t>
+          <t>A 36244-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44816</v>
+        <v>44803</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2.6</v>
+        <v>1.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 36244-2022</t>
+          <t>A 61148-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44803</v>
+        <v>44498</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30174-2022</t>
+          <t>A 38945-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44757</v>
+        <v>44816</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 30174-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>44757</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.1</v>
+        <v>5.1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 2984-2022</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44581.79246527778</v>
+        <v>45634</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45337</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45099</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44529</v>
+        <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>4.9</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45361</v>
+        <v>45386</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44931</v>
+        <v>45189</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45099</v>
+        <v>44827</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>4.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>5.1</v>
+        <v>1.9</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45446</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45034</v>
+        <v>45803</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4588,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4625,14 +4625,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44547</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4645,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4682,14 +4682,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44844</v>
+        <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4701,13 +4701,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4744,14 +4739,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45373</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4763,13 +4758,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4806,14 +4796,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4816,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4863,14 +4853,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44355</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4873,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4920,14 +4910,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45373</v>
+        <v>45804</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4930,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4977,14 +4967,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45373</v>
+        <v>45804</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4987,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5034,14 +5024,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45884</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5053,13 +5043,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5096,14 +5081,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>44614</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5117,11 +5102,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Kyrkan</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5158,14 +5143,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45099</v>
+        <v>45805</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5178,7 +5163,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.9</v>
+        <v>5.3</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5215,14 +5200,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5234,8 +5219,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5272,14 +5262,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5292,7 +5282,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5329,14 +5319,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>44355</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5349,7 +5339,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5386,14 +5376,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5406,7 +5396,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5443,14 +5433,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5463,7 +5453,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>6.8</v>
+        <v>11.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5500,14 +5490,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44455</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5520,7 +5510,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5557,14 +5547,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45386</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5577,7 +5567,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5614,14 +5604,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45803</v>
+        <v>44914</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5634,7 +5624,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5671,14 +5661,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5690,8 +5680,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5728,14 +5723,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5747,13 +5742,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>8.199999999999999</v>
+        <v>6.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5790,14 +5780,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5810,7 +5800,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5847,14 +5837,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45805</v>
+        <v>45446</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5867,7 +5857,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5904,14 +5894,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45634</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5924,7 +5914,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5961,14 +5951,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6018,14 +6008,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6038,7 +6028,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>5.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6075,14 +6065,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6095,7 +6085,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>14.7</v>
+        <v>3.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6132,14 +6122,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6152,7 +6142,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6189,14 +6179,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6209,7 +6199,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.1</v>
+        <v>0.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6246,14 +6236,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45034</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6266,7 +6256,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.8</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6303,14 +6293,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6322,13 +6312,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6365,14 +6350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45518</v>
+        <v>45337</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6385,7 +6370,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6422,14 +6407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6442,7 +6427,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.4</v>
+        <v>4.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6479,14 +6464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45011</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6499,7 +6484,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6536,14 +6521,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44257</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6556,7 +6541,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0.6</v>
+        <v>2.8</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6593,14 +6578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6613,7 +6598,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6650,14 +6635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 8127-2021</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44243</v>
+        <v>44967</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6669,8 +6654,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6707,14 +6697,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6728,11 +6718,11 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6769,14 +6759,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6789,7 +6779,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>14.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6826,14 +6816,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44827</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6845,8 +6835,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6883,14 +6878,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6903,7 +6898,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6940,14 +6935,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>44645</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6960,7 +6955,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>19.7</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6997,14 +6992,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>44645</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7017,7 +7012,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7054,14 +7049,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45189</v>
+        <v>44645</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7074,7 +7069,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7111,14 +7106,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45572</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7131,7 +7126,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7168,14 +7163,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44645</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7188,7 +7183,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7225,14 +7220,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7245,7 +7240,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7282,14 +7277,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45361</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7302,7 +7297,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7339,14 +7334,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7359,7 +7354,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.1</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7396,14 +7391,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>44974</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7416,7 +7411,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7453,14 +7448,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7473,7 +7468,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7510,14 +7505,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7530,7 +7525,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7567,14 +7562,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>45670</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7587,7 +7582,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7624,14 +7619,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44405</v>
+        <v>45386</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7644,7 +7639,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.3</v>
+        <v>6.7</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7681,14 +7676,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7700,8 +7695,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7738,14 +7738,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45000</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7758,7 +7758,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7795,14 +7795,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7815,7 +7815,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7852,14 +7852,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>44645</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>3.4</v>
+        <v>1.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7909,14 +7909,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7966,14 +7966,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>44405</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8023,14 +8023,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44628</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>44706</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8099,8 +8099,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8137,14 +8142,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45000</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8157,7 +8162,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8194,14 +8199,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>44974</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8214,7 +8219,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8251,14 +8256,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45146</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8271,7 +8276,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8308,14 +8313,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45268</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8328,7 +8333,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.8</v>
+        <v>2.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8365,14 +8370,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8385,7 +8390,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8422,14 +8427,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45373</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8442,7 +8447,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8479,14 +8484,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8504,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8536,14 +8541,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44967</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8555,13 +8560,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>6.6</v>
+        <v>1.9</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 8124-2021</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>44243</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8712,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8729,11 +8729,6 @@
       <c r="E139" t="inlineStr">
         <is>
           <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -8774,14 +8769,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8793,13 +8788,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8836,14 +8826,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8856,7 +8846,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>0.4</v>
+        <v>3.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8893,14 +8883,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8913,7 +8903,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8950,14 +8940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8970,7 +8960,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9007,14 +8997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9027,7 +9017,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9064,14 +9054,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9084,7 +9074,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9121,14 +9111,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9140,8 +9130,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>3</v>
+        <v>7.8</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9178,14 +9173,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9197,13 +9192,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9240,14 +9230,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>44614</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9259,8 +9249,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9297,14 +9292,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9317,7 +9312,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9354,14 +9349,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9373,8 +9368,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G150" t="n">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9411,14 +9411,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9468,14 +9468,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44638</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9525,14 +9525,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9582,14 +9582,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9639,14 +9639,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9660,11 +9660,11 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9701,14 +9701,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>44914</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9758,14 +9758,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45966</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9778,7 +9778,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>3.9</v>
+        <v>0.6</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9815,14 +9815,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>45268</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9835,7 +9835,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9872,14 +9872,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9892,7 +9892,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9929,14 +9929,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9948,13 +9948,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G160" t="n">
-        <v>3</v>
+        <v>10.9</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9991,14 +9986,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45386</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10011,7 +10006,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>6.7</v>
+        <v>5.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10048,14 +10043,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45386</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10068,7 +10063,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10105,14 +10100,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10125,7 +10120,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10162,14 +10157,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10181,13 +10176,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10224,14 +10214,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45884</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10244,7 +10234,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10281,14 +10271,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10301,7 +10291,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>3.8</v>
+        <v>18.8</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10338,14 +10328,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10357,13 +10347,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G167" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10400,14 +10385,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10421,11 +10406,11 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10462,14 +10447,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>44628</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10482,7 +10467,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>11.1</v>
+        <v>1.2</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10519,14 +10504,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>44844</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10538,8 +10523,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10576,14 +10566,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10595,13 +10585,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G171" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10638,14 +10623,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10658,7 +10643,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10695,14 +10680,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10715,7 +10700,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10752,14 +10737,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45670</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10772,7 +10757,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10809,14 +10794,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10828,8 +10813,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G175" t="n">
-        <v>1.1</v>
+        <v>4.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10866,14 +10856,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10886,7 +10876,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10923,14 +10913,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10943,7 +10933,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10980,14 +10970,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11000,7 +10990,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11037,14 +11027,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11057,7 +11047,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11094,14 +11084,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45386</v>
+        <v>44638</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11114,7 +11104,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11151,14 +11141,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>44706</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11171,7 +11161,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>0.6</v>
+        <v>3.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11208,14 +11198,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11228,7 +11218,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>19.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11265,14 +11255,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45386</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11285,7 +11275,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0.2</v>
+        <v>1.3</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11322,14 +11312,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44645</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11342,7 +11332,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11379,14 +11369,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44645</v>
+        <v>45011</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11436,14 +11426,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11456,7 +11446,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11493,14 +11483,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11513,7 +11503,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11550,14 +11540,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45386</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11570,7 +11560,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11607,14 +11597,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11627,7 +11617,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11664,14 +11654,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11683,8 +11673,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G190" t="n">
-        <v>5.4</v>
+        <v>3.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11721,14 +11716,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11741,7 +11736,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11778,14 +11773,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11798,7 +11793,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11835,14 +11830,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11855,7 +11850,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11892,14 +11887,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11912,7 +11907,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11949,14 +11944,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11969,7 +11964,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12006,14 +12001,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>44529</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12026,7 +12021,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0.5</v>
+        <v>4.9</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12063,14 +12058,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12083,7 +12078,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12120,14 +12115,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12140,7 +12135,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.3</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12177,14 +12172,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>45386</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12197,7 +12192,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>2.9</v>
+        <v>1.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12234,14 +12229,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12254,7 +12249,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12291,14 +12286,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12311,7 +12306,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2.3</v>
+        <v>3.6</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12348,14 +12343,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45099</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12368,7 +12363,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12405,14 +12400,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45099</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12425,7 +12420,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12462,14 +12457,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12482,7 +12477,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12519,14 +12514,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12539,7 +12534,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12576,14 +12571,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45000</v>
+        <v>45386</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12596,7 +12591,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12633,14 +12628,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 8127-2021</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>44243</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12653,7 +12648,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.2</v>
+        <v>1.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12690,14 +12685,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12710,7 +12705,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12747,14 +12742,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12767,7 +12762,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>3.4</v>
+        <v>1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12804,14 +12799,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>44257</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12823,13 +12818,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G210" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12866,14 +12856,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45751</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12885,8 +12875,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12923,14 +12918,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12943,7 +12938,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12980,14 +12975,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13000,7 +12995,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13037,14 +13032,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13057,7 +13052,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13094,14 +13089,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45373</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13114,7 +13109,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13151,14 +13146,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13170,8 +13165,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13208,14 +13208,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45966</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13265,14 +13265,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45804</v>
+        <v>44645</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13322,14 +13322,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45804</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>44931</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.9</v>
+        <v>1.8</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 8124-2021</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>44243</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>18.8</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13683,8 +13683,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13721,14 +13726,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13746,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13778,14 +13783,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13803,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>4</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13835,14 +13840,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45572</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13860,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13892,14 +13897,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>44547</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13917,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13949,14 +13954,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>45099</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13974,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14006,14 +14011,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14026,7 +14031,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14063,14 +14068,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14088,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14120,14 +14125,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14177,14 +14182,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14197,7 +14202,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14234,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14254,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14291,14 +14296,14 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45000</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14310,13 +14315,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G236" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14353,14 +14353,14 @@
     <row r="237" ht="15" customHeight="1">
       <c r="A237" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B237" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>45751</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14373,7 +14373,7 @@
         </is>
       </c>
       <c r="G237" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -14410,14 +14410,14 @@
     <row r="238" ht="15" customHeight="1">
       <c r="A238" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B238" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14430,7 +14430,7 @@
         </is>
       </c>
       <c r="G238" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -14467,14 +14467,14 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B239" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14487,7 +14487,7 @@
         </is>
       </c>
       <c r="G239" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z239"/>
+  <dimension ref="A1:Z237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 47393-2025</t>
+          <t>A 1895-2026</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>45930.60416666666</v>
+        <v>46035.50569444444</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1070,204 +1070,204 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Backmåra</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 47393-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45930.60416666666</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 50366-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45944.56960648148</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 1895-2026</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46035.50569444444</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Backmåra</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45330</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44245.443125</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44645</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44586</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2223,7 +2223,7 @@
         <v>44614</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44859</v>
+        <v>44840.4175</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44859</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2456,7 +2456,7 @@
         <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44684</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44355</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2791,14 +2791,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 56157-2021</t>
+          <t>A 63198-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44477.65078703704</v>
+        <v>44507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2848,14 +2848,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 63198-2021</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44507</v>
+        <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 56157-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44405</v>
+        <v>44477.65078703704</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2969,7 +2969,7 @@
         <v>44446</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44369</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         <v>44848</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44803</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44498</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44816</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>44757</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45518</v>
+        <v>45634</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>0.4</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45634</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>45518</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4176,7 +4176,7 @@
         <v>44455</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4226,14 +4226,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45386</v>
+        <v>45751</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45386</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45189</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44827</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45884</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4474,7 +4474,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4511,14 +4511,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4531,7 +4531,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4568,14 +4568,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45803</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4587,8 +4587,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4625,14 +4630,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4650,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.6</v>
+        <v>11.1</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4682,14 +4687,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45373</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4707,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>0.8</v>
+        <v>11.1</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4739,14 +4744,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45373</v>
+        <v>45189</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4759,7 +4764,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4796,14 +4801,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>44827</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4816,7 +4821,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3</v>
+        <v>4.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4853,14 +4858,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4873,7 +4878,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4910,14 +4915,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45804</v>
+        <v>45803</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4930,7 +4935,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4967,14 +4972,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45804</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4987,7 +4992,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5024,14 +5029,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45884</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5044,7 +5049,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.6</v>
+        <v>4.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5081,14 +5086,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5102,11 +5107,11 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>8.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5143,14 +5148,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45805</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5163,7 +5168,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>5.3</v>
+        <v>1.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5200,14 +5205,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5219,13 +5224,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5319,14 +5319,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44355</v>
+        <v>45804</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5376,14 +5376,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45804</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5433,14 +5433,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5452,8 +5452,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>11.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5490,14 +5495,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5515,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>11.1</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5547,14 +5552,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>45805</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5572,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5604,14 +5609,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44914</v>
+        <v>45373</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5629,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5661,14 +5666,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>45373</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5680,13 +5685,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5723,14 +5723,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5743,7 +5743,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>6.8</v>
+        <v>1.5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5780,14 +5780,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>44355</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5837,14 +5837,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45446</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5856,8 +5856,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5894,14 +5899,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5914,7 +5919,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5951,14 +5956,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5971,7 +5976,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6008,14 +6013,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6028,7 +6033,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.2</v>
+        <v>1.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6065,14 +6070,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>44914</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6085,7 +6090,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6122,14 +6127,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6142,7 +6147,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6179,14 +6184,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6236,14 +6241,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45034</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6256,7 +6261,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6293,14 +6298,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6318,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.6</v>
+        <v>6.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6350,14 +6355,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45337</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6370,7 +6375,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6407,14 +6412,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6427,7 +6432,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6464,14 +6469,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6484,7 +6489,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.6</v>
+        <v>5.2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6521,14 +6526,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6541,7 +6546,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6578,14 +6583,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6598,7 +6603,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>6.6</v>
+        <v>1.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6635,14 +6640,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44967</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6654,13 +6659,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6697,14 +6697,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6716,13 +6716,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6759,14 +6754,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6779,7 +6774,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>14.7</v>
+        <v>0</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6816,14 +6811,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45446</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6835,13 +6830,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6878,14 +6868,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6898,7 +6888,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.2</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6935,14 +6925,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44645</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6955,7 +6945,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>0.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6992,14 +6982,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44645</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7012,7 +7002,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7049,14 +7039,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44645</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7069,7 +7059,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7106,14 +7096,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7126,7 +7116,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7163,14 +7153,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45034</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7183,7 +7173,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7220,14 +7210,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7240,7 +7230,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>4.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7277,14 +7267,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45361</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7297,7 +7287,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7334,14 +7324,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7354,7 +7344,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>2.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7391,14 +7381,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44974</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7411,7 +7401,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7448,14 +7438,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7468,7 +7458,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7505,14 +7495,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7525,7 +7515,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7562,14 +7552,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45670</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7582,7 +7572,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7619,14 +7609,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45386</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7639,7 +7629,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7676,14 +7666,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7695,13 +7685,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G121" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7738,14 +7723,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7758,7 +7743,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7795,14 +7780,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7815,7 +7800,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.3</v>
+        <v>6.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7852,14 +7837,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45337</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7872,7 +7857,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7909,14 +7894,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>44967</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7928,8 +7913,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>5.4</v>
+        <v>0.9</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7966,14 +7956,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44405</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7986,7 +7976,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1.3</v>
+        <v>0.6</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8023,14 +8013,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8042,8 +8032,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8080,14 +8075,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8101,11 +8096,11 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8142,14 +8137,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45000</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8162,7 +8157,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>2.8</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8199,14 +8194,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8219,7 +8214,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8256,14 +8251,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8275,8 +8270,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>7.8</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8313,14 +8313,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>2.6</v>
+        <v>14.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8370,14 +8370,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>1</v>
+        <v>3.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8427,14 +8427,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>44645</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.3</v>
+        <v>3.9</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8484,14 +8484,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>44645</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8541,14 +8541,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>44645</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8712,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,14 +8769,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45361</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8826,14 +8826,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8883,14 +8883,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8940,14 +8940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>44974</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9054,14 +9054,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9073,8 +9073,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9111,14 +9116,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45966</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9130,13 +9135,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>7.8</v>
+        <v>0.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9173,14 +9173,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45670</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9230,14 +9230,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44614</v>
+        <v>45386</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9249,13 +9249,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>1.5</v>
+        <v>6.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9292,14 +9287,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9311,8 +9306,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9349,14 +9349,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9368,13 +9368,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G150" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9411,14 +9406,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9431,7 +9426,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.5</v>
+        <v>10.9</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9468,14 +9463,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9488,7 +9483,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9525,14 +9520,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9545,7 +9540,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9582,14 +9577,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9602,7 +9597,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9639,14 +9634,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9658,13 +9653,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9701,14 +9691,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9721,7 +9711,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9758,14 +9748,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45966</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9778,7 +9768,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0.6</v>
+        <v>18.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9815,14 +9805,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45268</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9835,7 +9825,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9872,14 +9862,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>44405</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9892,7 +9882,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9929,14 +9919,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>45000</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9949,7 +9939,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>10.9</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9986,14 +9976,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10006,7 +9996,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>5.9</v>
+        <v>0.7</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10043,14 +10033,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10063,7 +10053,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10100,14 +10090,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10120,7 +10110,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10157,14 +10147,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10177,7 +10167,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10214,14 +10204,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10234,7 +10224,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.3</v>
+        <v>1</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10271,14 +10261,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10291,7 +10281,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>18.8</v>
+        <v>1.7</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10328,14 +10318,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10348,7 +10338,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10385,14 +10375,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10404,13 +10394,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10447,14 +10432,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44628</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10467,7 +10452,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10504,14 +10489,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44844</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10523,13 +10508,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10566,14 +10546,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10586,7 +10566,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10623,14 +10603,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10643,7 +10623,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>0.2</v>
+        <v>2.3</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10680,14 +10660,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>44614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10699,8 +10679,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10737,14 +10722,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10757,7 +10742,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10794,14 +10779,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10813,13 +10798,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G175" t="n">
-        <v>4.1</v>
+        <v>1.5</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10856,14 +10836,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10875,8 +10855,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10913,14 +10898,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10933,7 +10918,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.7</v>
+        <v>4.2</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10970,14 +10955,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10989,8 +10974,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11027,14 +11017,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11047,7 +11037,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11084,14 +11074,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44638</v>
+        <v>45268</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11104,7 +11094,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11141,14 +11131,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44706</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11160,8 +11150,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G181" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11198,14 +11193,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>44628</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11218,7 +11213,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>19.7</v>
+        <v>1.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11255,14 +11250,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45386</v>
+        <v>44844</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11274,8 +11269,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11312,14 +11312,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45011</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11445,8 +11445,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G186" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11483,14 +11488,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11503,7 +11508,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11540,14 +11545,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>44638</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11560,7 +11565,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11597,14 +11602,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>44706</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11617,7 +11622,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11654,14 +11659,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11673,13 +11678,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G190" t="n">
-        <v>3.7</v>
+        <v>19.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11716,14 +11716,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>45386</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11773,14 +11773,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11830,14 +11830,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45011</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>5.4</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11887,14 +11887,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11944,14 +11944,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12001,14 +12001,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44529</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12058,14 +12058,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12115,14 +12115,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45146</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12172,14 +12172,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45386</v>
+        <v>44529</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.6</v>
+        <v>4.9</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12229,14 +12229,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12286,14 +12286,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45146</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12343,14 +12343,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45099</v>
+        <v>45386</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12400,14 +12400,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45099</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12457,14 +12457,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12514,14 +12514,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45099</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12571,14 +12571,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45386</v>
+        <v>45099</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12628,14 +12628,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 8127-2021</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44243</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12685,14 +12685,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12742,14 +12742,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45386</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12799,14 +12799,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>44257</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12856,14 +12856,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,13 +12875,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12918,14 +12913,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>44257</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12938,7 +12933,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12975,14 +12970,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12994,8 +12989,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13032,14 +13032,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13052,7 +13052,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13089,14 +13089,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45373</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13146,14 +13146,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13165,13 +13165,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13208,14 +13203,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45373</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13228,7 +13223,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13265,14 +13260,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44645</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13284,8 +13279,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G218" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13322,14 +13322,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>3.5</v>
+        <v>0.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>44645</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13436,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>0.3</v>
+        <v>3.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44931</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.8</v>
+        <v>0.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 8124-2021</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>44243</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>44931</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13683,13 +13683,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13726,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13745,8 +13740,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G226" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13783,14 +13783,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13840,14 +13840,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45572</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13897,14 +13897,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>44547</v>
+        <v>45572</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13954,14 +13954,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45099</v>
+        <v>44547</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14011,14 +14011,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45099</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14068,14 +14068,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14125,14 +14125,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14182,14 +14182,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>3.4</v>
+        <v>1.1</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14296,85 +14296,85 @@
     <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
+          <t>A 21269-2024</t>
+        </is>
+      </c>
+      <c r="B236" s="1" t="n">
+        <v>45440.64200231482</v>
+      </c>
+      <c r="C236" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
+      <c r="I236" t="n">
+        <v>0</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0</v>
+      </c>
+      <c r="M236" t="n">
+        <v>0</v>
+      </c>
+      <c r="N236" t="n">
+        <v>0</v>
+      </c>
+      <c r="O236" t="n">
+        <v>0</v>
+      </c>
+      <c r="P236" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
+      <c r="R236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
           <t>A 12664-2023</t>
         </is>
       </c>
-      <c r="B236" s="1" t="n">
+      <c r="B237" s="1" t="n">
         <v>45000</v>
       </c>
-      <c r="C236" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
+      <c r="C237" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
         <v>1.6</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="n">
-        <v>0</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0</v>
-      </c>
-      <c r="L236" t="n">
-        <v>0</v>
-      </c>
-      <c r="M236" t="n">
-        <v>0</v>
-      </c>
-      <c r="N236" t="n">
-        <v>0</v>
-      </c>
-      <c r="O236" t="n">
-        <v>0</v>
-      </c>
-      <c r="P236" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q236" t="n">
-        <v>0</v>
-      </c>
-      <c r="R236" s="2" t="inlineStr"/>
-    </row>
-    <row r="237" ht="15" customHeight="1">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>A 16341-2025</t>
-        </is>
-      </c>
-      <c r="B237" s="1" t="n">
-        <v>45751</v>
-      </c>
-      <c r="C237" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
-        <v>1.4</v>
-      </c>
       <c r="H237" t="n">
         <v>0</v>
       </c>
@@ -14406,120 +14406,6 @@
         <v>0</v>
       </c>
       <c r="R237" s="2" t="inlineStr"/>
-    </row>
-    <row r="238" ht="15" customHeight="1">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t>A 10668-2025</t>
-        </is>
-      </c>
-      <c r="B238" s="1" t="n">
-        <v>45721.77831018518</v>
-      </c>
-      <c r="C238" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G238" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="n">
-        <v>0</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0</v>
-      </c>
-      <c r="L238" t="n">
-        <v>0</v>
-      </c>
-      <c r="M238" t="n">
-        <v>0</v>
-      </c>
-      <c r="N238" t="n">
-        <v>0</v>
-      </c>
-      <c r="O238" t="n">
-        <v>0</v>
-      </c>
-      <c r="P238" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q238" t="n">
-        <v>0</v>
-      </c>
-      <c r="R238" s="2" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>A 12656-2025</t>
-        </is>
-      </c>
-      <c r="B239" s="1" t="n">
-        <v>45733.41709490741</v>
-      </c>
-      <c r="C239" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G239" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="n">
-        <v>0</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0</v>
-      </c>
-      <c r="L239" t="n">
-        <v>0</v>
-      </c>
-      <c r="M239" t="n">
-        <v>0</v>
-      </c>
-      <c r="N239" t="n">
-        <v>0</v>
-      </c>
-      <c r="O239" t="n">
-        <v>0</v>
-      </c>
-      <c r="P239" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q239" t="n">
-        <v>0</v>
-      </c>
-      <c r="R239" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z237"/>
+  <dimension ref="A1:Z236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1016,14 +1016,14 @@
     <row r="7" ht="15" customHeight="1">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A 1895-2026</t>
+          <t>A 47393-2025</t>
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>46035.50569444444</v>
+        <v>45930.60416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1036,7 +1036,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1070,204 +1070,204 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 50366-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45944.56960648148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1895-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46035.50569444444</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Backmåra</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 47393-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45930.60416666666</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 50366-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45944.56960648148</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-    </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45330</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1817,14 +1817,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 8421-2021</t>
+          <t>A 13342-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44245.443125</v>
+        <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.8</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1874,14 +1874,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13342-2022</t>
+          <t>A 59088-2021</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>44645</v>
+        <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1894,7 +1894,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1931,14 +1931,14 @@
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 59088-2021</t>
+          <t>A 59103-2021</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>44490.41994212963</v>
+        <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1988,14 +1988,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59103-2021</t>
+          <t>A 59108-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44490</v>
+        <v>44490.43342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2045,14 +2045,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 59108-2021</t>
+          <t>A 3708-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44490.43342592593</v>
+        <v>44586</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2065,7 +2065,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2102,14 +2102,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 3708-2022</t>
+          <t>A 8786-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44586</v>
+        <v>44614</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2121,8 +2121,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2166,7 +2171,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2216,14 +2221,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 8786-2022</t>
+          <t>A 16742-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44614</v>
+        <v>44673.45262731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2235,13 +2240,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G26" t="n">
-        <v>8.1</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 16742-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44673.45262731481</v>
+        <v>44859</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2342,7 +2342,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 561-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44859</v>
+        <v>44566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2449,14 +2449,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 561-2022</t>
+          <t>A 18124-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44566</v>
+        <v>44684</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4.6</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2506,14 +2506,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 18124-2022</t>
+          <t>A 28231-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44684</v>
+        <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28231-2021</t>
+          <t>A 28233-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2620,14 +2620,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28233-2021</t>
+          <t>A 31559-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2677,14 +2677,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 31559-2021</t>
+          <t>A 34490-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44369</v>
+        <v>44382.31175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>5.4</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2734,14 +2734,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34490-2021</t>
+          <t>A 56157-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44382.31175925926</v>
+        <v>44477.65078703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2798,7 +2798,7 @@
         <v>44507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 56157-2021</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44477.65078703704</v>
+        <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 31448-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44446</v>
+        <v>44369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3019,14 +3019,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 31448-2021</t>
+          <t>A 2984-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44369</v>
+        <v>44581.79246527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3076,14 +3076,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 2984-2022</t>
+          <t>A 30432-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44581.79246527778</v>
+        <v>44761.48648148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30432-2022</t>
+          <t>A 30128-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44761.48648148148</v>
+        <v>44757</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,14 +3190,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 30128-2022</t>
+          <t>A 51451-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44757</v>
+        <v>44869.50684027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3247,14 +3247,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 51451-2022</t>
+          <t>A 46067-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44869.50684027778</v>
+        <v>44442.30737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3267,7 +3267,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3304,14 +3304,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 46067-2021</t>
+          <t>A 38195-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44442.30737268519</v>
+        <v>44812.42858796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,8 +3323,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3361,14 +3366,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 38195-2022</t>
+          <t>A 46381-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44812.42858796296</v>
+        <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3382,11 +3387,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3423,14 +3428,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 46381-2022</t>
+          <t>A 49968-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44848</v>
+        <v>44865.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3442,13 +3447,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49968-2022</t>
+          <t>A 59114-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44865.3790162037</v>
+        <v>44490.43811342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 59114-2021</t>
+          <t>A 6969-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44490.43811342592</v>
+        <v>44603.37188657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 6969-2022</t>
+          <t>A 55496-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44603.37188657407</v>
+        <v>44475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 55496-2021</t>
+          <t>A 36244-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44475</v>
+        <v>44803</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 36244-2022</t>
+          <t>A 61148-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44803</v>
+        <v>44498</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 61148-2021</t>
+          <t>A 38945-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44498</v>
+        <v>44816</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.3</v>
+        <v>2.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 38945-2022</t>
+          <t>A 30174-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44816</v>
+        <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2.6</v>
+        <v>5.1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 30174-2022</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44757</v>
+        <v>45634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45634</v>
+        <v>45518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -4005,7 +4005,7 @@
         <v>45152.52061342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>45352.48944444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45518</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,8 +4131,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>2.2</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4169,14 +4174,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44455</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4189,7 +4194,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4226,14 +4231,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45751</v>
+        <v>45000</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4251,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4283,14 +4288,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45386</v>
+        <v>45751</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4303,7 +4308,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4340,14 +4345,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45884</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4360,7 +4365,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.3</v>
+        <v>2.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4397,14 +4402,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4417,7 +4422,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4454,14 +4459,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45884</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4474,7 +4479,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4511,14 +4516,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,8 +4535,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>3.9</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4568,14 +4578,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4587,13 +4597,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4637,7 +4642,7 @@
         <v>45846.59416666667</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4687,14 +4692,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4707,7 +4712,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4744,14 +4749,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45189</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4764,7 +4769,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.1</v>
+        <v>5.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4801,14 +4806,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44827</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4821,7 +4826,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.1</v>
+        <v>11.1</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4858,14 +4863,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4878,7 +4883,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.6</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4915,14 +4920,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45803</v>
+        <v>44455</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4935,7 +4940,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.2</v>
+        <v>1</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4972,14 +4977,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4992,7 +4997,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5029,14 +5034,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5049,7 +5054,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5086,14 +5091,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,13 +5110,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5148,14 +5148,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45386</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5319,14 +5319,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45804</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.1</v>
+        <v>18.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5376,14 +5376,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45804</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5433,14 +5433,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5452,13 +5452,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>8.199999999999999</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5495,14 +5490,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5515,7 +5510,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5552,14 +5547,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45805</v>
+        <v>45803</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5572,7 +5567,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5609,14 +5604,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45373</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5629,7 +5624,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5666,14 +5661,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45373</v>
+        <v>45189</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5686,7 +5681,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5723,14 +5718,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5743,7 +5738,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5780,14 +5775,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44355</v>
+        <v>45804</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5800,7 +5795,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5837,14 +5832,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>45804</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5856,13 +5851,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5899,14 +5889,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>44827</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5919,7 +5909,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5956,14 +5946,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5975,8 +5965,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6013,14 +6008,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>45805</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6033,7 +6028,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6070,14 +6065,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44914</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6090,7 +6085,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6127,14 +6122,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6147,7 +6142,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>5.4</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6184,14 +6179,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6204,7 +6199,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6241,14 +6236,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45373</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6261,7 +6256,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6298,14 +6293,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45373</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6318,7 +6313,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.8</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6355,14 +6350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6370,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6412,14 +6407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6427,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6469,14 +6464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>44355</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6484,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.2</v>
+        <v>1.6</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6526,14 +6521,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6541,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6583,14 +6578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6598,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6640,14 +6635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6659,8 +6654,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6697,14 +6697,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>5.4</v>
+        <v>2</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6754,14 +6754,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6811,14 +6811,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45446</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6831,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6868,14 +6868,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6925,14 +6925,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6945,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.9</v>
+        <v>5.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6982,14 +6982,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7002,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7039,14 +7039,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7059,7 +7059,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7096,14 +7096,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>44914</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7116,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7153,14 +7153,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45034</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7173,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7210,14 +7210,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7230,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>4.7</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7267,14 +7267,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7287,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7324,14 +7324,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7344,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7381,14 +7381,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.4</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7438,14 +7438,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7495,14 +7495,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>5.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7552,14 +7552,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7609,14 +7609,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7666,14 +7666,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45446</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7723,14 +7723,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7780,14 +7780,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>6.6</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7837,14 +7837,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45337</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7894,14 +7894,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>44967</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7913,13 +7913,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G125" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7956,14 +7951,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7976,7 +7971,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>0.6</v>
+        <v>3.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8013,14 +8008,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8032,13 +8027,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8075,14 +8065,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8094,13 +8084,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8137,14 +8122,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8157,7 +8142,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8194,14 +8179,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45034</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8214,7 +8199,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8258,7 +8243,7 @@
         <v>45937.6599074074</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8313,14 +8298,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8333,7 +8318,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>14.7</v>
+        <v>0.6</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8370,14 +8355,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8390,7 +8375,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8427,14 +8412,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44645</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8447,7 +8432,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8484,14 +8469,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44645</v>
+        <v>45337</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8504,7 +8489,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8541,14 +8526,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44645</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8561,7 +8546,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8583,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8603,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8640,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8675,7 +8660,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>6.6</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8712,14 +8697,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>44967</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8731,8 +8716,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G139" t="n">
-        <v>2.3</v>
+        <v>0.9</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8769,14 +8759,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45361</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8788,8 +8778,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G140" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8826,14 +8821,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8845,8 +8840,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8883,14 +8883,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.1</v>
+        <v>14.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8940,14 +8940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44974</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9054,14 +9054,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9073,13 +9073,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9116,14 +9111,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45966</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9136,7 +9131,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9173,14 +9168,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45670</v>
+        <v>44645</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9193,7 +9188,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9230,14 +9225,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45386</v>
+        <v>44645</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9250,7 +9245,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>6.7</v>
+        <v>1.7</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9287,14 +9282,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>44645</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9306,13 +9301,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9349,14 +9339,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9369,7 +9359,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9406,14 +9396,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9426,7 +9416,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>10.9</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9463,14 +9453,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45361</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9483,7 +9473,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.9</v>
+        <v>1.2</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9520,14 +9510,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9540,7 +9530,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>3.3</v>
+        <v>1.1</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9577,14 +9567,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9597,7 +9587,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9634,14 +9624,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>44974</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9654,7 +9644,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9691,14 +9681,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45966</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9711,7 +9701,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9748,14 +9738,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45670</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9768,7 +9758,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>18.8</v>
+        <v>1.8</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9805,14 +9795,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45386</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9825,7 +9815,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2</v>
+        <v>6.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9862,14 +9852,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>44405</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9881,8 +9871,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9919,14 +9914,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45000</v>
+        <v>44405</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9939,7 +9934,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9976,14 +9971,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45000</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9996,7 +9991,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10033,14 +10028,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10053,7 +10048,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10090,14 +10085,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10110,7 +10105,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10147,14 +10142,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10167,7 +10162,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10204,14 +10199,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10224,7 +10219,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10261,14 +10256,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10281,7 +10276,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10318,14 +10313,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10338,7 +10333,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10375,14 +10370,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10394,8 +10389,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G168" t="n">
-        <v>0.7</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10432,14 +10432,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10489,14 +10489,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10509,7 +10509,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10546,14 +10546,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10603,14 +10603,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10667,7 +10667,7 @@
         <v>44614</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
         <v>45224.68096064815</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10779,14 +10779,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10799,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10843,7 +10843,7 @@
         <v>44924.60834490741</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>45758.64768518518</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10962,7 +10962,7 @@
         <v>45716.47787037037</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>45386.40589120371</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>45268</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44924.59118055556</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11200,7 +11200,7 @@
         <v>44628</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11250,14 +11250,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44844</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11267,11 +11267,6 @@
       <c r="E183" t="inlineStr">
         <is>
           <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G183" t="n">
@@ -11312,14 +11307,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>44844</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11331,8 +11326,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>0.2</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11445,13 +11445,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G186" t="n">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11488,14 +11483,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11507,8 +11502,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11545,14 +11545,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44638</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11565,7 +11565,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11602,14 +11602,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44706</v>
+        <v>44638</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11622,7 +11622,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>3.1</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11659,14 +11659,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>44706</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11679,7 +11679,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>19.7</v>
+        <v>3.1</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11716,14 +11716,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45386</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>1.3</v>
+        <v>19.7</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11773,14 +11773,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45386</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11793,7 +11793,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>4.1</v>
+        <v>1.3</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11830,14 +11830,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45011</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11850,7 +11850,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>4.1</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11887,14 +11887,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>45011</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11907,7 +11907,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11944,14 +11944,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11964,7 +11964,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12001,14 +12001,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12058,14 +12058,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12078,7 +12078,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12115,14 +12115,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12135,7 +12135,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12172,14 +12172,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44529</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>4.9</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12229,14 +12229,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>44529</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12249,7 +12249,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.4</v>
+        <v>4.9</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12286,14 +12286,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45146</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12306,7 +12306,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12343,14 +12343,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45386</v>
+        <v>45146</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12363,7 +12363,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12400,14 +12400,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45386</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12457,14 +12457,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3.6</v>
+        <v>0.4</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12514,14 +12514,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45099</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12571,14 +12571,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
         <v>45099</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12628,14 +12628,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45099</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12685,14 +12685,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12742,14 +12742,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45386</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12799,14 +12799,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45386</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12856,14 +12856,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12913,14 +12913,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44257</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12970,14 +12970,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>44257</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12989,13 +12989,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13032,14 +13027,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13051,8 +13046,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G214" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13089,14 +13089,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13109,7 +13109,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13146,14 +13146,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13203,14 +13203,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45373</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13260,14 +13260,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45373</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13279,13 +13279,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G218" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13322,14 +13317,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13341,8 +13336,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44645</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3.4</v>
+        <v>0.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13436,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>44645</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44931</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13721,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>44931</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13740,13 +13740,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G226" t="n">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13783,14 +13778,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13802,8 +13797,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13840,14 +13840,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13897,14 +13897,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45572</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13954,14 +13954,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>44547</v>
+        <v>45572</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14011,14 +14011,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45099</v>
+        <v>44547</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14068,14 +14068,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45099</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14125,14 +14125,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14182,14 +14182,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,85 +14239,85 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
+          <t>A 15696-2025</t>
+        </is>
+      </c>
+      <c r="B235" s="1" t="n">
+        <v>45748.46936342592</v>
+      </c>
+      <c r="C235" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G235" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0</v>
+      </c>
+      <c r="M235" t="n">
+        <v>0</v>
+      </c>
+      <c r="N235" t="n">
+        <v>0</v>
+      </c>
+      <c r="O235" t="n">
+        <v>0</v>
+      </c>
+      <c r="P235" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
+      <c r="R235" s="2" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
           <t>A 28316-2024</t>
         </is>
       </c>
-      <c r="B235" s="1" t="n">
+      <c r="B236" s="1" t="n">
         <v>45477.50171296296</v>
       </c>
-      <c r="C235" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G235" t="n">
+      <c r="C236" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G236" t="n">
         <v>3.4</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="n">
-        <v>0</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0</v>
-      </c>
-      <c r="L235" t="n">
-        <v>0</v>
-      </c>
-      <c r="M235" t="n">
-        <v>0</v>
-      </c>
-      <c r="N235" t="n">
-        <v>0</v>
-      </c>
-      <c r="O235" t="n">
-        <v>0</v>
-      </c>
-      <c r="P235" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q235" t="n">
-        <v>0</v>
-      </c>
-      <c r="R235" s="2" t="inlineStr"/>
-    </row>
-    <row r="236" ht="15" customHeight="1">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>A 21269-2024</t>
-        </is>
-      </c>
-      <c r="B236" s="1" t="n">
-        <v>45440.64200231482</v>
-      </c>
-      <c r="C236" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G236" t="n">
-        <v>1.3</v>
-      </c>
       <c r="H236" t="n">
         <v>0</v>
       </c>
@@ -14349,63 +14349,6 @@
         <v>0</v>
       </c>
       <c r="R236" s="2" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>A 12664-2023</t>
-        </is>
-      </c>
-      <c r="B237" s="1" t="n">
-        <v>45000</v>
-      </c>
-      <c r="C237" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G237" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="n">
-        <v>0</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0</v>
-      </c>
-      <c r="L237" t="n">
-        <v>0</v>
-      </c>
-      <c r="M237" t="n">
-        <v>0</v>
-      </c>
-      <c r="N237" t="n">
-        <v>0</v>
-      </c>
-      <c r="O237" t="n">
-        <v>0</v>
-      </c>
-      <c r="P237" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q237" t="n">
-        <v>0</v>
-      </c>
-      <c r="R237" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41724-2022</t>
+          <t>A 5086-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44827</v>
+        <v>45330</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Strävlosta</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 50366-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45944.56960648148</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 47393-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45930.60416666666</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 41724-2022</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 47393-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45930.60416666666</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 1895-2026</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>46035.50569444444</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 50366-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45944.56960648148</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 1895-2026</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>46035.50569444444</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Backmåra</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 5086-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Strävlosta</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44586</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2102,14 +2102,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 8786-2022</t>
+          <t>A 63200-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44614</v>
+        <v>44507.76953703703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2121,13 +2121,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G24" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2164,14 +2159,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 63200-2021</t>
+          <t>A 8786-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44507.76953703703</v>
+        <v>44614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2183,8 +2178,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,14 +2278,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44859</v>
+        <v>44840.4175</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2399,7 +2399,7 @@
         <v>44566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44684</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44757</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44803</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44498</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44816</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45634</v>
+        <v>45361</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45518</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>3.2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,13 +4131,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>0.5</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4174,14 +4169,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>44844</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4193,8 +4188,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4231,14 +4231,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45000</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,8 +4250,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4288,14 +4293,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45751</v>
+        <v>45884</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4313,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.4</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4345,14 +4350,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45884</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,8 +4369,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>2.6</v>
+        <v>7.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4402,14 +4412,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>44355</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4422,7 +4432,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4459,14 +4469,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4478,8 +4488,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4516,14 +4531,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,13 +4550,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>11.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4578,14 +4588,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4608,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>11.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4635,14 +4645,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4654,8 +4664,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G68" t="n">
-        <v>11.1</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4692,14 +4707,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>45000</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4727,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4749,14 +4764,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45099</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4784,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>5.9</v>
+        <v>1.9</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4806,14 +4821,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4841,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>11.1</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4863,14 +4878,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4898,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4920,14 +4935,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44455</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4955,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4977,14 +4992,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +5012,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5034,14 +5049,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5069,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5091,14 +5106,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5126,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5148,14 +5163,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45386</v>
+        <v>44455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5183,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5205,14 +5220,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45386</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5240,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5262,14 +5277,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45751</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5297,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5319,14 +5334,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5354,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>18.8</v>
+        <v>1.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5376,14 +5391,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5411,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5433,14 +5448,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5468,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5490,14 +5505,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5525,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5547,14 +5562,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45803</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5582,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5604,14 +5619,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>44529</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5639,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>4.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5661,14 +5676,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45189</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5718,14 +5733,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>44931</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5753,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5775,14 +5790,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45804</v>
+        <v>45099</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5810,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5832,14 +5847,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5867,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5889,14 +5904,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>44827</v>
+        <v>45804</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5924,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5946,14 +5961,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45966</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,13 +5980,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>8.199999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6008,14 +6018,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45805</v>
+        <v>45804</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6028,7 +6038,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6065,14 +6075,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6085,7 +6095,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6122,14 +6132,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45803</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6142,7 +6152,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6179,14 +6189,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6199,7 +6209,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6236,14 +6246,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45373</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6256,7 +6266,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6293,14 +6303,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45373</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6312,8 +6322,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6350,14 +6365,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6370,7 +6385,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6407,14 +6422,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>44547</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6427,7 +6442,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.9</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6464,14 +6479,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44355</v>
+        <v>45805</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6484,7 +6499,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.6</v>
+        <v>5.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6521,14 +6536,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6541,7 +6556,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6578,14 +6593,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6598,7 +6613,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6635,14 +6650,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6654,13 +6669,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6697,14 +6707,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6727,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6754,14 +6764,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6784,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6811,14 +6821,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6831,7 +6841,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6868,14 +6878,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6888,7 +6898,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6925,14 +6935,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6955,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.4</v>
+        <v>10.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6982,14 +6992,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7002,7 +7012,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.7</v>
+        <v>5.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7039,14 +7049,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7058,8 +7068,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7096,14 +7111,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44914</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7116,7 +7131,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.8</v>
+        <v>18.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7153,14 +7168,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7173,7 +7188,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>6.8</v>
+        <v>2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7210,14 +7225,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7245,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7267,14 +7282,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7287,7 +7302,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7324,14 +7339,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7344,7 +7359,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7381,14 +7396,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7401,7 +7416,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.6</v>
+        <v>2</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7438,14 +7453,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7458,7 +7473,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7495,14 +7510,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7515,7 +7530,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.2</v>
+        <v>3.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7552,14 +7567,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7572,7 +7587,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7609,14 +7624,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7629,7 +7644,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7666,14 +7681,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45446</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7686,7 +7701,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7723,14 +7738,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7743,7 +7758,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7780,14 +7795,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7800,7 +7815,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7837,14 +7852,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7857,7 +7872,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7894,14 +7909,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7914,7 +7929,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7951,14 +7966,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7971,7 +7986,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8008,14 +8023,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8027,8 +8042,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8065,14 +8085,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8085,7 +8105,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1.1</v>
+        <v>3.3</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8122,14 +8142,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45634</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8142,7 +8162,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8179,14 +8199,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45034</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8199,7 +8219,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8236,14 +8256,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8255,13 +8275,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G131" t="n">
-        <v>7.8</v>
+        <v>14.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8298,14 +8313,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8318,7 +8333,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8355,14 +8370,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8375,7 +8390,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8412,14 +8427,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8432,7 +8447,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>3.7</v>
+        <v>5.2</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8469,14 +8484,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45337</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8489,7 +8504,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8526,14 +8541,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8546,7 +8561,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8583,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8603,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8640,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8660,7 +8675,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8697,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>44967</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8716,13 +8731,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G139" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8759,14 +8769,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8778,13 +8788,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8821,14 +8826,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>44257</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8840,13 +8845,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G141" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8883,14 +8883,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>14.7</v>
+        <v>1.3</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8940,14 +8940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9054,14 +9054,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>44967</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9073,8 +9073,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>3.2</v>
+        <v>0.9</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9111,14 +9116,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>44827</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9131,7 +9136,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9168,14 +9173,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44645</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9188,7 +9193,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9225,14 +9230,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44645</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9244,8 +9249,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G148" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9282,14 +9292,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>44645</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9301,8 +9311,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G149" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9339,14 +9354,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9359,7 +9374,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9396,14 +9411,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9416,7 +9431,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>19.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9453,14 +9468,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45361</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9473,7 +9488,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9510,14 +9525,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9530,7 +9545,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9567,14 +9582,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9587,7 +9602,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9624,14 +9639,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>44974</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9681,14 +9696,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45966</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9701,7 +9716,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9738,14 +9753,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45670</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9758,7 +9773,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9795,14 +9810,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45386</v>
+        <v>45000</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9815,7 +9830,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>6.7</v>
+        <v>0.5</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9852,14 +9867,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45268</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9871,13 +9886,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9914,14 +9924,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>44405</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9944,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9971,14 +9981,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45000</v>
+        <v>45373</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +10001,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10028,14 +10038,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10058,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10085,14 +10095,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10104,8 +10114,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G163" t="n">
-        <v>0.4</v>
+        <v>3.7</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10142,14 +10157,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10162,7 +10177,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10199,14 +10214,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10219,7 +10234,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>4.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10256,14 +10271,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10276,7 +10291,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>5.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10313,14 +10328,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10333,7 +10348,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10370,14 +10385,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10395,7 +10410,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10432,14 +10447,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>44914</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10452,7 +10467,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10489,14 +10504,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10509,7 +10524,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10546,14 +10561,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10566,7 +10581,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10603,14 +10618,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10623,7 +10638,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>5.4</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10660,14 +10675,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44614</v>
+        <v>45337</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10677,11 +10692,6 @@
       <c r="E173" t="inlineStr">
         <is>
           <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -10722,14 +10732,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45099</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10752,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.7</v>
+        <v>2.7</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10779,14 +10789,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45446</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10809,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10836,14 +10846,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45034</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,13 +10865,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10898,14 +10903,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10918,7 +10923,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>4.2</v>
+        <v>0.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10955,14 +10960,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45373</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10974,13 +10979,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11017,14 +11017,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45373</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11074,14 +11074,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45268</v>
+        <v>44614</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11093,8 +11093,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G180" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11131,14 +11136,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11150,13 +11155,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G181" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11193,14 +11193,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44628</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11213,7 +11213,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11250,14 +11250,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11307,14 +11307,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44844</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11332,7 +11332,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45518</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>1.1</v>
+        <v>2.2</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45011</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>0.2</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11502,13 +11502,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G187" t="n">
-        <v>4.1</v>
+        <v>0.6</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11545,14 +11540,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45189</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11565,7 +11560,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11602,14 +11597,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44638</v>
+        <v>45572</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11622,7 +11617,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11659,14 +11654,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44706</v>
+        <v>44645</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11679,7 +11674,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11716,14 +11711,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11736,7 +11731,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>19.7</v>
+        <v>0.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11773,14 +11768,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45386</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11793,7 +11788,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11830,14 +11825,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11850,7 +11845,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>4.1</v>
+        <v>1.7</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11887,14 +11882,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45011</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11907,7 +11902,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11944,14 +11939,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>44645</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11964,7 +11959,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.1</v>
+        <v>3.4</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12001,14 +11996,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12021,7 +12016,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12058,14 +12053,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>44706</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12078,7 +12073,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.1</v>
+        <v>3.1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12115,14 +12110,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>45146</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12135,7 +12130,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12172,14 +12167,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12192,7 +12187,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>3.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12229,14 +12224,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44529</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12249,7 +12244,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>4.9</v>
+        <v>1.1</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12286,14 +12281,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12306,7 +12301,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12343,14 +12338,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45146</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12362,8 +12357,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12400,14 +12400,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45386</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12457,14 +12457,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12514,14 +12514,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12534,7 +12534,7 @@
         </is>
       </c>
       <c r="G205" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12571,14 +12571,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45099</v>
+        <v>44638</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12591,7 +12591,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12628,14 +12628,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45099</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12685,14 +12685,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0.4</v>
+        <v>3.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12742,14 +12742,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12799,14 +12799,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45386</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12856,14 +12856,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,8 +12875,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G211" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12913,14 +12918,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45386</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12938,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12970,14 +12975,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>44257</v>
+        <v>45386</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12995,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13027,14 +13032,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13046,13 +13051,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G214" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13089,14 +13089,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13108,8 +13108,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13146,14 +13151,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13166,7 +13171,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13203,14 +13208,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13223,7 +13228,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.1</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13260,14 +13265,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45373</v>
+        <v>44405</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13280,7 +13285,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13317,14 +13322,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>44628</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13336,13 +13341,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>44974</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13436,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44645</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13569,8 +13569,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G223" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13612,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13632,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13669,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13684,7 +13689,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13721,14 +13726,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>44931</v>
+        <v>45670</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13778,14 +13783,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13797,13 +13802,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G227" t="n">
-        <v>2.3</v>
+        <v>0.8</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13840,14 +13840,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13860,7 +13860,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13897,14 +13897,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45386</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13917,7 +13917,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13954,14 +13954,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45572</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13974,7 +13974,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14011,14 +14011,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44547</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14068,14 +14068,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45099</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14125,14 +14125,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>44645</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14182,14 +14182,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>44645</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14296,14 +14296,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45386</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3.4</v>
+        <v>1.6</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5086-2024</t>
+          <t>A 41724-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45330</v>
+        <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,17 +951,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 47393-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45930.60416666666</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 50366-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45944.56960648148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1895-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46035.50569444444</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Backmåra</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 5086-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Strävlosta</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 50366-2025</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>45944.56960648148</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 47393-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45930.60416666666</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 41724-2022</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>44827</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 1895-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46035.50569444444</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Backmåra</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44586</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44684</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44757</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44803</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44498</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44816</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45361</v>
+        <v>45634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0.6</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>0.5</v>
+        <v>3.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44844</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4188,13 +4188,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4231,14 +4226,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45189</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4250,13 +4245,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4293,14 +4283,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45884</v>
+        <v>44827</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4313,7 +4303,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>4.1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4350,14 +4340,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4369,13 +4359,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>7.8</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4412,14 +4397,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44355</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4432,7 +4417,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4469,14 +4454,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45373</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4488,13 +4473,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>3.7</v>
+        <v>0.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4531,14 +4511,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45373</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4551,7 +4531,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>11.1</v>
+        <v>1.9</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4588,14 +4568,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4608,7 +4588,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>11.1</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4645,14 +4625,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>44355</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4664,13 +4644,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4707,14 +4682,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45000</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4727,7 +4702,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4764,14 +4739,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45099</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4784,7 +4759,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4821,14 +4796,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>44914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4841,7 +4816,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4878,14 +4853,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4897,8 +4872,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4935,14 +4915,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4955,7 +4935,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.3</v>
+        <v>6.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4992,14 +4972,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45884</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5012,7 +4992,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5049,14 +5029,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5069,7 +5049,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5106,14 +5086,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5125,8 +5105,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5163,14 +5148,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44455</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5183,7 +5168,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>11.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5220,14 +5205,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45386</v>
+        <v>45446</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5240,7 +5225,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5277,14 +5262,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45751</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5297,7 +5282,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.4</v>
+        <v>11.1</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5334,14 +5319,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5354,7 +5339,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5391,14 +5376,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5411,7 +5396,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.3</v>
+        <v>4.4</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5448,14 +5433,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5468,7 +5453,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5505,14 +5490,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5525,7 +5510,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.9</v>
+        <v>5.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5562,14 +5547,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45034</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5582,7 +5567,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5619,14 +5604,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44529</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5639,7 +5624,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.9</v>
+        <v>0.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5676,14 +5661,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45337</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5696,7 +5681,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5733,14 +5718,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>44931</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5753,7 +5738,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5790,14 +5775,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45099</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5810,7 +5795,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5847,14 +5832,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5867,7 +5852,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5.1</v>
+        <v>0.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5904,14 +5889,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45804</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5924,7 +5909,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5961,14 +5946,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45966</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5981,7 +5966,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6018,14 +6003,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45804</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6038,7 +6023,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>1.2</v>
+        <v>14.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6075,14 +6060,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6095,7 +6080,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6132,14 +6117,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45803</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6152,7 +6137,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3.2</v>
+        <v>4.7</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6189,14 +6174,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6209,7 +6194,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6246,14 +6231,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>44645</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6266,7 +6251,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6303,14 +6288,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>44645</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6322,13 +6307,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>8.199999999999999</v>
+        <v>1.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6365,14 +6345,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>44645</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6385,7 +6365,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6422,14 +6402,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44547</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6442,7 +6422,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6479,14 +6459,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45805</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6499,7 +6479,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6536,14 +6516,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6556,7 +6536,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>5.4</v>
+        <v>6.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6593,14 +6573,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>44967</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6612,8 +6592,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6650,14 +6635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45361</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6670,7 +6655,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6707,14 +6692,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6726,8 +6711,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6764,14 +6754,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6784,7 +6774,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6821,14 +6811,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6841,7 +6831,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6878,14 +6868,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6898,7 +6888,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6935,14 +6925,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6955,7 +6945,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>10.9</v>
+        <v>5.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6992,14 +6982,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7011,8 +7001,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>5.9</v>
+        <v>2.3</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7049,14 +7044,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7068,13 +7063,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7111,14 +7101,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7131,7 +7121,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>18.8</v>
+        <v>1.2</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7168,14 +7158,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>44974</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7188,7 +7178,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7225,14 +7215,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7245,7 +7235,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7282,14 +7272,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7302,7 +7292,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7339,14 +7329,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7359,7 +7349,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7396,14 +7386,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7416,7 +7406,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7460,7 +7450,7 @@
         <v>45930.26871527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7510,14 +7500,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7530,7 +7520,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>3.2</v>
+        <v>1.4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7567,14 +7557,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7587,7 +7577,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7624,14 +7614,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7644,7 +7634,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.3</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7681,14 +7671,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7701,7 +7691,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7738,14 +7728,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7758,7 +7748,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7795,14 +7785,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7815,7 +7805,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7852,14 +7842,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7872,7 +7862,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7909,14 +7899,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45386</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7929,7 +7919,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>1</v>
+        <v>6.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7966,14 +7956,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7985,8 +7975,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G126" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8023,14 +8018,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>44405</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8042,13 +8037,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G127" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8085,14 +8075,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8104,8 +8094,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G128" t="n">
-        <v>3.3</v>
+        <v>7.8</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8142,14 +8137,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45634</v>
+        <v>45000</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8162,7 +8157,7 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8199,14 +8194,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8256,14 +8251,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8276,7 +8271,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>14.7</v>
+        <v>0.4</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8313,14 +8308,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8332,8 +8327,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G132" t="n">
-        <v>1</v>
+        <v>3.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8370,14 +8370,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8390,7 +8390,7 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8427,14 +8427,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>5.2</v>
+        <v>1.5</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8484,14 +8484,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8541,14 +8541,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8712,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8769,14 +8769,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8826,14 +8826,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44257</v>
+        <v>44614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8845,8 +8845,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G141" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8883,14 +8888,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8903,7 +8908,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8940,14 +8945,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45966</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8960,7 +8965,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8997,14 +9002,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9016,8 +9021,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G144" t="n">
-        <v>4.7</v>
+        <v>0.6</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9054,14 +9064,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>44967</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9073,13 +9083,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9116,14 +9121,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44827</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9136,7 +9141,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>4.1</v>
+        <v>10.9</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9173,14 +9178,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9193,7 +9198,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>6.6</v>
+        <v>5.9</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9230,14 +9235,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9249,13 +9254,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G148" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9292,14 +9292,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9311,13 +9311,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G149" t="n">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9354,14 +9349,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9374,7 +9369,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.7</v>
+        <v>1.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9411,14 +9406,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9431,7 +9426,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>19.7</v>
+        <v>2.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9468,14 +9463,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9488,7 +9483,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.4</v>
+        <v>18.8</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9525,14 +9520,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9545,7 +9540,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9582,14 +9577,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9602,7 +9597,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9639,14 +9634,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9659,7 +9654,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9696,14 +9691,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9716,7 +9711,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0.3</v>
+        <v>4.2</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9753,14 +9748,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9773,7 +9768,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9810,14 +9805,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45000</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9830,7 +9825,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9867,14 +9862,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45268</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9886,8 +9881,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G159" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45373</v>
+        <v>45268</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10120,7 +10120,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3.7</v>
+        <v>1.6</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10157,14 +10157,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>44628</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10177,7 +10177,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10214,14 +10214,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>44844</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10233,8 +10233,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G165" t="n">
-        <v>4.6</v>
+        <v>1.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10271,14 +10276,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10291,7 +10296,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10328,14 +10333,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10348,7 +10353,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10385,14 +10390,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10410,7 +10415,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>0.6</v>
+        <v>3.7</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10447,14 +10452,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44914</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10467,7 +10472,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10504,14 +10509,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10523,8 +10528,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G170" t="n">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10561,14 +10571,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10581,7 +10591,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10618,14 +10628,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10638,7 +10648,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10675,14 +10685,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45337</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10695,7 +10705,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10732,14 +10742,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45099</v>
+        <v>44638</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10752,7 +10762,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2.7</v>
+        <v>1.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10789,14 +10799,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45446</v>
+        <v>44706</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10809,7 +10819,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10846,14 +10856,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45034</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10866,7 +10876,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>19.7</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10903,14 +10913,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45386</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10923,7 +10933,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10960,14 +10970,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45373</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10980,7 +10990,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11017,14 +11027,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45373</v>
+        <v>45011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11037,7 +11047,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11074,14 +11084,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>44614</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11093,13 +11103,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G180" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11136,14 +11141,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11156,7 +11161,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>6.8</v>
+        <v>1.2</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11193,14 +11198,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11213,7 +11218,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11250,14 +11255,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11270,7 +11275,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>2.8</v>
+        <v>1.5</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11307,14 +11312,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11326,13 +11331,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G184" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11369,14 +11369,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>45518</v>
+        <v>44529</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11389,7 +11389,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>2.2</v>
+        <v>4.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11426,14 +11426,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45011</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11483,14 +11483,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11503,7 +11503,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11540,14 +11540,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45189</v>
+        <v>45146</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11560,7 +11560,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11597,14 +11597,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45572</v>
+        <v>45386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11617,7 +11617,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11654,14 +11654,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44645</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11674,7 +11674,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11711,14 +11711,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11731,7 +11731,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>0.1</v>
+        <v>3.6</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11768,14 +11768,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45099</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11788,7 +11788,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11825,14 +11825,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>45099</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11845,7 +11845,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11882,14 +11882,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11902,7 +11902,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11939,14 +11939,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>44645</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11959,7 +11959,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11996,14 +11996,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45386</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12053,14 +12053,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>44706</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>3.1</v>
+        <v>1</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12110,14 +12110,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45146</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12167,14 +12167,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>44257</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12187,7 +12187,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12224,14 +12224,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12243,8 +12243,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G200" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12281,14 +12286,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12301,7 +12306,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12338,14 +12343,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12357,13 +12362,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G202" t="n">
-        <v>4.1</v>
+        <v>0.1</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12400,14 +12400,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12420,7 +12420,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12457,14 +12457,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45373</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12477,7 +12477,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12514,14 +12514,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12533,8 +12533,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G205" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12571,14 +12576,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44638</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12591,7 +12596,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12628,14 +12633,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>44645</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12648,7 +12653,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2.3</v>
+        <v>3.4</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12692,7 +12697,7 @@
         <v>45281.68771990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12749,7 +12754,7 @@
         <v>44817.40581018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12799,14 +12804,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12824,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12856,14 +12861,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12875,13 +12880,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G211" t="n">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12918,14 +12918,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45386</v>
+        <v>44931</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12938,7 +12938,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12975,14 +12975,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45386</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12994,8 +12994,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G213" t="n">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13032,14 +13037,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13052,7 +13057,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13089,14 +13094,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13108,13 +13113,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G215" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13151,14 +13151,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13208,14 +13208,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>44547</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13228,7 +13228,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13265,14 +13265,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>44405</v>
+        <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13285,7 +13285,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13322,14 +13322,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>44628</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13342,7 +13342,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13379,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>44974</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13399,7 +13399,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13436,14 +13436,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13456,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13569,13 +13569,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G223" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13612,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13669,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45751</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13689,7 +13684,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13726,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45670</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13746,7 +13741,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13783,14 +13778,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13803,7 +13798,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13840,14 +13835,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13860,7 +13855,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13897,14 +13892,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45386</v>
+        <v>45803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13917,7 +13912,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13954,14 +13949,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13974,7 +13969,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14011,14 +14006,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14031,7 +14026,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14068,14 +14063,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45804</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14088,7 +14083,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14125,14 +14120,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44645</v>
+        <v>45804</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14145,7 +14140,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14182,14 +14177,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>44645</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14201,8 +14196,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G234" t="n">
-        <v>1.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45805</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>0.7</v>
+        <v>5.3</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14296,14 +14296,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45386</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45930.60416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45944.56960648148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46035.50569444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45330</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44586</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44684</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44757</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44803</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44498</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44816</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45152.52061342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>45352.48944444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44931.57689814815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>45189</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44827</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44777.59171296296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45376.52688657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>45373</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45373</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44355</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45021.38078703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44676.67267361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45819.32724537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>45110.61938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45884</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45530.47739583333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>45645.62891203703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45846.59416666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45446</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>45847.57822916667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44272.62681712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45894.32873842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>45894.31888888889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45833.32134259259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45034</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45667.65357638889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>45337</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45839.63256944445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45768.72082175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45839.72451388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>45729.97268518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>45910.41298611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45575.66361111111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45915.4346875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45845.57840277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45012.74041666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44645</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44645</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44645</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45021.37828703703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44844.44121527778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>45852.68678240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44967</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45361</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45632.53951388889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45918.67119212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45918.67211805555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45918.67410879629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45918.67297453704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45635.6282175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45918.66829861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45862.73864583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44974</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45929.48538194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45929.48041666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45736.37754629629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45930.59194444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45930.26871527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45930.59738425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45930.59872685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45930.59351851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45930.60120370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45930.60195601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45932.64380787037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45386</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45366.35112268518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44405</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45937.6599074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45000</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45069.41737268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45366.78552083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45763.57391203703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45099.61547453704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45953.44965277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45953.32733796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44931.57833333333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45623.36986111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45051.39313657407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45958.71226851852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>45051.42228009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45224.68096064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45966</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44924.60834490741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45974.67329861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45974.65054398148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45974.65353009259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45975.33076388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>45974.64655092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45975.34238425926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45974.67436342593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>45974.64944444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45974.65203703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45985.70609953703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>45985.70936342593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45758.64768518518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45986.66487268519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45986.66530092592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45716.47787037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45386.40589120371</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>45268</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45995.78456018519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44924.59118055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44628</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44844</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45747.4666087963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>45747.48292824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>46044.34138888889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>46006.64335648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45756.45190972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>46049.46898148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>46051.49328703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44691.48512731482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44638</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44706</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45624.55305555555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45386</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45210.66854166667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45119.41274305555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45119.42896990741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>44817.48424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45152.68237268519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>44587.54376157407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44529</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44970.59268518518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>46029.66304398148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45146</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45119.43261574074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45238.57581018518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45099</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45099</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45210.66451388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45099.74278935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45386</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45251.59912037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45152.37777777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44257</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44455.33650462963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45252.87451388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45747.46989583333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45747.47193287037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45373</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45634.83702546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44272.6200462963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44645</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45281.68771990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44817.40581018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45645.83722222222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45268.36413194444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44931</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45716.47924768519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45767.49024305555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45099.72846064815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44547</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45099.62096064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45440.65799768519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45748.46936342592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45477.50171296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45440.64200231482</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45751</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45721.77831018518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45733.41709490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45800.8074537037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45800.81108796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45800.81622685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45804</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45804</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45804.36298611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45805</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45722.33243055556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1023,7 +1023,7 @@
         <v>45930.60416666666</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         <v>45944.56960648148</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1193,7 +1193,7 @@
         <v>46035.50569444444</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1278,7 +1278,7 @@
         <v>45330</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44586</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2109,7 +2109,7 @@
         <v>44507.76953703703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2166,7 +2166,7 @@
         <v>44614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2228,7 +2228,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2285,7 +2285,7 @@
         <v>44840.4175</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2342,7 +2342,7 @@
         <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2399,7 +2399,7 @@
         <v>44566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2456,7 +2456,7 @@
         <v>44684</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
         <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2570,7 +2570,7 @@
         <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2627,7 +2627,7 @@
         <v>44369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2684,7 +2684,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2741,7 +2741,7 @@
         <v>44477.65078703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2798,7 +2798,7 @@
         <v>44507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2969,7 +2969,7 @@
         <v>44369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>44581.79246527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3083,7 +3083,7 @@
         <v>44761.48648148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3140,7 +3140,7 @@
         <v>44757</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3197,7 +3197,7 @@
         <v>44869.50684027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3254,7 +3254,7 @@
         <v>44442.30737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3311,7 +3311,7 @@
         <v>44812.42858796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3373,7 +3373,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         <v>44865.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3492,7 +3492,7 @@
         <v>44490.43811342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3549,7 +3549,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3606,7 +3606,7 @@
         <v>44475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3663,7 +3663,7 @@
         <v>44803</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         <v>44498</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44816</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         <v>45634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         <v>45518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4005,7 +4005,7 @@
         <v>45152.52061342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         <v>45352.48944444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4119,7 +4119,7 @@
         <v>45386</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         <v>44931.57689814815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4233,7 +4233,7 @@
         <v>45189</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4290,7 +4290,7 @@
         <v>44827</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4347,7 +4347,7 @@
         <v>44777.59171296296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4404,7 +4404,7 @@
         <v>45376.52688657407</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4461,7 +4461,7 @@
         <v>45373</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4518,7 +4518,7 @@
         <v>45373</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4575,7 +4575,7 @@
         <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4632,7 +4632,7 @@
         <v>44355</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4689,7 +4689,7 @@
         <v>45021.38078703704</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         <v>44676.67267361111</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4803,7 +4803,7 @@
         <v>44914</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4860,7 +4860,7 @@
         <v>45819.32724537037</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4922,7 +4922,7 @@
         <v>45110.61938657407</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         <v>45884</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5036,7 +5036,7 @@
         <v>45530.47739583333</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5093,7 +5093,7 @@
         <v>45645.62891203703</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5155,7 +5155,7 @@
         <v>45846.59416666667</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5212,7 +5212,7 @@
         <v>45446</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         <v>45847.57822916667</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5326,7 +5326,7 @@
         <v>44272.62681712963</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5383,7 +5383,7 @@
         <v>45894.32873842592</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5440,7 +5440,7 @@
         <v>45894.31888888889</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5497,7 +5497,7 @@
         <v>45833.32134259259</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5554,7 +5554,7 @@
         <v>45034</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5611,7 +5611,7 @@
         <v>45667.65357638889</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5668,7 +5668,7 @@
         <v>45337</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5725,7 +5725,7 @@
         <v>45839.63256944445</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5782,7 +5782,7 @@
         <v>45768.72082175926</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5839,7 +5839,7 @@
         <v>45839.72451388889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5896,7 +5896,7 @@
         <v>45729.97268518519</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5953,7 +5953,7 @@
         <v>45910.41298611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6010,7 +6010,7 @@
         <v>45575.66361111111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>45915.4346875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6124,7 +6124,7 @@
         <v>45845.57840277778</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6181,7 +6181,7 @@
         <v>45012.74041666667</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6238,7 +6238,7 @@
         <v>44645</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6295,7 +6295,7 @@
         <v>44645</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6352,7 +6352,7 @@
         <v>44645</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>45021.37828703703</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>44844.44121527778</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>45852.68678240741</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>44967</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>45361</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>45632.53951388889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6761,7 +6761,7 @@
         <v>45918.67119212963</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>45918.67211805555</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6875,7 +6875,7 @@
         <v>45918.67410879629</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6932,7 +6932,7 @@
         <v>45918.67297453704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6989,7 +6989,7 @@
         <v>45635.6282175926</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>45918.66829861111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>45862.73864583333</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>44974</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>45929.48538194445</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>45929.48041666667</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45736.37754629629</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>45930.59194444444</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>45930.26871527778</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>45930.59738425926</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7564,7 +7564,7 @@
         <v>45930.59872685185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7621,7 +7621,7 @@
         <v>45930.59351851852</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7678,7 +7678,7 @@
         <v>45930.60120370371</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7735,7 +7735,7 @@
         <v>45930.60195601852</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7792,7 +7792,7 @@
         <v>45932.64380787037</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>45670</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>45386</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7963,7 +7963,7 @@
         <v>45366.35112268518</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44405</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>45937.6599074074</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45000</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>45069.41737268519</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>45366.78552083333</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8315,7 +8315,7 @@
         <v>45763.57391203703</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>45099.61547453704</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>45953.44965277778</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>45953.32733796296</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         <v>44931.57833333333</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>45623.36986111111</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8662,7 +8662,7 @@
         <v>45051.39313657407</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>45958.71226851852</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>45051.42228009259</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44614</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8895,7 +8895,7 @@
         <v>45224.68096064815</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8952,7 +8952,7 @@
         <v>45966</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
         <v>44924.60834490741</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9071,7 +9071,7 @@
         <v>45974.67329861111</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9128,7 +9128,7 @@
         <v>45974.65054398148</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45974.65353009259</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45975.33076388889</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9299,7 +9299,7 @@
         <v>45974.64655092593</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9356,7 +9356,7 @@
         <v>45975.34238425926</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9413,7 +9413,7 @@
         <v>45974.67436342593</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9470,7 +9470,7 @@
         <v>45974.64944444445</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9527,7 +9527,7 @@
         <v>45974.65203703703</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9584,7 +9584,7 @@
         <v>45985.70609953703</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9641,7 +9641,7 @@
         <v>45985.70936342593</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9698,7 +9698,7 @@
         <v>45758.64768518518</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9755,7 +9755,7 @@
         <v>45986.66487268519</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9812,7 +9812,7 @@
         <v>45986.66530092592</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9869,7 +9869,7 @@
         <v>45716.47787037037</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9931,7 +9931,7 @@
         <v>45386.40589120371</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9988,7 +9988,7 @@
         <v>45268</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10045,7 +10045,7 @@
         <v>45995.78456018519</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10102,7 +10102,7 @@
         <v>44924.59118055556</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10164,7 +10164,7 @@
         <v>44628</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10221,7 +10221,7 @@
         <v>44844</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10283,7 +10283,7 @@
         <v>45747.4666087963</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10340,7 +10340,7 @@
         <v>45747.48292824074</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10397,7 +10397,7 @@
         <v>46044.34138888889</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10459,7 +10459,7 @@
         <v>46006.64335648148</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10516,7 +10516,7 @@
         <v>45756.45190972222</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10578,7 +10578,7 @@
         <v>46049.46898148148</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10635,7 +10635,7 @@
         <v>46051.49328703704</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10692,7 +10692,7 @@
         <v>44691.48512731482</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10749,7 +10749,7 @@
         <v>44638</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10806,7 +10806,7 @@
         <v>44706</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10863,7 +10863,7 @@
         <v>45624.55305555555</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10920,7 +10920,7 @@
         <v>45386</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10977,7 +10977,7 @@
         <v>45210.66854166667</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11034,7 +11034,7 @@
         <v>45011</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11091,7 +11091,7 @@
         <v>45119.41274305555</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11148,7 +11148,7 @@
         <v>45119.42896990741</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11205,7 +11205,7 @@
         <v>44817.48424768518</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11262,7 +11262,7 @@
         <v>45152.68237268519</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11319,7 +11319,7 @@
         <v>44587.54376157407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11376,7 +11376,7 @@
         <v>44529</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11433,7 +11433,7 @@
         <v>44970.59268518518</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11490,7 +11490,7 @@
         <v>46029.66304398148</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11547,7 +11547,7 @@
         <v>45146</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11604,7 +11604,7 @@
         <v>45386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11661,7 +11661,7 @@
         <v>45119.43261574074</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11718,7 +11718,7 @@
         <v>45238.57581018518</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11775,7 +11775,7 @@
         <v>45099</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11832,7 +11832,7 @@
         <v>45099</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11889,7 +11889,7 @@
         <v>45210.66451388889</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11946,7 +11946,7 @@
         <v>45099.74278935185</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>45386</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45251.59912037037</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45152.37777777778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44257</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12231,7 +12231,7 @@
         <v>44455.33650462963</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45252.87451388889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>45747.46989583333</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>45747.47193287037</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45373</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>45634.83702546296</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12583,7 +12583,7 @@
         <v>44272.6200462963</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12640,7 +12640,7 @@
         <v>44645</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12697,7 +12697,7 @@
         <v>45281.68771990741</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44817.40581018518</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>45645.83722222222</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45268.36413194444</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12925,7 +12925,7 @@
         <v>44931</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12982,7 +12982,7 @@
         <v>45716.47924768519</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45767.49024305555</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>45099.72846064815</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45572</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>44547</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45099</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>45099.62096064815</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45440.65799768519</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13443,7 +13443,7 @@
         <v>45748.46936342592</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13500,7 +13500,7 @@
         <v>45477.50171296296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13557,7 +13557,7 @@
         <v>45440.64200231482</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13614,7 +13614,7 @@
         <v>45000</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13671,7 +13671,7 @@
         <v>45751</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13728,7 +13728,7 @@
         <v>45721.77831018518</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13785,7 +13785,7 @@
         <v>45733.41709490741</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13842,7 +13842,7 @@
         <v>45800.8074537037</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13899,7 +13899,7 @@
         <v>45803</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13956,7 +13956,7 @@
         <v>45800.81108796296</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14013,7 +14013,7 @@
         <v>45800.81622685185</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14070,7 +14070,7 @@
         <v>45804</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14127,7 +14127,7 @@
         <v>45804</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14184,7 +14184,7 @@
         <v>45804.36298611111</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14246,7 +14246,7 @@
         <v>45805</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14303,7 +14303,7 @@
         <v>45722.33243055556</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41724-2022</t>
+          <t>A 5086-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44827</v>
+        <v>45330</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Strävlosta</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41724-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 47393-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45930.60416666666</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 50366-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45944.56960648148</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 1895-2026</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>46035.50569444444</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46077</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Backmåra</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 5086-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46076</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Strävlosta</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1760,14 +1760,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 13357-2022</t>
+          <t>A 13342-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1817,14 +1817,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 13342-2022</t>
+          <t>A 13357-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,14 +1988,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 59108-2021</t>
+          <t>A 63200-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44490.43342592593</v>
+        <v>44507.76953703703</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2045,14 +2045,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 3708-2022</t>
+          <t>A 8786-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44586</v>
+        <v>44614</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2064,8 +2064,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G23" t="n">
-        <v>1.1</v>
+        <v>8.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2102,14 +2107,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 63200-2021</t>
+          <t>A 16742-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44507.76953703703</v>
+        <v>44673.45262731481</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2122,7 +2127,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2159,14 +2164,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 8786-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44614</v>
+        <v>44859</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2178,13 +2183,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>8.1</v>
+        <v>0.7</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2221,14 +2221,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 16742-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44673.45262731481</v>
+        <v>44840.4175</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 561-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44566</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>4.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 18124-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44859</v>
+        <v>44684</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 561-2022</t>
+          <t>A 28231-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44566</v>
+        <v>44355</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2449,14 +2449,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18124-2022</t>
+          <t>A 28233-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44684</v>
+        <v>44355</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2506,14 +2506,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28231-2021</t>
+          <t>A 31559-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44355</v>
+        <v>44369</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28233-2021</t>
+          <t>A 56157-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44355</v>
+        <v>44477.65078703704</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,14 +2620,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 31559-2021</t>
+          <t>A 63198-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44369</v>
+        <v>44507</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0.6</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,14 +2734,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56157-2021</t>
+          <t>A 59108-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44477.65078703704</v>
+        <v>44490.43342592593</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2791,14 +2791,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63198-2021</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44507</v>
+        <v>44405</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2848,14 +2848,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44405</v>
+        <v>44446</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 31448-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44446</v>
+        <v>44369</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31448-2021</t>
+          <t>A 2984-2022</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44369</v>
+        <v>44581.79246527778</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3019,14 +3019,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2984-2022</t>
+          <t>A 30128-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44581.79246527778</v>
+        <v>44757</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3076,14 +3076,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30432-2022</t>
+          <t>A 3708-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44761.48648148148</v>
+        <v>44586</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30128-2022</t>
+          <t>A 30432-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44757</v>
+        <v>44761.48648148148</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,14 +3190,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51451-2022</t>
+          <t>A 46067-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44869.50684027778</v>
+        <v>44442.30737268519</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3247,14 +3247,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46067-2021</t>
+          <t>A 38195-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44442.30737268519</v>
+        <v>44812.42858796296</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3266,8 +3266,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3304,14 +3309,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38195-2022</t>
+          <t>A 51451-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44812.42858796296</v>
+        <v>44869.50684027778</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,13 +3328,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,14 +3428,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49968-2022</t>
+          <t>A 59114-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44865.3790162037</v>
+        <v>44490.43811342592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59114-2021</t>
+          <t>A 49968-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44490.43811342592</v>
+        <v>44865.3790162037</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,14 +3599,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55496-2021</t>
+          <t>A 36244-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44475</v>
+        <v>44803</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36244-2022</t>
+          <t>A 55496-2021</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44803</v>
+        <v>44475</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>44498</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44816</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>45634</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45518</v>
+        <v>45361</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45386</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4169,14 +4169,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45099</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4226,14 +4226,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45189</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4283,14 +4283,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>44827</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4303,7 +4303,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4340,14 +4340,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4360,7 +4360,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4397,14 +4397,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45000</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4417,7 +4417,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4454,14 +4454,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45373</v>
+        <v>44844</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,8 +4473,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>0.8</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4511,14 +4516,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45373</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4530,8 +4535,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4568,14 +4578,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44455</v>
+        <v>45268</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4588,7 +4598,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4625,14 +4635,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44355</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4645,7 +4655,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4682,14 +4692,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45373</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4702,7 +4712,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4739,14 +4749,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>44355</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4759,7 +4769,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4796,14 +4806,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44914</v>
+        <v>45634</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4816,7 +4826,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4853,14 +4863,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4872,13 +4882,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4915,14 +4920,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4935,7 +4940,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>6.8</v>
+        <v>14.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4972,14 +4977,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45884</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4992,7 +4997,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5029,14 +5034,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5049,7 +5054,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5086,14 +5091,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5105,13 +5110,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5148,14 +5148,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>44455</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>11.1</v>
+        <v>1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45446</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5224,8 +5224,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5262,14 +5267,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5287,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>11.1</v>
+        <v>0.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5319,14 +5324,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>44914</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5344,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5376,14 +5381,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5401,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5433,14 +5438,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5458,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.5</v>
+        <v>3.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5490,14 +5495,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>44257</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5510,7 +5515,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>5.2</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5547,14 +5552,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45034</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5572,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5604,14 +5609,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45386</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5629,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5661,14 +5666,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45337</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5686,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5718,14 +5723,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5743,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5775,14 +5780,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45337</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5800,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5832,14 +5837,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>44827</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5857,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.9</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5889,14 +5894,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45099</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5914,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5946,14 +5951,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5966,7 +5971,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6003,14 +6008,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6023,7 +6028,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>14.7</v>
+        <v>19.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6060,14 +6065,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6080,7 +6085,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6117,14 +6122,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6137,7 +6142,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6174,14 +6179,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6193,8 +6198,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G95" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6231,14 +6241,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44645</v>
+        <v>45446</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6251,7 +6261,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>3.9</v>
+        <v>1.8</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6288,14 +6298,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>44645</v>
+        <v>45034</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6308,7 +6318,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6345,14 +6355,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44645</v>
+        <v>45518</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6365,7 +6375,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6402,14 +6412,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45011</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6422,7 +6432,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6459,14 +6469,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6479,7 +6489,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6516,14 +6526,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6536,7 +6546,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6573,14 +6583,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44967</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6592,13 +6602,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G102" t="n">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6635,14 +6640,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45361</v>
+        <v>45373</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6655,7 +6660,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6692,14 +6697,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45373</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6711,13 +6716,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6754,14 +6754,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6774,7 +6774,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6811,14 +6811,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>44614</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6830,8 +6830,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6868,14 +6873,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6887,8 +6892,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.3</v>
+        <v>4.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6925,14 +6935,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45189</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6945,7 +6955,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5.4</v>
+        <v>1.1</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6982,14 +6992,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45572</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7001,13 +7011,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7044,14 +7049,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7064,7 +7069,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7101,14 +7106,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7121,7 +7126,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7158,14 +7163,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44974</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7178,7 +7183,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7215,14 +7220,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>44645</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7235,7 +7240,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7272,14 +7277,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7292,7 +7297,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1</v>
+        <v>4.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7329,14 +7334,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7349,7 +7354,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.7</v>
+        <v>0.1</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7386,14 +7391,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7406,7 +7411,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7443,14 +7448,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7463,7 +7468,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7500,14 +7505,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>44638</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7520,7 +7525,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7557,14 +7562,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>44529</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7577,7 +7582,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>4.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7614,14 +7619,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>44931</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7634,7 +7639,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>3.2</v>
+        <v>1.8</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7671,14 +7676,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7691,7 +7696,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>2.3</v>
+        <v>0.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7728,14 +7733,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>44645</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7748,7 +7753,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7785,14 +7790,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45884</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7805,7 +7810,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7842,14 +7847,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45670</v>
+        <v>45099</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7862,7 +7867,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7899,14 +7904,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45386</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7919,7 +7924,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>6.7</v>
+        <v>5.1</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7956,14 +7961,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7975,13 +7980,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G126" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8018,14 +8018,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44405</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8038,7 +8038,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1.3</v>
+        <v>2.3</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8075,14 +8075,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8094,13 +8094,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G128" t="n">
-        <v>7.8</v>
+        <v>3.5</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8137,14 +8132,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45000</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8156,8 +8151,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G129" t="n">
-        <v>0.5</v>
+        <v>3.7</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8194,14 +8194,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>0.7</v>
+        <v>11.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8251,14 +8251,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>0.4</v>
+        <v>11.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8308,14 +8308,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>44706</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8327,13 +8327,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G132" t="n">
-        <v>3.7</v>
+        <v>3.1</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8370,14 +8365,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8389,8 +8384,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8427,14 +8427,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8447,7 +8447,7 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8484,14 +8484,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>44547</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8504,7 +8504,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8541,14 +8541,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8561,7 +8561,7 @@
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45146</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0.7</v>
+        <v>3.6</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8674,8 +8674,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G138" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8712,14 +8717,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45386</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8732,7 +8737,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.1</v>
+        <v>6.7</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8769,14 +8774,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45386</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8789,7 +8794,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8826,14 +8831,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>44614</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8843,11 +8848,6 @@
       <c r="E141" t="inlineStr">
         <is>
           <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G141" t="n">
@@ -8888,14 +8888,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8945,14 +8945,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45966</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9002,14 +9002,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9021,13 +9021,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G144" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9064,14 +9059,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9083,8 +9078,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9121,14 +9121,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9140,8 +9140,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G146" t="n">
-        <v>10.9</v>
+        <v>1.6</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9178,14 +9183,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9198,7 +9203,7 @@
         </is>
       </c>
       <c r="G147" t="n">
-        <v>5.9</v>
+        <v>1.1</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9235,14 +9240,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9255,7 +9260,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>3.3</v>
+        <v>0.9</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9292,14 +9297,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9312,7 +9317,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9349,14 +9354,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9369,7 +9374,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1.9</v>
+        <v>0.9</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9406,14 +9411,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>44405</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9426,7 +9431,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9463,14 +9468,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9483,7 +9488,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>18.8</v>
+        <v>5.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9520,14 +9525,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9540,7 +9545,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9577,14 +9582,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9597,7 +9602,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9634,14 +9639,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9654,7 +9659,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9691,14 +9696,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9711,7 +9716,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9748,14 +9753,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>44628</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9768,7 +9773,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9805,14 +9810,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>44974</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9825,7 +9830,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>3.7</v>
+        <v>1.7</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9862,14 +9867,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9881,13 +9886,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G159" t="n">
-        <v>3</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9924,14 +9924,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9981,14 +9981,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45268</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10001,7 +10001,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>1.8</v>
+        <v>2.9</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10038,14 +10038,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10058,7 +10058,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10095,14 +10095,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10114,13 +10114,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G163" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10157,14 +10152,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>44628</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10177,7 +10172,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10214,14 +10209,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>44844</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10233,13 +10228,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G165" t="n">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10276,14 +10266,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10296,7 +10286,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10333,14 +10323,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10353,7 +10343,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10390,14 +10380,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10409,13 +10399,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G168" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10452,14 +10437,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10472,7 +10457,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>4.6</v>
+        <v>1.4</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10509,14 +10494,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10534,7 +10519,7 @@
         </is>
       </c>
       <c r="G170" t="n">
-        <v>4.1</v>
+        <v>7.8</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10571,14 +10556,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10591,7 +10576,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>5.4</v>
+        <v>3.8</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10628,14 +10613,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10647,8 +10632,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G172" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10685,14 +10675,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10705,7 +10695,7 @@
         </is>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10742,14 +10732,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>44638</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10762,7 +10752,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10799,14 +10789,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>44706</v>
+        <v>45670</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10819,7 +10809,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10856,14 +10846,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10876,7 +10866,7 @@
         </is>
       </c>
       <c r="G176" t="n">
-        <v>19.7</v>
+        <v>0.8</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10913,14 +10903,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45386</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10933,7 +10923,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10970,14 +10960,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10990,7 +10980,7 @@
         </is>
       </c>
       <c r="G178" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11027,14 +11017,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45011</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11047,7 +11037,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11084,14 +11074,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>45386</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11104,7 +11094,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11141,14 +11131,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11161,7 +11151,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11198,14 +11188,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11218,7 +11208,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11255,14 +11245,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11275,7 +11265,7 @@
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11312,14 +11302,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11332,7 +11322,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11369,14 +11359,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44529</v>
+        <v>44645</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11389,7 +11379,7 @@
         </is>
       </c>
       <c r="G185" t="n">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11426,14 +11416,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>44645</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11446,7 +11436,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11483,14 +11473,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11503,7 +11493,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11540,14 +11530,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45146</v>
+        <v>45966</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11560,7 +11550,7 @@
         </is>
       </c>
       <c r="G188" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11604,7 +11594,7 @@
         <v>45386</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11654,14 +11644,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11674,7 +11664,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11711,14 +11701,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11731,7 +11721,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.6</v>
+        <v>10.9</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11768,14 +11758,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45099</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11788,7 +11778,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11825,14 +11815,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45099</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11845,7 +11835,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.9</v>
+        <v>18.8</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11882,14 +11872,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11902,7 +11892,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0.4</v>
+        <v>2</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11939,14 +11929,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11959,7 +11949,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11996,14 +11986,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45386</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12016,7 +12006,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>1.1</v>
+        <v>4</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12053,14 +12043,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12073,7 +12063,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12110,14 +12100,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12130,7 +12120,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12167,14 +12157,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>44257</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12187,7 +12177,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12224,14 +12214,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12243,13 +12233,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G200" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12286,14 +12271,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12306,7 +12291,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12343,14 +12328,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12363,7 +12348,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>0.1</v>
+        <v>3.7</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12400,14 +12385,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12420,7 +12405,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12457,14 +12442,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45373</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12477,7 +12462,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12514,14 +12499,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45000</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12533,13 +12518,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G205" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -12576,14 +12556,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12596,7 +12576,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12633,14 +12613,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>44645</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12690,14 +12670,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12710,7 +12690,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12747,14 +12727,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>45751</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12767,7 +12747,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12804,14 +12784,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12824,7 +12804,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12861,14 +12841,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12881,7 +12861,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12918,14 +12898,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>44931</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12937,8 +12917,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G212" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12975,14 +12960,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12994,13 +12979,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G213" t="n">
-        <v>2.3</v>
+        <v>4.6</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13037,14 +13017,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>45804</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13057,7 +13037,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13094,14 +13074,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45804</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13114,7 +13094,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13151,14 +13131,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45572</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13171,7 +13151,7 @@
         </is>
       </c>
       <c r="G216" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13208,14 +13188,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>44547</v>
+        <v>45803</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13228,7 +13208,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13265,14 +13245,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45099</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13285,7 +13265,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.4</v>
+        <v>3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13322,14 +13302,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13341,8 +13321,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G219" t="n">
-        <v>5.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13379,14 +13364,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13436,14 +13421,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45805</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13456,7 +13441,7 @@
         </is>
       </c>
       <c r="G221" t="n">
-        <v>1.1</v>
+        <v>5.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13478,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13513,7 +13498,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>3.4</v>
+        <v>1.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13535,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13555,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1.3</v>
+        <v>5.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13592,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45000</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13612,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13649,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45751</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13683,8 +13668,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G225" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13721,14 +13711,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13731,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>1.3</v>
+        <v>5.2</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13778,14 +13768,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13788,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13835,14 +13825,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13845,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.6</v>
+        <v>0.9</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13892,14 +13882,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45803</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13912,7 +13902,7 @@
         </is>
       </c>
       <c r="G229" t="n">
-        <v>3.2</v>
+        <v>1.7</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13949,14 +13939,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13969,7 +13959,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>3</v>
+        <v>4.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14006,14 +13996,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>44967</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14025,8 +14015,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G231" t="n">
-        <v>1.3</v>
+        <v>0.9</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14063,14 +14058,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45804</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14083,7 +14078,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>2.1</v>
+        <v>6.6</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14120,14 +14115,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45804</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14139,8 +14134,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G233" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14177,14 +14177,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14198,11 +14198,11 @@
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G234" t="n">
-        <v>8.199999999999999</v>
+        <v>2.3</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45805</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.3</v>
+        <v>1.2</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14296,14 +14296,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46076</v>
+        <v>46077</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 5086-2024</t>
+          <t>A 41724-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>45330</v>
+        <v>44827</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,17 +951,17 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>4.5</v>
+        <v>1.9</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>1</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Svinrot</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 47393-2025</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>45930.60416666666</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="T7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="V7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="W7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+      <c r="Y7">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>A 50366-2025</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>45944.56960648148</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Korallticka</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 1895-2026</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>46035.50569444444</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>Backmåra</t>
+        </is>
+      </c>
+      <c r="S9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="T9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="V9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="W9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+      <c r="Y9">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>A 5086-2024</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>45330</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>46078</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
           <t>Strävlosta</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 41724-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44827</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Svinrot</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>A 47393-2025</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>45930.60416666666</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-      <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 50366-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45944.56960648148</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Korallticka</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 1895-2026</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>46035.50569444444</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46077</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Backmåra</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1760,14 +1760,14 @@
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A 13342-2022</t>
+          <t>A 13357-2022</t>
         </is>
       </c>
       <c r="B18" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1817,14 +1817,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 13357-2022</t>
+          <t>A 13342-2022</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
         <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>0.7</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1881,7 +1881,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1988,14 +1988,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 63200-2021</t>
+          <t>A 59108-2021</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44507.76953703703</v>
+        <v>44490.43342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2008,7 +2008,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2045,14 +2045,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 8786-2022</t>
+          <t>A 3708-2022</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44614</v>
+        <v>44586</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2064,13 +2064,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>8.1</v>
+        <v>1.1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2107,14 +2102,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 16742-2022</t>
+          <t>A 63200-2021</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44673.45262731481</v>
+        <v>44507.76953703703</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2127,7 +2122,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2164,14 +2159,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 8786-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44859</v>
+        <v>44614</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2183,8 +2178,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G25" t="n">
-        <v>0.7</v>
+        <v>8.1</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2221,14 +2221,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 16742-2022</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44673.45262731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2278,14 +2278,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 561-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44566</v>
+        <v>44840.4175</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>4.6</v>
+        <v>0.6</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 18124-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44684</v>
+        <v>44859</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 28231-2021</t>
+          <t>A 561-2022</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44355</v>
+        <v>44566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2449,14 +2449,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 28233-2021</t>
+          <t>A 18124-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44355</v>
+        <v>44684</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2506,14 +2506,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 31559-2021</t>
+          <t>A 28231-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44369</v>
+        <v>44355</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 56157-2021</t>
+          <t>A 28233-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44477.65078703704</v>
+        <v>44355</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2620,14 +2620,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 63198-2021</t>
+          <t>A 31559-2021</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44507</v>
+        <v>44369</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>44382.31175925926</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2734,14 +2734,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 59108-2021</t>
+          <t>A 56157-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44490.43342592593</v>
+        <v>44477.65078703704</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2791,14 +2791,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 63198-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44405</v>
+        <v>44507</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2848,14 +2848,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44446</v>
+        <v>44405</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 31448-2021</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44369</v>
+        <v>44446</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 2984-2022</t>
+          <t>A 31448-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44581.79246527778</v>
+        <v>44369</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3019,14 +3019,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 30128-2022</t>
+          <t>A 2984-2022</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44757</v>
+        <v>44581.79246527778</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3076,14 +3076,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 3708-2022</t>
+          <t>A 30432-2022</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44586</v>
+        <v>44761.48648148148</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30432-2022</t>
+          <t>A 30128-2022</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44761.48648148148</v>
+        <v>44757</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3190,14 +3190,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 46067-2021</t>
+          <t>A 51451-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44442.30737268519</v>
+        <v>44869.50684027778</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3247,14 +3247,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 38195-2022</t>
+          <t>A 46067-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44812.42858796296</v>
+        <v>44442.30737268519</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3266,13 +3266,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G44" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3309,14 +3304,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 51451-2022</t>
+          <t>A 38195-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44869.50684027778</v>
+        <v>44812.42858796296</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3328,8 +3323,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G45" t="n">
-        <v>0.5</v>
+        <v>1.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>44848</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3428,14 +3428,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 59114-2021</t>
+          <t>A 49968-2022</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44490.43811342592</v>
+        <v>44865.3790162037</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0.4</v>
+        <v>2.9</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 49968-2022</t>
+          <t>A 59114-2021</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44865.3790162037</v>
+        <v>44490.43811342592</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3549,7 +3549,7 @@
         <v>44603.37188657407</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3599,14 +3599,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 36244-2022</t>
+          <t>A 55496-2021</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44803</v>
+        <v>44475</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.3</v>
+        <v>3.8</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 55496-2021</t>
+          <t>A 36244-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44475</v>
+        <v>44803</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3720,7 +3720,7 @@
         <v>44498</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         <v>44816</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3834,7 +3834,7 @@
         <v>44757</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3884,14 +3884,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 58418-2024</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3904,7 +3904,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45361</v>
+        <v>45518</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2.1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,8 +4131,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4169,14 +4174,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45099</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4189,7 +4194,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4226,14 +4231,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4246,7 +4251,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4283,14 +4288,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45884</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4303,7 +4308,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.7</v>
+        <v>2.6</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4340,14 +4345,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4359,8 +4364,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.3</v>
+        <v>1.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4397,14 +4407,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45000</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4417,7 +4427,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4454,14 +4464,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44844</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4473,13 +4483,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G65" t="n">
-        <v>1.7</v>
+        <v>11.1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4516,14 +4521,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4535,13 +4540,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>1.8</v>
+        <v>11.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4578,14 +4578,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45268</v>
+        <v>44455</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4598,7 +4598,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4635,14 +4635,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4692,14 +4692,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45373</v>
+        <v>45000</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4712,7 +4712,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -4749,14 +4749,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44355</v>
+        <v>45386</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4806,14 +4806,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 58418-2024</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45634</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.4</v>
+        <v>4.4</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4863,14 +4863,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4920,14 +4920,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>14.7</v>
+        <v>3.9</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4977,14 +4977,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45751</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4997,7 +4997,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0.4</v>
+        <v>1.4</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -5034,14 +5034,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5091,14 +5091,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5148,14 +5148,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44455</v>
+        <v>45189</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>44827</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5224,13 +5224,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5267,14 +5262,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5287,7 +5282,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5324,14 +5319,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44914</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5344,7 +5339,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5381,14 +5376,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45373</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5401,7 +5396,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5438,14 +5433,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45373</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5458,7 +5453,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3.9</v>
+        <v>1.9</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5495,14 +5490,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44257</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5515,7 +5510,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5552,14 +5547,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>45803</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5572,7 +5567,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5609,14 +5604,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45386</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5629,7 +5624,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5666,14 +5661,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5686,7 +5681,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5723,14 +5718,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5743,7 +5738,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5780,14 +5775,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45337</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5800,7 +5795,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5837,14 +5832,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44827</v>
+        <v>45804</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5857,7 +5852,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5894,14 +5889,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45099</v>
+        <v>45804</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5914,7 +5909,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>1.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5951,14 +5946,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5970,8 +5965,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>0.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6008,14 +6008,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>45805</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>19.7</v>
+        <v>5.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6065,14 +6065,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6122,14 +6122,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>44355</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6179,14 +6179,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6198,13 +6198,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6241,14 +6236,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45446</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6261,7 +6256,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6298,14 +6293,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45034</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6318,7 +6313,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6355,14 +6350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45518</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6375,7 +6370,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.2</v>
+        <v>5.4</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6412,14 +6407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45011</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6432,7 +6427,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6469,14 +6464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6489,7 +6484,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6526,14 +6521,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6546,7 +6541,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6583,14 +6578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>44914</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6603,7 +6598,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.3</v>
+        <v>1.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6640,14 +6635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45373</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6659,8 +6654,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6697,14 +6697,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45373</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6717,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6754,14 +6754,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1379-2025</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45667.65357638889</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6773,8 +6773,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G105" t="n">
-        <v>0.6</v>
+        <v>7.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6811,14 +6816,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44614</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6830,13 +6835,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6873,14 +6873,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6892,13 +6892,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.1</v>
+        <v>6.8</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6935,14 +6930,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45189</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6955,7 +6950,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6992,14 +6987,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45572</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7012,7 +7007,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.2</v>
+        <v>2.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7049,14 +7044,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7069,7 +7064,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>6.8</v>
+        <v>1.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7106,14 +7101,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7126,7 +7121,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7163,14 +7158,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7183,7 +7178,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7220,14 +7215,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44645</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7240,7 +7235,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7277,14 +7272,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7297,7 +7292,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>4.2</v>
+        <v>0.5</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7334,14 +7329,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7354,7 +7349,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7391,14 +7386,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45446</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7411,7 +7406,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7448,14 +7443,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7468,7 +7463,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7505,14 +7500,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>44638</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7525,7 +7520,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.6</v>
+        <v>5.2</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7562,14 +7557,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44529</v>
+        <v>45034</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7582,7 +7577,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>4.9</v>
+        <v>0.8</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7619,14 +7614,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 1379-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>44931</v>
+        <v>45667.65357638889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7639,7 +7634,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -7676,14 +7671,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7696,7 +7691,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7733,14 +7728,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>44645</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7753,7 +7748,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3.4</v>
+        <v>0.9</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7790,14 +7785,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45884</v>
+        <v>45337</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7810,7 +7805,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7847,14 +7842,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45099</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7867,7 +7862,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7904,14 +7899,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7924,7 +7919,7 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>5.1</v>
+        <v>2.8</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7961,14 +7956,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7981,7 +7976,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8018,14 +8013,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8038,7 +8033,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>2.3</v>
+        <v>14.7</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8075,14 +8070,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8095,7 +8090,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>3.5</v>
+        <v>6.6</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8132,14 +8127,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>44967</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8153,11 +8148,11 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>Kommuner</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G129" t="n">
-        <v>3.7</v>
+        <v>0.9</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8194,14 +8189,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8214,7 +8209,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>11.1</v>
+        <v>3.2</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8251,14 +8246,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>44645</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8271,7 +8266,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>11.1</v>
+        <v>3.9</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8308,14 +8303,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44706</v>
+        <v>44645</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8328,7 +8323,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>3.1</v>
+        <v>1.7</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8365,14 +8360,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>44645</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8384,13 +8379,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G133" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8427,14 +8417,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8446,8 +8436,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G134" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8484,14 +8479,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>44547</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8504,7 +8499,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8541,14 +8536,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8560,8 +8555,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G136" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>45146</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8674,13 +8674,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G138" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8717,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45386</v>
+        <v>45361</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8737,7 +8732,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>6.7</v>
+        <v>1.2</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8774,14 +8769,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45386</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8831,14 +8826,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8851,7 +8846,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8888,14 +8883,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>44974</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8908,7 +8903,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>4.4</v>
+        <v>1.7</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8945,14 +8940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8965,7 +8960,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -9002,14 +8997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9022,7 +9017,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9059,14 +9054,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45670</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9078,13 +9073,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G145" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9121,14 +9111,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45386</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9140,13 +9130,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G146" t="n">
-        <v>1.6</v>
+        <v>6.7</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9183,14 +9168,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9202,8 +9187,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G147" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9240,14 +9230,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>44405</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9260,7 +9250,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>0.9</v>
+        <v>1.3</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9297,14 +9287,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>45966</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9317,7 +9307,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>3.2</v>
+        <v>0.6</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9354,14 +9344,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45000</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9374,7 +9364,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9411,14 +9401,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>44405</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9431,7 +9421,7 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9468,14 +9458,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9488,7 +9478,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>5.4</v>
+        <v>0.4</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9525,14 +9515,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9545,7 +9535,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9582,14 +9572,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9602,7 +9592,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>1.9</v>
+        <v>10.9</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9639,14 +9629,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9659,7 +9649,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.3</v>
+        <v>5.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9696,14 +9686,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9716,7 +9706,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1.3</v>
+        <v>3.3</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9753,14 +9743,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>44628</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9773,7 +9763,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9810,14 +9800,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>44974</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9830,7 +9820,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9867,14 +9857,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9887,7 +9877,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9924,14 +9914,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9944,7 +9934,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9981,14 +9971,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10001,7 +9991,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.9</v>
+        <v>18.8</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10038,14 +10028,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10058,7 +10048,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10095,14 +10085,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10115,7 +10105,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10152,14 +10142,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10172,7 +10162,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10209,14 +10199,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10229,7 +10219,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10266,14 +10256,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10286,7 +10276,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10323,14 +10313,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10343,7 +10333,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10380,14 +10370,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10400,7 +10390,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10437,14 +10427,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10457,7 +10447,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10494,14 +10484,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>44614</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10515,11 +10505,11 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Kyrkan</t>
         </is>
       </c>
       <c r="G170" t="n">
-        <v>7.8</v>
+        <v>1.5</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10556,14 +10546,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10576,7 +10566,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10613,14 +10603,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10632,13 +10622,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G172" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10675,14 +10660,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10694,8 +10679,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G173" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10732,14 +10722,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10752,7 +10742,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>0.6</v>
+        <v>1.5</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10789,14 +10779,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45670</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10809,7 +10799,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10846,14 +10836,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10865,8 +10855,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G176" t="n">
-        <v>0.8</v>
+        <v>3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10903,14 +10898,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10923,7 +10918,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10960,14 +10955,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10979,8 +10974,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G178" t="n">
-        <v>2.1</v>
+        <v>3.7</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11017,14 +11017,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45268</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11074,14 +11074,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>45386</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11094,7 +11094,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>1.3</v>
+        <v>4.6</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11131,14 +11131,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11151,7 +11151,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11188,14 +11188,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11208,7 +11208,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11245,14 +11245,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11264,8 +11264,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G183" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11302,14 +11307,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>44628</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11322,7 +11327,7 @@
         </is>
       </c>
       <c r="G184" t="n">
-        <v>0.2</v>
+        <v>1.2</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11359,14 +11364,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44645</v>
+        <v>44844</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11378,8 +11383,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G185" t="n">
-        <v>3.9</v>
+        <v>1.7</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11416,14 +11426,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>44645</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11436,7 +11446,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11473,14 +11483,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11493,7 +11503,7 @@
         </is>
       </c>
       <c r="G187" t="n">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11530,14 +11540,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45966</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11549,8 +11559,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G188" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11587,14 +11602,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>45386</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11607,7 +11622,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11644,14 +11659,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>44638</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11664,7 +11679,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11701,14 +11716,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>44706</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11721,7 +11736,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>10.9</v>
+        <v>3.1</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11758,14 +11773,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11778,7 +11793,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>5.9</v>
+        <v>19.7</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11815,14 +11830,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45386</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11835,7 +11850,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>18.8</v>
+        <v>1.3</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11872,14 +11887,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11892,7 +11907,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>2</v>
+        <v>4.1</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11929,14 +11944,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45011</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11949,7 +11964,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -11986,14 +12001,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12006,7 +12021,7 @@
         </is>
       </c>
       <c r="G196" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -12043,14 +12058,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12063,7 +12078,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12100,14 +12115,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12120,7 +12135,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12157,14 +12172,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12177,7 +12192,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12214,14 +12229,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12234,7 +12249,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12271,14 +12286,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12291,7 +12306,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12328,14 +12343,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>44529</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12348,7 +12363,7 @@
         </is>
       </c>
       <c r="G202" t="n">
-        <v>3.7</v>
+        <v>4.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12385,14 +12400,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12405,7 +12420,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12442,14 +12457,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45146</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12462,7 +12477,7 @@
         </is>
       </c>
       <c r="G204" t="n">
-        <v>1.1</v>
+        <v>3.6</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12499,14 +12514,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45000</v>
+        <v>45386</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12556,14 +12571,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12576,7 +12591,7 @@
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12613,14 +12628,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12633,7 +12648,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12670,14 +12685,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45099</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12690,7 +12705,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12727,14 +12742,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45751</v>
+        <v>45099</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12747,7 +12762,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12784,14 +12799,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12804,7 +12819,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>1.6</v>
+        <v>0.4</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12841,14 +12856,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12861,7 +12876,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12898,14 +12913,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45386</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12917,13 +12932,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G212" t="n">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12960,14 +12970,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12980,7 +12990,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13017,14 +13027,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45804</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13037,7 +13047,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13074,14 +13084,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>45804</v>
+        <v>44257</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13094,7 +13104,7 @@
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1.2</v>
+        <v>0.6</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13131,14 +13141,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13150,8 +13160,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G216" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13188,14 +13203,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45803</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13208,7 +13223,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>3.2</v>
+        <v>0.3</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13245,14 +13260,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13265,7 +13280,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13302,14 +13317,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13321,13 +13336,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G219" t="n">
-        <v>8.199999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13364,14 +13374,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45373</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13384,7 +13394,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13421,14 +13431,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45805</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13440,8 +13450,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G221" t="n">
-        <v>5.3</v>
+        <v>0.5</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13478,14 +13493,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13498,7 +13513,7 @@
         </is>
       </c>
       <c r="G222" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13535,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>44645</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13555,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13592,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13612,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0.8</v>
+        <v>3.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13649,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13668,13 +13683,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G225" t="n">
-        <v>1.1</v>
+        <v>1.6</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13711,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13731,7 +13741,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>5.2</v>
+        <v>0.3</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13768,14 +13778,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13788,7 +13798,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13825,14 +13835,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>44931</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13845,7 +13855,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13882,14 +13892,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13901,8 +13911,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G229" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13939,14 +13954,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13959,7 +13974,7 @@
         </is>
       </c>
       <c r="G230" t="n">
-        <v>4.7</v>
+        <v>1.6</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -13996,14 +14011,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>44967</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14015,13 +14030,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G231" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14058,14 +14068,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45572</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14078,7 +14088,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>6.6</v>
+        <v>1.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14115,14 +14125,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>44547</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14134,13 +14144,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G233" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14177,14 +14182,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>45099</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14196,13 +14201,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G234" t="n">
-        <v>2.3</v>
+        <v>0.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1.2</v>
+        <v>5.1</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14296,14 +14296,14 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46077</v>
+        <v>46078</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>

--- a/Översikt GÖTENE.xlsx
+++ b/Översikt GÖTENE.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z236"/>
+  <dimension ref="A1:Z247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>45099</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
         <v>44642</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>45076</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45000</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -931,14 +931,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 41724-2022</t>
+          <t>A 5086-2024</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44827</v>
+        <v>45330</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -951,16 +951,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.9</v>
+        <v>4.5</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -985,374 +985,374 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
+          <t>Strävlosta</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 41724-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44827</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
           <t>Svinrot</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 41724-2022 artfynd.xlsx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 41724-2022 karta.png", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 41724-2022 FSC-klagomål.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 41724-2022 FSC-klagomål mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 41724-2022 tillsynsbegäran.docx", "A 41724-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 41724-2022 tillsynsbegäran mail.docx", "A 41724-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="inlineStr">
         <is>
           <t>A 47393-2025</t>
         </is>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B8" s="1" t="n">
         <v>45930.60416666666</v>
       </c>
-      <c r="C7" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="C8" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>1</v>
       </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S7">
+      <c r="S8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 47393-2025 artfynd.xlsx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="T7">
+      <c r="T8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 47393-2025 karta.png", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="V7">
+      <c r="V8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 47393-2025 FSC-klagomål.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="W7">
+      <c r="W8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 47393-2025 FSC-klagomål mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="X7">
+      <c r="X8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 47393-2025 tillsynsbegäran.docx", "A 47393-2025")</f>
         <v/>
       </c>
-      <c r="Y7">
+      <c r="Y8">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 47393-2025 tillsynsbegäran mail.docx", "A 47393-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" t="inlineStr">
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
         <is>
           <t>A 50366-2025</t>
         </is>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B9" s="1" t="n">
         <v>45944.56960648148</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="C9" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>1</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>1</v>
       </c>
-      <c r="R8" s="2" t="inlineStr">
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Korallticka</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 50366-2025 artfynd.xlsx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 50366-2025 karta.png", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 50366-2025 FSC-klagomål.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 50366-2025 FSC-klagomål mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 50366-2025 tillsynsbegäran.docx", "A 50366-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 50366-2025 tillsynsbegäran mail.docx", "A 50366-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
         <is>
           <t>A 1895-2026</t>
         </is>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B10" s="1" t="n">
         <v>46035.50569444444</v>
       </c>
-      <c r="C9" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C10" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>2.2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>1</v>
       </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
         <v>1</v>
       </c>
-      <c r="R9" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>Backmåra</t>
         </is>
       </c>
-      <c r="S9">
+      <c r="S10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 1895-2026 artfynd.xlsx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="T9">
+      <c r="T10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 1895-2026 karta.png", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="V9">
+      <c r="V10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 1895-2026 FSC-klagomål.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="W9">
+      <c r="W10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 1895-2026 FSC-klagomål mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="X9">
+      <c r="X10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 1895-2026 tillsynsbegäran.docx", "A 1895-2026")</f>
         <v/>
       </c>
-      <c r="Y9">
+      <c r="Y10">
         <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 1895-2026 tillsynsbegäran mail.docx", "A 1895-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>A 5086-2024</t>
-        </is>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>45330</v>
-      </c>
-      <c r="C10" s="1" t="n">
-        <v>46078</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>VÄSTRA GÖTALANDS LÄN</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>GÖTENE</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>Strävlosta</t>
-        </is>
-      </c>
-      <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/artfynd/A 5086-2024 artfynd.xlsx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/kartor/A 5086-2024 karta.png", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomål/A 5086-2024 FSC-klagomål.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/klagomålsmail/A 5086-2024 FSC-klagomål mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsyn/A 5086-2024 tillsynsbegäran.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-      <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_1471/tillsynsmail/A 5086-2024 tillsynsbegäran mail.docx", "A 5086-2024")</f>
-        <v/>
-      </c>
-    </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
@@ -1363,7 +1363,7 @@
         <v>44315</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1420,7 +1420,7 @@
         <v>44566</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1477,7 +1477,7 @@
         <v>44432.49570601852</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1534,7 +1534,7 @@
         <v>44490</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1591,7 +1591,7 @@
         <v>44375.66605324074</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44355</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1710,7 +1710,7 @@
         <v>44827</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1767,7 +1767,7 @@
         <v>44645</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1824,7 +1824,7 @@
         <v>44645</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         <v>44490.41994212963</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>44490</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1995,7 +1995,7 @@
         <v>44490.43342592593</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         <v>44586</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2102,14 +2102,14 @@
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="inlineStr">
         <is>
-          <t>A 63200-2021</t>
+          <t>A 8786-2022</t>
         </is>
       </c>
       <c r="B24" s="1" t="n">
-        <v>44507.76953703703</v>
+        <v>44614</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2121,8 +2121,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G24" t="n">
-        <v>1.3</v>
+        <v>8.1</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2159,14 +2164,14 @@
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 8786-2022</t>
+          <t>A 63200-2021</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44614</v>
+        <v>44507.76953703703</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2178,13 +2183,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G25" t="n">
-        <v>8.1</v>
+        <v>1.3</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2228,7 +2228,7 @@
         <v>44673.45262731481</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2278,14 +2278,14 @@
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 44507-2022</t>
+          <t>A 48733-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44840.4175</v>
+        <v>44859</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2335,14 +2335,14 @@
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 48733-2022</t>
+          <t>A 44507-2022</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44859</v>
+        <v>44840.4175</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2355,7 +2355,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2392,14 +2392,14 @@
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 561-2022</t>
+          <t>A 46978-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44566</v>
+        <v>44446</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4.6</v>
+        <v>1.2</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2449,14 +2449,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 18124-2022</t>
+          <t>A 561-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44684</v>
+        <v>44566</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2469,7 +2469,7 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2506,14 +2506,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 28231-2021</t>
+          <t>A 56157-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44355</v>
+        <v>44477.65078703704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2563,14 +2563,14 @@
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28233-2021</t>
+          <t>A 18124-2022</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44355</v>
+        <v>44684</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2583,7 +2583,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2620,14 +2620,14 @@
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 31559-2021</t>
+          <t>A 30432-2022</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44369</v>
+        <v>44761.48648148148</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2640,7 +2640,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2677,14 +2677,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 34490-2021</t>
+          <t>A 31448-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44382.31175925926</v>
+        <v>44369</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5.4</v>
+        <v>0.5</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2734,14 +2734,14 @@
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 56157-2021</t>
+          <t>A 28231-2021</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>44477.65078703704</v>
+        <v>44355</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2791,14 +2791,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 63198-2021</t>
+          <t>A 28233-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44507</v>
+        <v>44355</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2848,14 +2848,14 @@
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 38252-2021</t>
+          <t>A 31559-2021</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>44405</v>
+        <v>44369</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2868,7 +2868,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -2905,14 +2905,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 46978-2021</t>
+          <t>A 2984-2022</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44446</v>
+        <v>44581.79246527778</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2925,7 +2925,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -2962,14 +2962,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 31448-2021</t>
+          <t>A 34490-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44369</v>
+        <v>44382.31175925926</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>0.5</v>
+        <v>5.4</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3019,14 +3019,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 2984-2022</t>
+          <t>A 63198-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44581.79246527778</v>
+        <v>44507</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3076,14 +3076,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 30432-2022</t>
+          <t>A 46067-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44761.48648148148</v>
+        <v>44442.30737268519</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3133,14 +3133,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 30128-2022</t>
+          <t>A 38252-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44757</v>
+        <v>44405</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3190,14 +3190,14 @@
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 51451-2022</t>
+          <t>A 30128-2022</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44869.50684027778</v>
+        <v>44757</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3210,7 +3210,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3247,14 +3247,14 @@
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 46067-2021</t>
+          <t>A 46381-2022</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44442.30737268519</v>
+        <v>44848</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3266,8 +3266,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G44" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -3304,14 +3309,14 @@
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 38195-2022</t>
+          <t>A 49968-2022</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44812.42858796296</v>
+        <v>44865.3790162037</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3323,13 +3328,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G45" t="n">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -3366,14 +3366,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 46381-2022</t>
+          <t>A 38195-2022</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44848</v>
+        <v>44812.42858796296</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3387,11 +3387,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sveaskog</t>
+          <t>Övriga Aktiebolag</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -3428,14 +3428,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 49968-2022</t>
+          <t>A 59114-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44865.3790162037</v>
+        <v>44490.43811342592</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3448,7 +3448,7 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3485,14 +3485,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 59114-2021</t>
+          <t>A 6969-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44490.43811342592</v>
+        <v>44603.37188657407</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3505,7 +3505,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -3542,14 +3542,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 6969-2022</t>
+          <t>A 30174-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44603.37188657407</v>
+        <v>44757</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.6</v>
+        <v>5.1</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3599,14 +3599,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 55496-2021</t>
+          <t>A 36244-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44475</v>
+        <v>44803</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3619,7 +3619,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3656,14 +3656,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 36244-2022</t>
+          <t>A 51451-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44803</v>
+        <v>44869.50684027778</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3676,7 +3676,7 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3713,14 +3713,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61148-2021</t>
+          <t>A 55496-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44498</v>
+        <v>44475</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3733,7 +3733,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.3</v>
+        <v>3.8</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -3770,14 +3770,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 38945-2022</t>
+          <t>A 61148-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44816</v>
+        <v>44498</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3790,7 +3790,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.6</v>
+        <v>0.3</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -3827,14 +3827,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 30174-2022</t>
+          <t>A 38945-2022</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44757</v>
+        <v>44816</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3847,7 +3847,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>5.1</v>
+        <v>2.6</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -3891,7 +3891,7 @@
         <v>45634</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3941,14 +3941,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 33162-2024</t>
+          <t>A 13170-2024</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>45518</v>
+        <v>45386.40589120371</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2.2</v>
+        <v>0.7</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -3998,14 +3998,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 36381-2023</t>
+          <t>A 45180-2024</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>45152.52061342593</v>
+        <v>45575.66361111111</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>2</v>
+        <v>14.7</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -4055,14 +4055,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 8330-2024</t>
+          <t>A 36304-2023</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>45352.48944444444</v>
+        <v>45152.37777777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.1</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -4112,14 +4112,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 18647-2025</t>
+          <t>A 9607-2024</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45763.57391203703</v>
+        <v>45361</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4131,13 +4131,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -4174,14 +4169,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 48012-2025</t>
+          <t>A 49256-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45932.64380787037</v>
+        <v>45210.66854166667</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4194,7 +4189,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -4231,14 +4226,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 15696-2025</t>
+          <t>A 58650-2023</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45748.46936342592</v>
+        <v>45251.59912037037</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4251,7 +4246,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -4288,14 +4283,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 38701-2025</t>
+          <t>A 10596-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45884</v>
+        <v>45366.78552083333</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4308,7 +4303,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -4345,14 +4340,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 61194-2024</t>
+          <t>A 10958-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45645.62891203703</v>
+        <v>44628</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4364,13 +4359,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -4407,14 +4397,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28316-2024</t>
+          <t>A 10345-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45477.50171296296</v>
+        <v>44257</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4427,7 +4417,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3.4</v>
+        <v>0.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -4464,14 +4454,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 34395-2025</t>
+          <t>A 45239-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45846.59416666667</v>
+        <v>44844</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4483,8 +4473,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G65" t="n">
-        <v>11.1</v>
+        <v>1.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -4521,14 +4516,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 34562-2025</t>
+          <t>A 21285-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45847.57822916667</v>
+        <v>45440.65799768519</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4541,7 +4536,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>11.1</v>
+        <v>1.3</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -4578,14 +4573,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 49700-2021</t>
+          <t>A 49536-2021</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44455</v>
+        <v>44455.33650462963</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4597,8 +4592,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -4635,14 +4635,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 21269-2024</t>
+          <t>A 9145-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45440.64200231482</v>
+        <v>44974</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4655,7 +4655,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -4692,14 +4692,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12664-2023</t>
+          <t>A 28205-2021</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45000</v>
+        <v>44355</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4749,14 +4749,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13276-2024</t>
+          <t>A 41721-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45386</v>
+        <v>44827</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4769,7 +4769,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -4806,14 +4806,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 39998-2025</t>
+          <t>A 28264-2023</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45894.32873842592</v>
+        <v>45099</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4826,7 +4826,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.4</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -4863,14 +4863,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 39995-2025</t>
+          <t>A 28268-2023</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45894.31888888889</v>
+        <v>45099.61547453704</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4883,7 +4883,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -4920,14 +4920,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 849-2023</t>
+          <t>A 52352-2023</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>44931.57689814815</v>
+        <v>45224.68096064815</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3.9</v>
+        <v>0.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -4977,14 +4977,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 16341-2025</t>
+          <t>A 7225-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45751</v>
+        <v>44970.59268518518</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5034,14 +5034,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 10668-2025</t>
+          <t>A 55764-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45721.77831018518</v>
+        <v>45623.36986111111</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5091,14 +5091,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 12656-2025</t>
+          <t>A 56169-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45733.41709490741</v>
+        <v>45624.55305555555</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5111,7 +5111,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1.6</v>
+        <v>19.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -5148,14 +5148,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 44608-2023</t>
+          <t>A 850-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45189</v>
+        <v>44931.57833333333</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5168,7 +5168,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -5205,14 +5205,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41721-2022</t>
+          <t>A 49700-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44827</v>
+        <v>44455</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5225,7 +5225,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>4.1</v>
+        <v>1</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -5262,14 +5262,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31917-2022</t>
+          <t>A 13245-2021</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44777.59171296296</v>
+        <v>44272.6200462963</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5282,7 +5282,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -5319,14 +5319,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 11889-2024</t>
+          <t>A 13276-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45376.52688657407</v>
+        <v>45386</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5339,7 +5339,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.6</v>
+        <v>3.6</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -5376,14 +5376,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 11772-2024</t>
+          <t>A 61294-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45373</v>
+        <v>45645.83722222222</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -5433,14 +5433,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 11773-2024</t>
+          <t>A 13247-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45373</v>
+        <v>44272.62681712963</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5453,7 +5453,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -5490,14 +5490,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 25434-2025</t>
+          <t>A 10451-2024</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45800.8074537037</v>
+        <v>45366.35112268518</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5509,8 +5509,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -5547,14 +5552,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 25594-2025</t>
+          <t>A 12660-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45803</v>
+        <v>45000</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5567,7 +5572,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3.2</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -5604,14 +5609,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 25435-2025</t>
+          <t>A 62390-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45800.81108796296</v>
+        <v>45268</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5624,7 +5629,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -5661,14 +5666,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 25436-2025</t>
+          <t>A 62402-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45800.81622685185</v>
+        <v>45268.36413194444</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5681,7 +5686,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -5718,14 +5723,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 43189-2025</t>
+          <t>A 11771-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45910.41298611111</v>
+        <v>45373</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5738,7 +5743,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0.9</v>
+        <v>3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -5775,14 +5780,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 43986-2025</t>
+          <t>A 19093-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45915.4346875</v>
+        <v>45767.49024305555</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5795,7 +5800,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -5832,14 +5837,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 26035-2025</t>
+          <t>A 19115-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45804</v>
+        <v>45768.72082175926</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5852,7 +5857,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -5889,14 +5894,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 26029-2025</t>
+          <t>A 1662-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45804</v>
+        <v>45670</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5909,7 +5914,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -5946,14 +5951,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 25780-2025</t>
+          <t>A 28332-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45804.36298611111</v>
+        <v>45099.72846064815</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5965,13 +5970,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>8.199999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -6008,14 +6008,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 26105-2025</t>
+          <t>A 68680-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45805</v>
+        <v>44529</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6028,7 +6028,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>5.3</v>
+        <v>4.9</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -6065,14 +6065,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 10703-2025</t>
+          <t>A 31981-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45722.33243055556</v>
+        <v>45119.43261574074</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6085,7 +6085,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -6122,14 +6122,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 28205-2021</t>
+          <t>A 1352-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44355</v>
+        <v>44931</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6142,7 +6142,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -6179,14 +6179,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 45009-2025</t>
+          <t>A 8330-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45918.67119212963</v>
+        <v>45352.48944444444</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6199,7 +6199,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -6236,14 +6236,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 45010-2025</t>
+          <t>A 28267-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45918.67211805555</v>
+        <v>45099</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6256,7 +6256,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -6293,14 +6293,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 45013-2025</t>
+          <t>A 28273-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45918.67410879629</v>
+        <v>45099.62096064815</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6313,7 +6313,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.3</v>
+        <v>5.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -6350,14 +6350,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 45011-2025</t>
+          <t>A 13279-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45918.67297453704</v>
+        <v>45386</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>5.4</v>
+        <v>1.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -6407,14 +6407,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 45007-2025</t>
+          <t>A 11889-2024</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45918.66829861111</v>
+        <v>45376.52688657407</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6427,7 +6427,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -6464,14 +6464,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 15649-2023</t>
+          <t>A 15426-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45021.38078703704</v>
+        <v>45747.4666087963</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -6521,14 +6521,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 17010-2022</t>
+          <t>A 15442-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44676.67267361111</v>
+        <v>45747.48292824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6541,7 +6541,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -6578,14 +6578,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 61021-2022</t>
+          <t>A 72879-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44914</v>
+        <v>44547</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6598,7 +6598,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -6635,14 +6635,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 28390-2025</t>
+          <t>A 13340-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45819.32724537037</v>
+        <v>44645</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6654,13 +6654,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -6697,14 +6692,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 46959-2025</t>
+          <t>A 13348-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45929.48538194445</v>
+        <v>44645</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6717,7 +6712,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -6754,14 +6749,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 49077-2025</t>
+          <t>A 15646-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45937.6599074074</v>
+        <v>45021.37828703703</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6773,13 +6768,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G105" t="n">
-        <v>7.8</v>
+        <v>3</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -6816,14 +6806,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 46954-2025</t>
+          <t>A 62499-2022</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45929.48041666667</v>
+        <v>44924.59118055556</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6835,8 +6825,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -6873,14 +6868,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 30205-2023</t>
+          <t>A 22055-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45110.61938657407</v>
+        <v>45069.41737268519</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6893,7 +6888,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -6930,14 +6925,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 47368-2025</t>
+          <t>A 15649-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45930.59194444444</v>
+        <v>45021.38078703704</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6950,7 +6945,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -6987,14 +6982,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 47175-2025</t>
+          <t>A 3932-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45930.26871527778</v>
+        <v>44587.54376157407</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7007,7 +7002,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -7044,14 +7039,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 47383-2025</t>
+          <t>A 13280-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45930.59738425926</v>
+        <v>45386</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7064,7 +7059,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -7101,14 +7096,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 47385-2025</t>
+          <t>A 12319-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45930.59872685185</v>
+        <v>45729.97268518519</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7121,7 +7116,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -7158,14 +7153,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 47371-2025</t>
+          <t>A 9762-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45930.59351851852</v>
+        <v>45716.47924768519</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7177,8 +7172,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -7215,14 +7215,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 47388-2025</t>
+          <t>A 35202-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45930.60120370371</v>
+        <v>45530.47739583333</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7235,7 +7235,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2.3</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -7272,14 +7272,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 47389-2025</t>
+          <t>A 33162-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45930.60195601852</v>
+        <v>45518</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7292,7 +7292,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.5</v>
+        <v>2.2</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -7329,14 +7329,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 35202-2024</t>
+          <t>A 14296-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45530.47739583333</v>
+        <v>45011</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7349,7 +7349,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -7386,14 +7386,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 22278-2024</t>
+          <t>A 62510-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45446</v>
+        <v>44924.60834490741</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7405,8 +7405,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -7443,14 +7448,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 13247-2021</t>
+          <t>A 61021-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44272.62681712963</v>
+        <v>44914</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7463,7 +7468,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>3.8</v>
+        <v>1.8</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -7500,14 +7505,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 31258-2025</t>
+          <t>A 849-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45833.32134259259</v>
+        <v>44931.57689814815</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7520,7 +7525,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>5.2</v>
+        <v>3.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -7557,14 +7562,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17069-2023</t>
+          <t>A 28335-2023</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45034</v>
+        <v>45099.74278935185</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7577,7 +7582,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -7621,7 +7626,7 @@
         <v>45667.65357638889</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7671,14 +7676,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 32909-2025</t>
+          <t>A 38701-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45839.63256944445</v>
+        <v>45884</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7691,7 +7696,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -7728,14 +7733,14 @@
     <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 32967-2025</t>
+          <t>A 44608-2023</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45839.72451388889</v>
+        <v>45189</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7748,7 +7753,7 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -7785,14 +7790,14 @@
     <row r="123" ht="15" customHeight="1">
       <c r="A123" t="inlineStr">
         <is>
-          <t>A 6092-2024</t>
+          <t>A 44033-2024</t>
         </is>
       </c>
       <c r="B123" s="1" t="n">
-        <v>45337</v>
+        <v>45572</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7805,7 +7810,7 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -7842,14 +7847,14 @@
     <row r="124" ht="15" customHeight="1">
       <c r="A124" t="inlineStr">
         <is>
-          <t>A 19115-2025</t>
+          <t>A 13366-2022</t>
         </is>
       </c>
       <c r="B124" s="1" t="n">
-        <v>45768.72082175926</v>
+        <v>44645</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7862,7 +7867,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -7899,14 +7904,14 @@
     <row r="125" ht="15" customHeight="1">
       <c r="A125" t="inlineStr">
         <is>
-          <t>A 12319-2025</t>
+          <t>A 18647-2025</t>
         </is>
       </c>
       <c r="B125" s="1" t="n">
-        <v>45729.97268518519</v>
+        <v>45763.57391203703</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7918,8 +7923,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G125" t="n">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -7956,14 +7966,14 @@
     <row r="126" ht="15" customHeight="1">
       <c r="A126" t="inlineStr">
         <is>
-          <t>A 34161-2025</t>
+          <t>A 34562-2025</t>
         </is>
       </c>
       <c r="B126" s="1" t="n">
-        <v>45845.57840277778</v>
+        <v>45847.57822916667</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -7976,7 +7986,7 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>4.7</v>
+        <v>11.1</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -8013,14 +8023,14 @@
     <row r="127" ht="15" customHeight="1">
       <c r="A127" t="inlineStr">
         <is>
-          <t>A 45180-2024</t>
+          <t>A 34395-2025</t>
         </is>
       </c>
       <c r="B127" s="1" t="n">
-        <v>45575.66361111111</v>
+        <v>45846.59416666667</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8033,7 +8043,7 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>14.7</v>
+        <v>11.1</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -8070,14 +8080,14 @@
     <row r="128" ht="15" customHeight="1">
       <c r="A128" t="inlineStr">
         <is>
-          <t>A 35153-2025</t>
+          <t>A 31969-2023</t>
         </is>
       </c>
       <c r="B128" s="1" t="n">
-        <v>45852.68678240741</v>
+        <v>45119.41274305555</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8090,7 +8100,7 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>6.6</v>
+        <v>1.1</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -8127,14 +8137,14 @@
     <row r="129" ht="15" customHeight="1">
       <c r="A129" t="inlineStr">
         <is>
-          <t>A 6925-2023</t>
+          <t>A 31978-2023</t>
         </is>
       </c>
       <c r="B129" s="1" t="n">
-        <v>44967</v>
+        <v>45119.42896990741</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8146,13 +8156,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G129" t="n">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -8189,14 +8194,14 @@
     <row r="130" ht="15" customHeight="1">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A 14502-2023</t>
+          <t>A 15428-2025</t>
         </is>
       </c>
       <c r="B130" s="1" t="n">
-        <v>45012.74041666667</v>
+        <v>45747.46989583333</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8209,7 +8214,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3.2</v>
+        <v>0.1</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -8246,14 +8251,14 @@
     <row r="131" ht="15" customHeight="1">
       <c r="A131" t="inlineStr">
         <is>
-          <t>A 13340-2022</t>
+          <t>A 15434-2025</t>
         </is>
       </c>
       <c r="B131" s="1" t="n">
-        <v>44645</v>
+        <v>45747.47193287037</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8266,7 +8271,7 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -8303,14 +8308,14 @@
     <row r="132" ht="15" customHeight="1">
       <c r="A132" t="inlineStr">
         <is>
-          <t>A 13348-2022</t>
+          <t>A 6092-2024</t>
         </is>
       </c>
       <c r="B132" s="1" t="n">
-        <v>44645</v>
+        <v>45337</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8323,7 +8328,7 @@
         </is>
       </c>
       <c r="G132" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -8360,14 +8365,14 @@
     <row r="133" ht="15" customHeight="1">
       <c r="A133" t="inlineStr">
         <is>
-          <t>A 13366-2022</t>
+          <t>A 61194-2024</t>
         </is>
       </c>
       <c r="B133" s="1" t="n">
-        <v>44645</v>
+        <v>45645.62891203703</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8379,8 +8384,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G133" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -8417,14 +8427,14 @@
     <row r="134" ht="15" customHeight="1">
       <c r="A134" t="inlineStr">
         <is>
-          <t>A 58236-2024</t>
+          <t>A 28258-2023</t>
         </is>
       </c>
       <c r="B134" s="1" t="n">
-        <v>45632.53951388889</v>
+        <v>45099</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8436,13 +8446,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -8479,14 +8484,14 @@
     <row r="135" ht="15" customHeight="1">
       <c r="A135" t="inlineStr">
         <is>
-          <t>A 15646-2023</t>
+          <t>A 12664-2023</t>
         </is>
       </c>
       <c r="B135" s="1" t="n">
-        <v>45021.37828703703</v>
+        <v>45000</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8499,7 +8504,7 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -8536,14 +8541,14 @@
     <row r="136" ht="15" customHeight="1">
       <c r="A136" t="inlineStr">
         <is>
-          <t>A 58691-2024</t>
+          <t>A 17010-2022</t>
         </is>
       </c>
       <c r="B136" s="1" t="n">
-        <v>45635.6282175926</v>
+        <v>44676.67267361111</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8555,13 +8560,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G136" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -8598,14 +8598,14 @@
     <row r="137" ht="15" customHeight="1">
       <c r="A137" t="inlineStr">
         <is>
-          <t>A 45211-2022</t>
+          <t>A 21269-2024</t>
         </is>
       </c>
       <c r="B137" s="1" t="n">
-        <v>44844.44121527778</v>
+        <v>45440.64200231482</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8618,7 +8618,7 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -8655,14 +8655,14 @@
     <row r="138" ht="15" customHeight="1">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A 52231-2025</t>
+          <t>A 28316-2024</t>
         </is>
       </c>
       <c r="B138" s="1" t="n">
-        <v>45953.44965277778</v>
+        <v>45477.50171296296</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8675,7 +8675,7 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -8712,14 +8712,14 @@
     <row r="139" ht="15" customHeight="1">
       <c r="A139" t="inlineStr">
         <is>
-          <t>A 9607-2024</t>
+          <t>A 39995-2025</t>
         </is>
       </c>
       <c r="B139" s="1" t="n">
-        <v>45361</v>
+        <v>45894.31888888889</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8732,7 +8732,7 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -8769,14 +8769,14 @@
     <row r="140" ht="15" customHeight="1">
       <c r="A140" t="inlineStr">
         <is>
-          <t>A 52141-2025</t>
+          <t>A 39998-2025</t>
         </is>
       </c>
       <c r="B140" s="1" t="n">
-        <v>45953.32733796296</v>
+        <v>45894.32873842592</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.1</v>
+        <v>4.4</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -8826,14 +8826,14 @@
     <row r="141" ht="15" customHeight="1">
       <c r="A141" t="inlineStr">
         <is>
-          <t>A 35947-2025</t>
+          <t>A 19674-2023</t>
         </is>
       </c>
       <c r="B141" s="1" t="n">
-        <v>45862.73864583333</v>
+        <v>45051.39313657407</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -8883,14 +8883,14 @@
     <row r="142" ht="15" customHeight="1">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A 9145-2023</t>
+          <t>A 13345-2022</t>
         </is>
       </c>
       <c r="B142" s="1" t="n">
-        <v>44974</v>
+        <v>44645</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8903,7 +8903,7 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -8940,14 +8940,14 @@
     <row r="143" ht="15" customHeight="1">
       <c r="A143" t="inlineStr">
         <is>
-          <t>A 13450-2025</t>
+          <t>A 22278-2024</t>
         </is>
       </c>
       <c r="B143" s="1" t="n">
-        <v>45736.37754629629</v>
+        <v>45446</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8960,7 +8960,7 @@
         </is>
       </c>
       <c r="G143" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -8997,14 +8997,14 @@
     <row r="144" ht="15" customHeight="1">
       <c r="A144" t="inlineStr">
         <is>
-          <t>A 53273-2025</t>
+          <t>A 17069-2023</t>
         </is>
       </c>
       <c r="B144" s="1" t="n">
-        <v>45958.71226851852</v>
+        <v>45034</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9017,7 +9017,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -9054,14 +9054,14 @@
     <row r="145" ht="15" customHeight="1">
       <c r="A145" t="inlineStr">
         <is>
-          <t>A 1662-2025</t>
+          <t>A 16341-2025</t>
         </is>
       </c>
       <c r="B145" s="1" t="n">
-        <v>45670</v>
+        <v>45751</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9074,7 +9074,7 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -9111,14 +9111,14 @@
     <row r="146" ht="15" customHeight="1">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A 13268-2024</t>
+          <t>A 59074-2023</t>
         </is>
       </c>
       <c r="B146" s="1" t="n">
-        <v>45386</v>
+        <v>45252.87451388889</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9131,7 +9131,7 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>6.7</v>
+        <v>0.3</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -9168,14 +9168,14 @@
     <row r="147" ht="15" customHeight="1">
       <c r="A147" t="inlineStr">
         <is>
-          <t>A 10451-2024</t>
+          <t>A 12656-2025</t>
         </is>
       </c>
       <c r="B147" s="1" t="n">
-        <v>45366.35112268518</v>
+        <v>45733.41709490741</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9187,13 +9187,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G147" t="n">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -9230,14 +9225,14 @@
     <row r="148" ht="15" customHeight="1">
       <c r="A148" t="inlineStr">
         <is>
-          <t>A 38251-2021</t>
+          <t>A 11772-2024</t>
         </is>
       </c>
       <c r="B148" s="1" t="n">
-        <v>44405</v>
+        <v>45373</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9250,7 +9245,7 @@
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -9287,14 +9282,14 @@
     <row r="149" ht="15" customHeight="1">
       <c r="A149" t="inlineStr">
         <is>
-          <t>A 54757-2025</t>
+          <t>A 11773-2024</t>
         </is>
       </c>
       <c r="B149" s="1" t="n">
-        <v>45966</v>
+        <v>45373</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9307,7 +9302,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -9344,14 +9339,14 @@
     <row r="150" ht="15" customHeight="1">
       <c r="A150" t="inlineStr">
         <is>
-          <t>A 12660-2023</t>
+          <t>A 10668-2025</t>
         </is>
       </c>
       <c r="B150" s="1" t="n">
-        <v>45000</v>
+        <v>45721.77831018518</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9364,7 +9359,7 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -9401,14 +9396,14 @@
     <row r="151" ht="15" customHeight="1">
       <c r="A151" t="inlineStr">
         <is>
-          <t>A 22055-2023</t>
+          <t>A 8765-2022</t>
         </is>
       </c>
       <c r="B151" s="1" t="n">
-        <v>45069.41737268519</v>
+        <v>44614</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9420,8 +9415,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G151" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -9458,14 +9458,14 @@
     <row r="152" ht="15" customHeight="1">
       <c r="A152" t="inlineStr">
         <is>
-          <t>A 10596-2024</t>
+          <t>A 43189-2025</t>
         </is>
       </c>
       <c r="B152" s="1" t="n">
-        <v>45366.78552083333</v>
+        <v>45910.41298611111</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9478,7 +9478,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -9515,14 +9515,14 @@
     <row r="153" ht="15" customHeight="1">
       <c r="A153" t="inlineStr">
         <is>
-          <t>A 56365-2025</t>
+          <t>A 30205-2023</t>
         </is>
       </c>
       <c r="B153" s="1" t="n">
-        <v>45974.67329861111</v>
+        <v>45110.61938657407</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9535,7 +9535,7 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.8</v>
+        <v>6.8</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -9572,14 +9572,14 @@
     <row r="154" ht="15" customHeight="1">
       <c r="A154" t="inlineStr">
         <is>
-          <t>A 56347-2025</t>
+          <t>A 19083-2022</t>
         </is>
       </c>
       <c r="B154" s="1" t="n">
-        <v>45974.65054398148</v>
+        <v>44691.48512731482</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9592,7 +9592,7 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>10.9</v>
+        <v>1</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -9629,14 +9629,14 @@
     <row r="155" ht="15" customHeight="1">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A 56352-2025</t>
+          <t>A 43986-2025</t>
         </is>
       </c>
       <c r="B155" s="1" t="n">
-        <v>45974.65353009259</v>
+        <v>45915.4346875</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9649,7 +9649,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>5.9</v>
+        <v>0.9</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -9686,14 +9686,14 @@
     <row r="156" ht="15" customHeight="1">
       <c r="A156" t="inlineStr">
         <is>
-          <t>A 56414-2025</t>
+          <t>A 45011-2025</t>
         </is>
       </c>
       <c r="B156" s="1" t="n">
-        <v>45975.33076388889</v>
+        <v>45918.67297453704</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9706,7 +9706,7 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.3</v>
+        <v>5.4</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -9743,14 +9743,14 @@
     <row r="157" ht="15" customHeight="1">
       <c r="A157" t="inlineStr">
         <is>
-          <t>A 56340-2025</t>
+          <t>A 45007-2025</t>
         </is>
       </c>
       <c r="B157" s="1" t="n">
-        <v>45974.64655092593</v>
+        <v>45918.66829861111</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -9763,7 +9763,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -9800,14 +9800,14 @@
     <row r="158" ht="15" customHeight="1">
       <c r="A158" t="inlineStr">
         <is>
-          <t>A 56417-2025</t>
+          <t>A 26035-2025</t>
         </is>
       </c>
       <c r="B158" s="1" t="n">
-        <v>45975.34238425926</v>
+        <v>45804</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -9820,7 +9820,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -9857,14 +9857,14 @@
     <row r="159" ht="15" customHeight="1">
       <c r="A159" t="inlineStr">
         <is>
-          <t>A 56367-2025</t>
+          <t>A 45009-2025</t>
         </is>
       </c>
       <c r="B159" s="1" t="n">
-        <v>45974.67436342593</v>
+        <v>45918.67119212963</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -9877,7 +9877,7 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -9914,14 +9914,14 @@
     <row r="160" ht="15" customHeight="1">
       <c r="A160" t="inlineStr">
         <is>
-          <t>A 28268-2023</t>
+          <t>A 45010-2025</t>
         </is>
       </c>
       <c r="B160" s="1" t="n">
-        <v>45099.61547453704</v>
+        <v>45918.67211805555</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -9934,7 +9934,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -9971,14 +9971,14 @@
     <row r="161" ht="15" customHeight="1">
       <c r="A161" t="inlineStr">
         <is>
-          <t>A 56346-2025</t>
+          <t>A 45013-2025</t>
         </is>
       </c>
       <c r="B161" s="1" t="n">
-        <v>45974.64944444445</v>
+        <v>45918.67410879629</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -9991,7 +9991,7 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>18.8</v>
+        <v>1.3</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -10028,14 +10028,14 @@
     <row r="162" ht="15" customHeight="1">
       <c r="A162" t="inlineStr">
         <is>
-          <t>A 56350-2025</t>
+          <t>A 26029-2025</t>
         </is>
       </c>
       <c r="B162" s="1" t="n">
-        <v>45974.65203703703</v>
+        <v>45804</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10048,7 +10048,7 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2</v>
+        <v>1.2</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -10085,14 +10085,14 @@
     <row r="163" ht="15" customHeight="1">
       <c r="A163" t="inlineStr">
         <is>
-          <t>A 850-2023</t>
+          <t>A 21429-2022</t>
         </is>
       </c>
       <c r="B163" s="1" t="n">
-        <v>44931.57833333333</v>
+        <v>44706</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10105,7 +10105,7 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -10142,14 +10142,14 @@
     <row r="164" ht="15" customHeight="1">
       <c r="A164" t="inlineStr">
         <is>
-          <t>A 55764-2024</t>
+          <t>A 25434-2025</t>
         </is>
       </c>
       <c r="B164" s="1" t="n">
-        <v>45623.36986111111</v>
+        <v>45800.8074537037</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10162,7 +10162,7 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -10199,14 +10199,14 @@
     <row r="165" ht="15" customHeight="1">
       <c r="A165" t="inlineStr">
         <is>
-          <t>A 19674-2023</t>
+          <t>A 25594-2025</t>
         </is>
       </c>
       <c r="B165" s="1" t="n">
-        <v>45051.39313657407</v>
+        <v>45803</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10219,7 +10219,7 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>0.7</v>
+        <v>3.2</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -10256,14 +10256,14 @@
     <row r="166" ht="15" customHeight="1">
       <c r="A166" t="inlineStr">
         <is>
-          <t>A 58517-2025</t>
+          <t>A 25435-2025</t>
         </is>
       </c>
       <c r="B166" s="1" t="n">
-        <v>45985.70609953703</v>
+        <v>45800.81108796296</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10276,7 +10276,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -10313,14 +10313,14 @@
     <row r="167" ht="15" customHeight="1">
       <c r="A167" t="inlineStr">
         <is>
-          <t>A 58520-2025</t>
+          <t>A 25780-2025</t>
         </is>
       </c>
       <c r="B167" s="1" t="n">
-        <v>45985.70936342593</v>
+        <v>45804.36298611111</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10332,8 +10332,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G167" t="n">
-        <v>1.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -10370,14 +10375,14 @@
     <row r="168" ht="15" customHeight="1">
       <c r="A168" t="inlineStr">
         <is>
-          <t>A 19683-2023</t>
+          <t>A 25436-2025</t>
         </is>
       </c>
       <c r="B168" s="1" t="n">
-        <v>45051.42228009259</v>
+        <v>45800.81622685185</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10390,7 +10395,7 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -10427,14 +10432,14 @@
     <row r="169" ht="15" customHeight="1">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A 58766-2025</t>
+          <t>A 26105-2025</t>
         </is>
       </c>
       <c r="B169" s="1" t="n">
-        <v>45986.66487268519</v>
+        <v>45805</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10447,7 +10452,7 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -10484,14 +10489,14 @@
     <row r="170" ht="15" customHeight="1">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A 8765-2022</t>
+          <t>A 35408-2023</t>
         </is>
       </c>
       <c r="B170" s="1" t="n">
-        <v>44614</v>
+        <v>45146</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10503,13 +10508,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
-        <is>
-          <t>Kyrkan</t>
-        </is>
-      </c>
       <c r="G170" t="n">
-        <v>1.5</v>
+        <v>3.6</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -10546,14 +10546,14 @@
     <row r="171" ht="15" customHeight="1">
       <c r="A171" t="inlineStr">
         <is>
-          <t>A 52352-2023</t>
+          <t>A 10703-2025</t>
         </is>
       </c>
       <c r="B171" s="1" t="n">
-        <v>45224.68096064815</v>
+        <v>45722.33243055556</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10566,7 +10566,7 @@
         </is>
       </c>
       <c r="G171" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -10603,14 +10603,14 @@
     <row r="172" ht="15" customHeight="1">
       <c r="A172" t="inlineStr">
         <is>
-          <t>A 58767-2025</t>
+          <t>A 47385-2025</t>
         </is>
       </c>
       <c r="B172" s="1" t="n">
-        <v>45986.66530092592</v>
+        <v>45930.59872685185</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10623,7 +10623,7 @@
         </is>
       </c>
       <c r="G172" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -10660,14 +10660,14 @@
     <row r="173" ht="15" customHeight="1">
       <c r="A173" t="inlineStr">
         <is>
-          <t>A 62510-2022</t>
+          <t>A 47368-2025</t>
         </is>
       </c>
       <c r="B173" s="1" t="n">
-        <v>44924.60834490741</v>
+        <v>45930.59194444444</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10679,13 +10679,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G173" t="n">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -10722,14 +10717,14 @@
     <row r="174" ht="15" customHeight="1">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A 60559-2025</t>
+          <t>A 47175-2025</t>
         </is>
       </c>
       <c r="B174" s="1" t="n">
-        <v>45995.78456018519</v>
+        <v>45930.26871527778</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -10742,7 +10737,7 @@
         </is>
       </c>
       <c r="G174" t="n">
-        <v>1.5</v>
+        <v>2.9</v>
       </c>
       <c r="H174" t="n">
         <v>0</v>
@@ -10779,14 +10774,14 @@
     <row r="175" ht="15" customHeight="1">
       <c r="A175" t="inlineStr">
         <is>
-          <t>A 17876-2025</t>
+          <t>A 47371-2025</t>
         </is>
       </c>
       <c r="B175" s="1" t="n">
-        <v>45758.64768518518</v>
+        <v>45930.59351851852</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -10799,7 +10794,7 @@
         </is>
       </c>
       <c r="G175" t="n">
-        <v>4.2</v>
+        <v>3.2</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -10836,14 +10831,14 @@
     <row r="176" ht="15" customHeight="1">
       <c r="A176" t="inlineStr">
         <is>
-          <t>A 9761-2025</t>
+          <t>A 47388-2025</t>
         </is>
       </c>
       <c r="B176" s="1" t="n">
-        <v>45716.47787037037</v>
+        <v>45930.60120370371</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -10855,13 +10850,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G176" t="n">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -10898,14 +10888,14 @@
     <row r="177" ht="15" customHeight="1">
       <c r="A177" t="inlineStr">
         <is>
-          <t>A 13170-2024</t>
+          <t>A 47389-2025</t>
         </is>
       </c>
       <c r="B177" s="1" t="n">
-        <v>45386.40589120371</v>
+        <v>45930.60195601852</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -10918,7 +10908,7 @@
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -10955,14 +10945,14 @@
     <row r="178" ht="15" customHeight="1">
       <c r="A178" t="inlineStr">
         <is>
-          <t>A 3960-2026</t>
+          <t>A 46959-2025</t>
         </is>
       </c>
       <c r="B178" s="1" t="n">
-        <v>46044.34138888889</v>
+        <v>45929.48538194445</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -10974,13 +10964,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G178" t="n">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -11017,14 +11002,14 @@
     <row r="179" ht="15" customHeight="1">
       <c r="A179" t="inlineStr">
         <is>
-          <t>A 62390-2023</t>
+          <t>A 47383-2025</t>
         </is>
       </c>
       <c r="B179" s="1" t="n">
-        <v>45268</v>
+        <v>45930.59738425926</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11037,7 +11022,7 @@
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -11074,14 +11059,14 @@
     <row r="180" ht="15" customHeight="1">
       <c r="A180" t="inlineStr">
         <is>
-          <t>A 62296-2025</t>
+          <t>A 46954-2025</t>
         </is>
       </c>
       <c r="B180" s="1" t="n">
-        <v>46006.64335648148</v>
+        <v>45929.48041666667</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11094,7 +11079,7 @@
         </is>
       </c>
       <c r="G180" t="n">
-        <v>4.6</v>
+        <v>1</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -11131,14 +11116,14 @@
     <row r="181" ht="15" customHeight="1">
       <c r="A181" t="inlineStr">
         <is>
-          <t>A 5044-2026</t>
+          <t>A 55511-2023</t>
         </is>
       </c>
       <c r="B181" s="1" t="n">
-        <v>46049.46898148148</v>
+        <v>45238.57581018518</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11151,7 +11136,7 @@
         </is>
       </c>
       <c r="G181" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -11188,14 +11173,14 @@
     <row r="182" ht="15" customHeight="1">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A 5690-2026</t>
+          <t>A 48012-2025</t>
         </is>
       </c>
       <c r="B182" s="1" t="n">
-        <v>46051.49328703704</v>
+        <v>45932.64380787037</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11208,7 +11193,7 @@
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -11245,14 +11230,14 @@
     <row r="183" ht="15" customHeight="1">
       <c r="A183" t="inlineStr">
         <is>
-          <t>A 62499-2022</t>
+          <t>A 49077-2025</t>
         </is>
       </c>
       <c r="B183" s="1" t="n">
-        <v>44924.59118055556</v>
+        <v>45937.6599074074</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11266,11 +11251,11 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Övriga Aktiebolag</t>
+          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1.6</v>
+        <v>7.8</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -11307,14 +11292,14 @@
     <row r="184" ht="15" customHeight="1">
       <c r="A184" t="inlineStr">
         <is>
-          <t>A 10958-2022</t>
+          <t>A 28390-2025</t>
         </is>
       </c>
       <c r="B184" s="1" t="n">
-        <v>44628</v>
+        <v>45819.32724537037</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11326,8 +11311,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G184" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -11364,14 +11354,14 @@
     <row r="185" ht="15" customHeight="1">
       <c r="A185" t="inlineStr">
         <is>
-          <t>A 45239-2022</t>
+          <t>A 15696-2025</t>
         </is>
       </c>
       <c r="B185" s="1" t="n">
-        <v>44844</v>
+        <v>45748.46936342592</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11383,13 +11373,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G185" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -11426,14 +11411,14 @@
     <row r="186" ht="15" customHeight="1">
       <c r="A186" t="inlineStr">
         <is>
-          <t>A 15426-2025</t>
+          <t>A 36472-2023</t>
         </is>
       </c>
       <c r="B186" s="1" t="n">
-        <v>45747.4666087963</v>
+        <v>45152.68237268519</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11446,7 +11431,7 @@
         </is>
       </c>
       <c r="G186" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -11483,14 +11468,14 @@
     <row r="187" ht="15" customHeight="1">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A 15442-2025</t>
+          <t>A 17219-2025</t>
         </is>
       </c>
       <c r="B187" s="1" t="n">
-        <v>45747.48292824074</v>
+        <v>45756.45190972222</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11502,8 +11487,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G187" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -11540,14 +11530,14 @@
     <row r="188" ht="15" customHeight="1">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A 17219-2025</t>
+          <t>A 49252-2023</t>
         </is>
       </c>
       <c r="B188" s="1" t="n">
-        <v>45756.45190972222</v>
+        <v>45210.66451388889</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11559,13 +11549,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G188" t="n">
-        <v>4.1</v>
+        <v>0.4</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -11602,14 +11587,14 @@
     <row r="189" ht="15" customHeight="1">
       <c r="A189" t="inlineStr">
         <is>
-          <t>A 19083-2022</t>
+          <t>A 31917-2022</t>
         </is>
       </c>
       <c r="B189" s="1" t="n">
-        <v>44691.48512731482</v>
+        <v>44777.59171296296</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11622,7 +11607,7 @@
         </is>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -11659,14 +11644,14 @@
     <row r="190" ht="15" customHeight="1">
       <c r="A190" t="inlineStr">
         <is>
-          <t>A 12450-2022</t>
+          <t>A 17876-2025</t>
         </is>
       </c>
       <c r="B190" s="1" t="n">
-        <v>44638</v>
+        <v>45758.64768518518</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11679,7 +11664,7 @@
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1.6</v>
+        <v>4.2</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -11716,14 +11701,14 @@
     <row r="191" ht="15" customHeight="1">
       <c r="A191" t="inlineStr">
         <is>
-          <t>A 21429-2022</t>
+          <t>A 31258-2025</t>
         </is>
       </c>
       <c r="B191" s="1" t="n">
-        <v>44706</v>
+        <v>45833.32134259259</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11736,7 +11721,7 @@
         </is>
       </c>
       <c r="G191" t="n">
-        <v>3.1</v>
+        <v>5.2</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -11773,14 +11758,14 @@
     <row r="192" ht="15" customHeight="1">
       <c r="A192" t="inlineStr">
         <is>
-          <t>A 56169-2024</t>
+          <t>A 52141-2025</t>
         </is>
       </c>
       <c r="B192" s="1" t="n">
-        <v>45624.55305555555</v>
+        <v>45953.32733796296</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -11793,7 +11778,7 @@
         </is>
       </c>
       <c r="G192" t="n">
-        <v>19.7</v>
+        <v>1.1</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -11830,14 +11815,14 @@
     <row r="193" ht="15" customHeight="1">
       <c r="A193" t="inlineStr">
         <is>
-          <t>A 13279-2024</t>
+          <t>A 52231-2025</t>
         </is>
       </c>
       <c r="B193" s="1" t="n">
-        <v>45386</v>
+        <v>45953.44965277778</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -11850,7 +11835,7 @@
         </is>
       </c>
       <c r="G193" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -11887,14 +11872,14 @@
     <row r="194" ht="15" customHeight="1">
       <c r="A194" t="inlineStr">
         <is>
-          <t>A 49256-2023</t>
+          <t>A 12450-2022</t>
         </is>
       </c>
       <c r="B194" s="1" t="n">
-        <v>45210.66854166667</v>
+        <v>44638</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -11907,7 +11892,7 @@
         </is>
       </c>
       <c r="G194" t="n">
-        <v>4.1</v>
+        <v>1.6</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -11944,14 +11929,14 @@
     <row r="195" ht="15" customHeight="1">
       <c r="A195" t="inlineStr">
         <is>
-          <t>A 14296-2023</t>
+          <t>A 53273-2025</t>
         </is>
       </c>
       <c r="B195" s="1" t="n">
-        <v>45011</v>
+        <v>45958.71226851852</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -11964,7 +11949,7 @@
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -12001,14 +11986,14 @@
     <row r="196" ht="15" customHeight="1">
       <c r="A196" t="inlineStr">
         <is>
-          <t>A 31969-2023</t>
+          <t>A 32909-2025</t>
         </is>
       </c>
       <c r="B196" s="1" t="n">
-        <v>45119.41274305555</v>
+        <v>45839.63256944445</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12058,14 +12043,14 @@
     <row r="197" ht="15" customHeight="1">
       <c r="A197" t="inlineStr">
         <is>
-          <t>A 31978-2023</t>
+          <t>A 32967-2025</t>
         </is>
       </c>
       <c r="B197" s="1" t="n">
-        <v>45119.42896990741</v>
+        <v>45839.72451388889</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12078,7 +12063,7 @@
         </is>
       </c>
       <c r="G197" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -12115,14 +12100,14 @@
     <row r="198" ht="15" customHeight="1">
       <c r="A198" t="inlineStr">
         <is>
-          <t>A 39150-2022</t>
+          <t>A 34161-2025</t>
         </is>
       </c>
       <c r="B198" s="1" t="n">
-        <v>44817.48424768518</v>
+        <v>45845.57840277778</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12135,7 +12120,7 @@
         </is>
       </c>
       <c r="G198" t="n">
-        <v>1.1</v>
+        <v>4.7</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -12172,14 +12157,14 @@
     <row r="199" ht="15" customHeight="1">
       <c r="A199" t="inlineStr">
         <is>
-          <t>A 741-2026</t>
+          <t>A 54757-2025</t>
         </is>
       </c>
       <c r="B199" s="1" t="n">
-        <v>46029.66304398148</v>
+        <v>45966</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12192,7 +12177,7 @@
         </is>
       </c>
       <c r="G199" t="n">
-        <v>1.7</v>
+        <v>0.6</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -12229,14 +12214,14 @@
     <row r="200" ht="15" customHeight="1">
       <c r="A200" t="inlineStr">
         <is>
-          <t>A 36472-2023</t>
+          <t>A 45211-2022</t>
         </is>
       </c>
       <c r="B200" s="1" t="n">
-        <v>45152.68237268519</v>
+        <v>44844.44121527778</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12249,7 +12234,7 @@
         </is>
       </c>
       <c r="G200" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -12286,14 +12271,14 @@
     <row r="201" ht="15" customHeight="1">
       <c r="A201" t="inlineStr">
         <is>
-          <t>A 3932-2022</t>
+          <t>A 64712-2023</t>
         </is>
       </c>
       <c r="B201" s="1" t="n">
-        <v>44587.54376157407</v>
+        <v>45281.68771990741</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12306,7 +12291,7 @@
         </is>
       </c>
       <c r="G201" t="n">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -12343,14 +12328,14 @@
     <row r="202" ht="15" customHeight="1">
       <c r="A202" t="inlineStr">
         <is>
-          <t>A 68680-2021</t>
+          <t>A 6925-2023</t>
         </is>
       </c>
       <c r="B202" s="1" t="n">
-        <v>44529</v>
+        <v>44967</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12362,8 +12347,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G202" t="n">
-        <v>4.9</v>
+        <v>0.9</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -12400,14 +12390,14 @@
     <row r="203" ht="15" customHeight="1">
       <c r="A203" t="inlineStr">
         <is>
-          <t>A 7225-2023</t>
+          <t>A 35153-2025</t>
         </is>
       </c>
       <c r="B203" s="1" t="n">
-        <v>44970.59268518518</v>
+        <v>45852.68678240741</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12420,7 +12410,7 @@
         </is>
       </c>
       <c r="G203" t="n">
-        <v>1.4</v>
+        <v>6.6</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -12457,14 +12447,14 @@
     <row r="204" ht="15" customHeight="1">
       <c r="A204" t="inlineStr">
         <is>
-          <t>A 35408-2023</t>
+          <t>A 58236-2024</t>
         </is>
       </c>
       <c r="B204" s="1" t="n">
-        <v>45146</v>
+        <v>45632.53951388889</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12476,8 +12466,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G204" t="n">
-        <v>3.6</v>
+        <v>2.3</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -12514,14 +12509,14 @@
     <row r="205" ht="15" customHeight="1">
       <c r="A205" t="inlineStr">
         <is>
-          <t>A 13280-2024</t>
+          <t>A 39081-2022</t>
         </is>
       </c>
       <c r="B205" s="1" t="n">
-        <v>45386</v>
+        <v>44817.40581018518</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12571,14 +12566,14 @@
     <row r="206" ht="15" customHeight="1">
       <c r="A206" t="inlineStr">
         <is>
-          <t>A 31981-2023</t>
+          <t>A 58691-2024</t>
         </is>
       </c>
       <c r="B206" s="1" t="n">
-        <v>45119.43261574074</v>
+        <v>45635.6282175926</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12590,8 +12585,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Kyrkan</t>
+        </is>
+      </c>
       <c r="G206" t="n">
-        <v>0.4</v>
+        <v>2.3</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -12628,14 +12628,14 @@
     <row r="207" ht="15" customHeight="1">
       <c r="A207" t="inlineStr">
         <is>
-          <t>A 55511-2023</t>
+          <t>A 36381-2023</t>
         </is>
       </c>
       <c r="B207" s="1" t="n">
-        <v>45238.57581018518</v>
+        <v>45152.52061342593</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12648,7 +12648,7 @@
         </is>
       </c>
       <c r="G207" t="n">
-        <v>3.6</v>
+        <v>2</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -12685,14 +12685,14 @@
     <row r="208" ht="15" customHeight="1">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A 28258-2023</t>
+          <t>A 56365-2025</t>
         </is>
       </c>
       <c r="B208" s="1" t="n">
-        <v>45099</v>
+        <v>45974.67329861111</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12705,7 +12705,7 @@
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -12742,14 +12742,14 @@
     <row r="209" ht="15" customHeight="1">
       <c r="A209" t="inlineStr">
         <is>
-          <t>A 28264-2023</t>
+          <t>A 56347-2025</t>
         </is>
       </c>
       <c r="B209" s="1" t="n">
-        <v>45099</v>
+        <v>45974.65054398148</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -12762,7 +12762,7 @@
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1.9</v>
+        <v>10.9</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -12799,14 +12799,14 @@
     <row r="210" ht="15" customHeight="1">
       <c r="A210" t="inlineStr">
         <is>
-          <t>A 49252-2023</t>
+          <t>A 56352-2025</t>
         </is>
       </c>
       <c r="B210" s="1" t="n">
-        <v>45210.66451388889</v>
+        <v>45974.65353009259</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -12819,7 +12819,7 @@
         </is>
       </c>
       <c r="G210" t="n">
-        <v>0.4</v>
+        <v>5.9</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -12856,14 +12856,14 @@
     <row r="211" ht="15" customHeight="1">
       <c r="A211" t="inlineStr">
         <is>
-          <t>A 28335-2023</t>
+          <t>A 56346-2025</t>
         </is>
       </c>
       <c r="B211" s="1" t="n">
-        <v>45099.74278935185</v>
+        <v>45974.64944444445</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -12876,7 +12876,7 @@
         </is>
       </c>
       <c r="G211" t="n">
-        <v>0.5</v>
+        <v>18.8</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -12913,14 +12913,14 @@
     <row r="212" ht="15" customHeight="1">
       <c r="A212" t="inlineStr">
         <is>
-          <t>A 13281-2024</t>
+          <t>A 56350-2025</t>
         </is>
       </c>
       <c r="B212" s="1" t="n">
-        <v>45386</v>
+        <v>45974.65203703703</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -12933,7 +12933,7 @@
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
@@ -12970,14 +12970,14 @@
     <row r="213" ht="15" customHeight="1">
       <c r="A213" t="inlineStr">
         <is>
-          <t>A 58650-2023</t>
+          <t>A 56367-2025</t>
         </is>
       </c>
       <c r="B213" s="1" t="n">
-        <v>45251.59912037037</v>
+        <v>45974.67436342593</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -12990,7 +12990,7 @@
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>2.3</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -13027,14 +13027,14 @@
     <row r="214" ht="15" customHeight="1">
       <c r="A214" t="inlineStr">
         <is>
-          <t>A 36304-2023</t>
+          <t>A 56340-2025</t>
         </is>
       </c>
       <c r="B214" s="1" t="n">
-        <v>45152.37777777778</v>
+        <v>45974.64655092593</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13047,7 +13047,7 @@
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -13084,14 +13084,14 @@
     <row r="215" ht="15" customHeight="1">
       <c r="A215" t="inlineStr">
         <is>
-          <t>A 10345-2021</t>
+          <t>A 9761-2025</t>
         </is>
       </c>
       <c r="B215" s="1" t="n">
-        <v>44257</v>
+        <v>45716.47787037037</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13103,8 +13103,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G215" t="n">
-        <v>0.6</v>
+        <v>3</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -13141,14 +13146,14 @@
     <row r="216" ht="15" customHeight="1">
       <c r="A216" t="inlineStr">
         <is>
-          <t>A 49536-2021</t>
+          <t>A 56417-2025</t>
         </is>
       </c>
       <c r="B216" s="1" t="n">
-        <v>44455.33650462963</v>
+        <v>45975.34238425926</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13160,13 +13165,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
-        <is>
-          <t>Övriga Aktiebolag</t>
-        </is>
-      </c>
       <c r="G216" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -13203,14 +13203,14 @@
     <row r="217" ht="15" customHeight="1">
       <c r="A217" t="inlineStr">
         <is>
-          <t>A 59074-2023</t>
+          <t>A 35947-2025</t>
         </is>
       </c>
       <c r="B217" s="1" t="n">
-        <v>45252.87451388889</v>
+        <v>45862.73864583333</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13223,7 +13223,7 @@
         </is>
       </c>
       <c r="G217" t="n">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -13260,14 +13260,14 @@
     <row r="218" ht="15" customHeight="1">
       <c r="A218" t="inlineStr">
         <is>
-          <t>A 15428-2025</t>
+          <t>A 56414-2025</t>
         </is>
       </c>
       <c r="B218" s="1" t="n">
-        <v>45747.46989583333</v>
+        <v>45975.33076388889</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         </is>
       </c>
       <c r="G218" t="n">
-        <v>0.1</v>
+        <v>3.3</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -13317,14 +13317,14 @@
     <row r="219" ht="15" customHeight="1">
       <c r="A219" t="inlineStr">
         <is>
-          <t>A 15434-2025</t>
+          <t>A 13268-2024</t>
         </is>
       </c>
       <c r="B219" s="1" t="n">
-        <v>45747.47193287037</v>
+        <v>45386</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13337,7 +13337,7 @@
         </is>
       </c>
       <c r="G219" t="n">
-        <v>0.1</v>
+        <v>6.7</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -13374,14 +13374,14 @@
     <row r="220" ht="15" customHeight="1">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A 11771-2024</t>
+          <t>A 13281-2024</t>
         </is>
       </c>
       <c r="B220" s="1" t="n">
-        <v>45373</v>
+        <v>45386</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13394,7 +13394,7 @@
         </is>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -13431,14 +13431,14 @@
     <row r="221" ht="15" customHeight="1">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A 58417-2024</t>
+          <t>A 19683-2023</t>
         </is>
       </c>
       <c r="B221" s="1" t="n">
-        <v>45634.83702546296</v>
+        <v>45051.42228009259</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13450,13 +13450,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
-        <is>
-          <t>Kommuner</t>
-        </is>
-      </c>
       <c r="G221" t="n">
-        <v>0.5</v>
+        <v>2.3</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -13493,14 +13488,14 @@
     <row r="222" ht="15" customHeight="1">
       <c r="A222" t="inlineStr">
         <is>
-          <t>A 13245-2021</t>
+          <t>A 58417-2024</t>
         </is>
       </c>
       <c r="B222" s="1" t="n">
-        <v>44272.6200462963</v>
+        <v>45634.83702546296</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13512,8 +13507,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Kommuner</t>
+        </is>
+      </c>
       <c r="G222" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -13550,14 +13550,14 @@
     <row r="223" ht="15" customHeight="1">
       <c r="A223" t="inlineStr">
         <is>
-          <t>A 13345-2022</t>
+          <t>A 13450-2025</t>
         </is>
       </c>
       <c r="B223" s="1" t="n">
-        <v>44645</v>
+        <v>45736.37754629629</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13570,7 +13570,7 @@
         </is>
       </c>
       <c r="G223" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -13607,14 +13607,14 @@
     <row r="224" ht="15" customHeight="1">
       <c r="A224" t="inlineStr">
         <is>
-          <t>A 64712-2023</t>
+          <t>A 58766-2025</t>
         </is>
       </c>
       <c r="B224" s="1" t="n">
-        <v>45281.68771990741</v>
+        <v>45986.66487268519</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13627,7 +13627,7 @@
         </is>
       </c>
       <c r="G224" t="n">
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -13664,14 +13664,14 @@
     <row r="225" ht="15" customHeight="1">
       <c r="A225" t="inlineStr">
         <is>
-          <t>A 39081-2022</t>
+          <t>A 58767-2025</t>
         </is>
       </c>
       <c r="B225" s="1" t="n">
-        <v>44817.40581018518</v>
+        <v>45986.66530092592</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13684,7 +13684,7 @@
         </is>
       </c>
       <c r="G225" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -13721,14 +13721,14 @@
     <row r="226" ht="15" customHeight="1">
       <c r="A226" t="inlineStr">
         <is>
-          <t>A 61294-2024</t>
+          <t>A 58517-2025</t>
         </is>
       </c>
       <c r="B226" s="1" t="n">
-        <v>45645.83722222222</v>
+        <v>45985.70609953703</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13741,7 +13741,7 @@
         </is>
       </c>
       <c r="G226" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -13778,14 +13778,14 @@
     <row r="227" ht="15" customHeight="1">
       <c r="A227" t="inlineStr">
         <is>
-          <t>A 62402-2023</t>
+          <t>A 58520-2025</t>
         </is>
       </c>
       <c r="B227" s="1" t="n">
-        <v>45268.36413194444</v>
+        <v>45985.70936342593</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -13798,7 +13798,7 @@
         </is>
       </c>
       <c r="G227" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -13835,14 +13835,14 @@
     <row r="228" ht="15" customHeight="1">
       <c r="A228" t="inlineStr">
         <is>
-          <t>A 1352-2023</t>
+          <t>A 60559-2025</t>
         </is>
       </c>
       <c r="B228" s="1" t="n">
-        <v>44931</v>
+        <v>45995.78456018519</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -13855,7 +13855,7 @@
         </is>
       </c>
       <c r="G228" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -13892,14 +13892,14 @@
     <row r="229" ht="15" customHeight="1">
       <c r="A229" t="inlineStr">
         <is>
-          <t>A 9762-2025</t>
+          <t>A 39150-2022</t>
         </is>
       </c>
       <c r="B229" s="1" t="n">
-        <v>45716.47924768519</v>
+        <v>44817.48424768518</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -13911,13 +13911,8 @@
           <t>GÖTENE</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G229" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -13954,14 +13949,14 @@
     <row r="230" ht="15" customHeight="1">
       <c r="A230" t="inlineStr">
         <is>
-          <t>A 19093-2025</t>
+          <t>A 3960-2026</t>
         </is>
       </c>
       <c r="B230" s="1" t="n">
-        <v>45767.49024305555</v>
+        <v>46044.34138888889</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -13973,8 +13968,13 @@
           <t>GÖTENE</t>
         </is>
       </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Övriga Aktiebolag</t>
+        </is>
+      </c>
       <c r="G230" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -14011,14 +14011,14 @@
     <row r="231" ht="15" customHeight="1">
       <c r="A231" t="inlineStr">
         <is>
-          <t>A 28332-2023</t>
+          <t>A 14502-2023</t>
         </is>
       </c>
       <c r="B231" s="1" t="n">
-        <v>45099.72846064815</v>
+        <v>45012.74041666667</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14031,7 +14031,7 @@
         </is>
       </c>
       <c r="G231" t="n">
-        <v>0.8</v>
+        <v>3.2</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -14068,14 +14068,14 @@
     <row r="232" ht="15" customHeight="1">
       <c r="A232" t="inlineStr">
         <is>
-          <t>A 44033-2024</t>
+          <t>A 38251-2021</t>
         </is>
       </c>
       <c r="B232" s="1" t="n">
-        <v>45572</v>
+        <v>44405</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14088,7 +14088,7 @@
         </is>
       </c>
       <c r="G232" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -14125,14 +14125,14 @@
     <row r="233" ht="15" customHeight="1">
       <c r="A233" t="inlineStr">
         <is>
-          <t>A 72879-2021</t>
+          <t>A 62296-2025</t>
         </is>
       </c>
       <c r="B233" s="1" t="n">
-        <v>44547</v>
+        <v>46006.64335648148</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14145,7 +14145,7 @@
         </is>
       </c>
       <c r="G233" t="n">
-        <v>1.9</v>
+        <v>4.6</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -14182,14 +14182,14 @@
     <row r="234" ht="15" customHeight="1">
       <c r="A234" t="inlineStr">
         <is>
-          <t>A 28267-2023</t>
+          <t>A 5044-2026</t>
         </is>
       </c>
       <c r="B234" s="1" t="n">
-        <v>45099</v>
+        <v>46049.46898148148</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14202,7 +14202,7 @@
         </is>
       </c>
       <c r="G234" t="n">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -14239,14 +14239,14 @@
     <row r="235" ht="15" customHeight="1">
       <c r="A235" t="inlineStr">
         <is>
-          <t>A 28273-2023</t>
+          <t>A 5690-2026</t>
         </is>
       </c>
       <c r="B235" s="1" t="n">
-        <v>45099.62096064815</v>
+        <v>46051.49328703704</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14259,7 +14259,7 @@
         </is>
       </c>
       <c r="G235" t="n">
-        <v>5.1</v>
+        <v>0.8</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -14293,17 +14293,17 @@
       </c>
       <c r="R235" s="2" t="inlineStr"/>
     </row>
-    <row r="236">
+    <row r="236" ht="15" customHeight="1">
       <c r="A236" t="inlineStr">
         <is>
-          <t>A 21285-2024</t>
+          <t>A 741-2026</t>
         </is>
       </c>
       <c r="B236" s="1" t="n">
-        <v>45440.65799768519</v>
+        <v>46029.66304398148</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46078</v>
+        <v>46079</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14316,7 +14316,7 @@
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -14349,6 +14349,633 @@
         <v>0</v>
       </c>
       <c r="R236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237" ht="15" customHeight="1">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>A 10626-2026</t>
+        </is>
+      </c>
+      <c r="B237" s="1" t="n">
+        <v>46078.28807870371</v>
+      </c>
+      <c r="C237" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G237" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
+      <c r="I237" t="n">
+        <v>0</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0</v>
+      </c>
+      <c r="M237" t="n">
+        <v>0</v>
+      </c>
+      <c r="N237" t="n">
+        <v>0</v>
+      </c>
+      <c r="O237" t="n">
+        <v>0</v>
+      </c>
+      <c r="P237" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
+      <c r="R237" s="2" t="inlineStr"/>
+    </row>
+    <row r="238" ht="15" customHeight="1">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>A 10630-2026</t>
+        </is>
+      </c>
+      <c r="B238" s="1" t="n">
+        <v>46078.29324074074</v>
+      </c>
+      <c r="C238" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G238" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H238" t="n">
+        <v>0</v>
+      </c>
+      <c r="I238" t="n">
+        <v>0</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0</v>
+      </c>
+      <c r="M238" t="n">
+        <v>0</v>
+      </c>
+      <c r="N238" t="n">
+        <v>0</v>
+      </c>
+      <c r="O238" t="n">
+        <v>0</v>
+      </c>
+      <c r="P238" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
+      <c r="R238" s="2" t="inlineStr"/>
+    </row>
+    <row r="239" ht="15" customHeight="1">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>A 10636-2026</t>
+        </is>
+      </c>
+      <c r="B239" s="1" t="n">
+        <v>46078.31372685185</v>
+      </c>
+      <c r="C239" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G239" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
+      <c r="I239" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0</v>
+      </c>
+      <c r="M239" t="n">
+        <v>0</v>
+      </c>
+      <c r="N239" t="n">
+        <v>0</v>
+      </c>
+      <c r="O239" t="n">
+        <v>0</v>
+      </c>
+      <c r="P239" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
+      <c r="R239" s="2" t="inlineStr"/>
+    </row>
+    <row r="240" ht="15" customHeight="1">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>A 10637-2026</t>
+        </is>
+      </c>
+      <c r="B240" s="1" t="n">
+        <v>46078.31506944444</v>
+      </c>
+      <c r="C240" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G240" t="n">
+        <v>1</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0</v>
+      </c>
+      <c r="I240" t="n">
+        <v>0</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0</v>
+      </c>
+      <c r="M240" t="n">
+        <v>0</v>
+      </c>
+      <c r="N240" t="n">
+        <v>0</v>
+      </c>
+      <c r="O240" t="n">
+        <v>0</v>
+      </c>
+      <c r="P240" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
+      <c r="R240" s="2" t="inlineStr"/>
+    </row>
+    <row r="241" ht="15" customHeight="1">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>A 10628-2026</t>
+        </is>
+      </c>
+      <c r="B241" s="1" t="n">
+        <v>46078.29061342592</v>
+      </c>
+      <c r="C241" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G241" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H241" t="n">
+        <v>0</v>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>0</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0</v>
+      </c>
+      <c r="M241" t="n">
+        <v>0</v>
+      </c>
+      <c r="N241" t="n">
+        <v>0</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
+      <c r="R241" s="2" t="inlineStr"/>
+    </row>
+    <row r="242" ht="15" customHeight="1">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>A 10633-2026</t>
+        </is>
+      </c>
+      <c r="B242" s="1" t="n">
+        <v>46078.30783564815</v>
+      </c>
+      <c r="C242" s="1" t="n">
+        <v>46079</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>GÖTENE</t>
+        </is>
+      </c>
+      <c r="G242" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>0</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0</v>
+      </c>
+      <c r="M242" t="n">
+        <v>0</v>
+      </c>
+      <c r="N242" t="n">
+        <v>0</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
+      <c r="R242" s="2" t="inlineStr"/>
+    </row>
+    <row r="243" ht="15" customHeight="1">
+      <c r="A